--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06235967788949132</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06235967788949132</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09977548462318613</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08927871303016266</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01683711303016266</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="B65" t="n">
-        <v>0.020029149042131</v>
+        <v>0.02351149954067264</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.001662886910627846</v>
+        <v>0.001517565031443943</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007971980938652006</v>
+        <v>0.0008285314590388605</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001169423461684679</v>
+        <v>0.002599539099654269</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008052677448840294</v>
+        <v>0.0008009558515221498</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003242104957985964</v>
+        <v>0.006400777752647635</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007713572711522256</v>
+        <v>0.0007961386002656787</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004758177561547838</v>
+        <v>0.001517565031443943</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000817495110911157</v>
+        <v>0.0008285314590388605</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002655116587720587</v>
+        <v>0.003203869811655838</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001594396187730401</v>
+        <v>0.001657062918077721</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002233618766215778</v>
+        <v>0.006312765465272763</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001610535489768059</v>
+        <v>0.0016019117030443</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007192002172251133</v>
+        <v>0.0123763222747385</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001542714542304451</v>
+        <v>0.001592277200531357</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.009872494776708152</v>
+        <v>0.003203869811655838</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001634990221822314</v>
+        <v>0.001657062918077721</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00393490090402155</v>
+        <v>0.004649715076261135</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002391594281595602</v>
+        <v>0.002485594377116582</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003664291765109573</v>
+        <v>0.008694493290228755</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002415803234652088</v>
+        <v>0.00240286755456645</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01000273592045028</v>
+        <v>0.01894723694812195</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002314071813456677</v>
+        <v>0.002388415800797036</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01505980988744254</v>
+        <v>0.004649715076261135</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002452485332733471</v>
+        <v>0.002485594377116582</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00315735644725134</v>
+        <v>0.006145901560885347</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003188792375460802</v>
+        <v>0.003314125836155442</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00473314830988239</v>
+        <v>0.0105584</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003221070979536118</v>
+        <v>0.002904448795667262</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0134273504802381</v>
+        <v>0.024334125154647</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003085429084608903</v>
+        <v>0.003184554401062715</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02023698113571304</v>
+        <v>0.006145901560885347</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003269980443644628</v>
+        <v>0.003314125836155442</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.006676383014043666</v>
+        <v>0.011818558</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009353951683423699</v>
+        <v>0.0165584</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005303373626386242</v>
+        <v>0.00738323000115397</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003985990469326003</v>
+        <v>0.004142657295194302</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006011894252050537</v>
+        <v>0.01326687996427084</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004026338724420147</v>
+        <v>0.00400477925761075</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01651889012926938</v>
+        <v>0.02975759027616298</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003856786355761129</v>
+        <v>0.003980693001328394</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02482086676348144</v>
+        <v>0.00738323000115397</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004087475554555786</v>
+        <v>0.004142657295194302</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007353842850402477</v>
+        <v>0.00895250113269247</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004783188563191204</v>
+        <v>0.004971188754233163</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006972235443130345</v>
+        <v>0.01487968202069628</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004831606469304177</v>
+        <v>0.004805735109132899</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01893039914519873</v>
+        <v>0.03383823569451894</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004628143626913354</v>
+        <v>0.004776831601594072</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02802832501270958</v>
+        <v>0.00895250113269247</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004904970665466943</v>
+        <v>0.004971188754233163</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007289654528276353</v>
+        <v>0.01024451569112635</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005580386657056405</v>
+        <v>0.005799720213272024</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007558400000000007</v>
+        <v>0.01659104909774473</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005394808000000005</v>
+        <v>0.005606690960655049</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02121492180568094</v>
+        <v>0.03779666479156413</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005399500898065579</v>
+        <v>0.00557297020185975</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03197621412535939</v>
+        <v>0.01024451569112635</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005722465776378099</v>
+        <v>0.005799720213272024</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009353951683423699</v>
+        <v>0.01145007441208107</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006676383014043666</v>
+        <v>0.006628251672310884</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008500219034319398</v>
+        <v>0.01810934476698378</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006442141959072235</v>
+        <v>0.006407646812177198</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02372550238837076</v>
+        <v>0.04145348094914775</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006170858169217805</v>
+        <v>0.00636910880212543</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03555839999999999</v>
+        <v>0.01145007441208107</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006748433055791771</v>
+        <v>0.006628251672310884</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009755746763887178</v>
+        <v>0.01245997803118216</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007174782844786806</v>
+        <v>0.007456783131349744</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.00913016638545773</v>
+        <v>0.01974293259998122</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007247409703956265</v>
+        <v>0.007208602663699348</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02555840000000001</v>
+        <v>0.044529287549119</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006966795921912117</v>
+        <v>0.007165247402391108</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03617594970828064</v>
+        <v>0.01245997803118216</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007357455998200414</v>
+        <v>0.007456783131349744</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009332024214594177</v>
+        <v>0.01346502728405508</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007971980938652005</v>
+        <v>0.008285314590388605</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009688810165988118</v>
+        <v>0.02170017616830477</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008052677448840294</v>
+        <v>0.008009558515221499</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02676256340219835</v>
+        <v>0.0465584</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007713572711522257</v>
+        <v>0.008106479378045917</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03823568880066114</v>
+        <v>0.01346502728405508</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008174951109111572</v>
+        <v>0.008285314590388605</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01083655367776579</v>
+        <v>0.01455602290632534</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008769179032517206</v>
+        <v>0.009113846049427466</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01018576831023983</v>
+        <v>0.02288943904352214</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008857945193724324</v>
+        <v>0.008810514366743648</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02761667459879596</v>
+        <v>0.04726761006949598</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008484929982674482</v>
+        <v>0.008757524602922465</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04013214782556462</v>
+        <v>0.01455602290632534</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008992446220022727</v>
+        <v>0.009113846049427466</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01028072337632852</v>
+        <v>0.01512376563361839</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009566377126382407</v>
+        <v>0.009942377508466327</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01043065875254215</v>
+        <v>0.02461908479720101</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009663212938608353</v>
+        <v>0.009611470218265798</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02831398569553698</v>
+        <v>0.04806985107138234</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009256287253826708</v>
+        <v>0.009553663203188144</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04072490983368682</v>
+        <v>0.01512376563361839</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009809941330933885</v>
+        <v>0.009942377508466327</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01167592153320886</v>
+        <v>0.01565905620155976</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01036357522024761</v>
+        <v>0.01077090896750519</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01083309942722432</v>
+        <v>0.02599747700090915</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01046848068349238</v>
+        <v>0.01041242606978795</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0288908417025695</v>
+        <v>0.04841270592707225</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01002764452497893</v>
+        <v>0.01034980180345382</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04177355787572351</v>
+        <v>0.01565905620155976</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01062743644184504</v>
+        <v>0.01077090896750519</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.009033536371333299</v>
+        <v>0.0165584</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01116077331411281</v>
+        <v>0.011818558</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01140270826861559</v>
+        <v>0.0273329792262143</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01127374842837641</v>
+        <v>0.0112133819213101</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02968358763004161</v>
+        <v>0.04914590035378646</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01079900179613116</v>
+        <v>0.0111459404037195</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04353767500237032</v>
+        <v>0.0165584</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0114449315527562</v>
+        <v>0.011818558</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01136495611362836</v>
+        <v>0.01652210452494852</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01195797140797801</v>
+        <v>0.01242797188558291</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0116491032110452</v>
+        <v>0.02893395504468413</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01207901617326044</v>
+        <v>0.01201433777283225</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03072856848810149</v>
+        <v>0.0496191600687455</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01157035906728339</v>
+        <v>0.01194207900398518</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04427684426432282</v>
+        <v>0.01652210452494852</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01226242666366736</v>
+        <v>0.01242797188558291</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.009681568983020465</v>
+        <v>0.01713505210530993</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01275516950184321</v>
+        <v>0.01325650334462177</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01208190218884245</v>
+        <v>0.02960876802788637</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01288428391814447</v>
+        <v>0.0128152936243544</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03116212928689713</v>
+        <v>0.0495822107891703</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01234171633843561</v>
+        <v>0.01273821760425086</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04515064871227681</v>
+        <v>0.01713505210530993</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01307992177457851</v>
+        <v>0.01325650334462177</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01299476320243619</v>
+        <v>0.01740274901408635</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01355236759570841</v>
+        <v>0.01408503480366063</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01211072313633656</v>
+        <v>0.03126578174738875</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0136895516630285</v>
+        <v>0.01361624947587655</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03202061503657666</v>
+        <v>0.04998477823228131</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01311307360958784</v>
+        <v>0.01353435620451654</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04671867139692792</v>
+        <v>0.01740274901408635</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01389741688548967</v>
+        <v>0.01408503480366063</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01031592699480196</v>
+        <v>0.01743316480032893</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01434956568957361</v>
+        <v>0.01491356626269949</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01244518398785678</v>
+        <v>0.03221335977475898</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01449481940791253</v>
+        <v>0.0144172053273987</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03234037074728818</v>
+        <v>0.05067658811529946</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01388443088074006</v>
+        <v>0.01433049480478222</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04844049536897171</v>
+        <v>0.01743316480032893</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01471491199640083</v>
+        <v>0.01491356626269949</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01265644858304429</v>
+        <v>0.01763426901308879</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01514676378343881</v>
+        <v>0.01574209772173835</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01279490267773238</v>
+        <v>0.03335986568156479</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01530008715279656</v>
+        <v>0.01521816117892084</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03335774142917983</v>
+        <v>0.05209923020961754</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01465578815189229</v>
+        <v>0.01511869448929844</v>
       </c>
       <c r="N84" t="n">
-        <v>0.04917570367910395</v>
+        <v>0.01763426901308879</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01553240710731198</v>
+        <v>0.01574209772173835</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01102771619008968</v>
+        <v>0.01801403120141705</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01594396187730401</v>
+        <v>0.01657062918077721</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0132694971402926</v>
+        <v>0.03501366303937392</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01610535489768059</v>
+        <v>0.016019117030443</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03410907209239966</v>
+        <v>0.05280002816239404</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01542714542304451</v>
+        <v>0.01592277200531357</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05209923020961754</v>
+        <v>0.01801403120141705</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0164793769933353</v>
+        <v>0.01657062918077721</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01244111803886463</v>
+        <v>0.01818042091436484</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01674115997116921</v>
+        <v>0.01739916063981607</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01387858530986677</v>
+        <v>0.03593185659300743</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01691062264256462</v>
+        <v>0.01647380878536667</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03593185659300743</v>
+        <v>0.05343829358562069</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01632404688731788</v>
+        <v>0.01671891060557925</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05418276994841026</v>
+        <v>0.01818042091436484</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0171673973291343</v>
+        <v>0.01739916063981607</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01190804235229562</v>
+        <v>0.01814140770098326</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01753835806503441</v>
+        <v>0.01822769209885493</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01433178512078404</v>
+        <v>0.03768980989122869</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01771589038744865</v>
+        <v>0.0176210287334873</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03701679438405878</v>
+        <v>0.05441210529362522</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01696985996534896</v>
+        <v>0.01751504920584493</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05754171984397022</v>
+        <v>0.01814140770098326</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01798489244004545</v>
+        <v>0.01822769209885493</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01443987735330914</v>
+        <v>0.01840496111032347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01833555615889962</v>
+        <v>0.01905622355789379</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01483871450737373</v>
+        <v>0.03912779711724101</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01852115813233268</v>
+        <v>0.01842198458500944</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03930270751705886</v>
+        <v>0.05551140777766617</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01774121723650119</v>
+        <v>0.01831118780611061</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06156189532687228</v>
+        <v>0.01840496111032347</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01880238755095661</v>
+        <v>0.01905622355789379</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01604801126483169</v>
+        <v>0.01867905069143655</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01913275425276481</v>
+        <v>0.01988475501693265</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01530899140396508</v>
+        <v>0.04039409172487898</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01932642587721671</v>
+        <v>0.0192229404365316</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04117601748734892</v>
+        <v>0.05752614552900193</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01851257450765342</v>
+        <v>0.01910732640637629</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06563419689521022</v>
+        <v>0.01867905069143655</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01961988266186777</v>
+        <v>0.01988475501693265</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01683711303016266</v>
+        <v>0.01877164599337364</v>
       </c>
       <c r="G90" t="n">
-        <v>0.020029149042131</v>
+        <v>0.02071328647597151</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01595223374488734</v>
+        <v>0.04158410006516675</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02013169362210074</v>
+        <v>0.02002389628805374</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0444176451020066</v>
+        <v>0.05894626303889106</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01928393177880564</v>
+        <v>0.01990346500664197</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07134952504707798</v>
+        <v>0.01877164599337364</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02043737777277892</v>
+        <v>0.02071328647597151</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0147933336852971</v>
+        <v>0.01909071656518588</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02072715044049521</v>
+        <v>0.02154181793501038</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0164780594644698</v>
+        <v>0.04259322848912858</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02093696136698476</v>
+        <v>0.02082485213957589</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04750851116810945</v>
+        <v>0.060261704798592</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02005528904995787</v>
+        <v>0.02069960360690765</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07569878028056948</v>
+        <v>0.01909071656518588</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02125487288369008</v>
+        <v>0.02154181793501038</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01848570996999854</v>
+        <v>0.01934423195592437</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02152434853436042</v>
+        <v>0.02237034939404924</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01759608649704164</v>
+        <v>0.04441688334778865</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02174222911186879</v>
+        <v>0.02162580799109804</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05092953649273499</v>
+        <v>0.06236241529936348</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02082664632111009</v>
+        <v>0.02149574220717333</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08127286309377851</v>
+        <v>0.01934423195592437</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02207236799460124</v>
+        <v>0.02237034939404924</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01862199002490588</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02232154662822562</v>
+        <v>0.02351149954067264</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0185159327769322</v>
+        <v>0.04585047099217113</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02254749685675283</v>
+        <v>0.02242676384262019</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05456164188296092</v>
+        <v>0.06393833903246382</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02159800359226232</v>
+        <v>0.022291880807439</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08636267398479908</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0228898631055124</v>
+        <v>0.02351149954067264</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0209975029648057</v>
+        <v>0.01990414485532344</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02311874472209082</v>
+        <v>0.02402741231212695</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01976448297639731</v>
+        <v>0.04688939777330017</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02351149954067264</v>
+        <v>0.02322771969414235</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05728574814586465</v>
+        <v>0.06557942048915161</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02236936086341455</v>
+        <v>0.02308801940770468</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0897591134517251</v>
+        <v>0.01990414485532344</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02370735821642355</v>
+        <v>0.02402741231212695</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02540757790448451</v>
+        <v>0.02030167750703503</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02391594281595602</v>
+        <v>0.02485594377116582</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02131125443424951</v>
+        <v>0.04842907004220012</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02415803234652088</v>
+        <v>0.02402867554566449</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06018277608852385</v>
+        <v>0.06827560416068534</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02314071813456677</v>
+        <v>0.02388415800797036</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0938530819926503</v>
+        <v>0.02030167750703503</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02452485332733471</v>
+        <v>0.02485594377116582</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02664754395872886</v>
+        <v>0.02112617630431736</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02471314090982122</v>
+        <v>0.02568447523020468</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02582012780568436</v>
+        <v>0.05006489414989504</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02496330009140491</v>
+        <v>0.02482963139718665</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06323364651801611</v>
+        <v>0.06931683453832355</v>
       </c>
       <c r="M96" t="n">
-        <v>0.023912075405719</v>
+        <v>0.02468029660823604</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0960354801056687</v>
+        <v>0.02112617630431736</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02534234843824587</v>
+        <v>0.02568447523020468</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03051273024232529</v>
+        <v>0.02186405864418667</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02551033900368642</v>
+        <v>0.02651300668924354</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0306454146307632</v>
+        <v>0.05189227644740918</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02576856783628894</v>
+        <v>0.02563058724870879</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06541928024141896</v>
+        <v>0.07139305611332464</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02468343267687122</v>
+        <v>0.02547643520850172</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09829720828887412</v>
+        <v>0.02186405864418667</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02615984354915702</v>
+        <v>0.02651300668924354</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02879846587006035</v>
+        <v>0.02260174192365925</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02630753709755162</v>
+        <v>0.0273415381482824</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03519465713826453</v>
+        <v>0.05300662328576675</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02657383558117297</v>
+        <v>0.02643154310023095</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06662059806580997</v>
+        <v>0.07319421337694731</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02545478994802345</v>
+        <v>0.0262725738087674</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09839893951071077</v>
+        <v>0.02260174192365925</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02697733866006818</v>
+        <v>0.0273415381482824</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03130007995672054</v>
+        <v>0.02362564353975137</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02710473519141682</v>
+        <v>0.02817006960732126</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03777539755696685</v>
+        <v>0.0541033410159919</v>
       </c>
       <c r="K99" t="n">
-        <v>0.027379103326057</v>
+        <v>0.02723249895175309</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0676185207982668</v>
+        <v>0.07571025082044996</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02622614721917567</v>
+        <v>0.02706871240903307</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09840266979064483</v>
+        <v>0.02362564353975137</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02779483377097934</v>
+        <v>0.02817006960732126</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02924076278486017</v>
+        <v>0.02462218088947929</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02790193328528202</v>
+        <v>0.02899860106636012</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03771237079793197</v>
+        <v>0.05587783598910886</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02818437107094103</v>
+        <v>0.02803345480327524</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06805937757985867</v>
+        <v>0.07773111293509116</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0269975044903279</v>
+        <v>0.02786485100929876</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09728982604245351</v>
+        <v>0.02462218088947929</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0286123288818905</v>
+        <v>0.02899860106636012</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03106101678545416</v>
+        <v>0.02547777136985922</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02869913137914722</v>
+        <v>0.02982713252539898</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03784086745989532</v>
+        <v>0.05712551455614184</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02898963881582506</v>
+        <v>0.02883441065479739</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06754592211254404</v>
+        <v>0.07924674421212935</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02776886176148012</v>
+        <v>0.02866098960956443</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09678197583358777</v>
+        <v>0.02547777136985922</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02942982399280165</v>
+        <v>0.02982713252539898</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02877935051258233</v>
+        <v>0.02667883237790754</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02949632947301242</v>
+        <v>0.03065566398443784</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03751570388745058</v>
+        <v>0.058541783068115</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02979490656070909</v>
+        <v>0.02963536650631954</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06781708555484176</v>
+        <v>0.08194708914282306</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02854021903263235</v>
+        <v>0.02945712820983011</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09620068673149829</v>
+        <v>0.02667883237790754</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03024731910371281</v>
+        <v>0.03065566398443784</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03141352985876617</v>
+        <v>0.02781178131064042</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03029352756687762</v>
+        <v>0.0314841954434767</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0375419439468298</v>
+        <v>0.05992204787605263</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03060017430559312</v>
+        <v>0.03043632235784169</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06748318745049114</v>
+        <v>0.08352209221843088</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02931157630378458</v>
+        <v>0.03025326681009579</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09586752630363576</v>
+        <v>0.02781178131064042</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03106481421462397</v>
+        <v>0.0314841954434767</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02798132071652713</v>
+        <v>0.02896303556507417</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03109072566074282</v>
+        <v>0.03231272690251556</v>
       </c>
       <c r="J104" t="n">
-        <v>0.037224651504265</v>
+        <v>0.06086171533097876</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03140544205047715</v>
+        <v>0.03123727820936384</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06705454734323152</v>
+        <v>0.08556169793021123</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0300829335749368</v>
+        <v>0.03104940541036147</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09470406211745097</v>
+        <v>0.02896303556507417</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03188230932553512</v>
+        <v>0.03231272690251556</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0305004889783867</v>
+        <v>0.03021901253822504</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03188792375460802</v>
+        <v>0.03314125836155442</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0368688904259882</v>
+        <v>0.06245619178391776</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03221070979536118</v>
+        <v>0.032038234060886</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06664148477680226</v>
+        <v>0.0873558507694227</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03085429084608903</v>
+        <v>0.03184554401062715</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09343186174039458</v>
+        <v>0.03021901253822504</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03269980443644629</v>
+        <v>0.03314125836155442</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02898880053686636</v>
+        <v>0.03106612962710931</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03268512184847322</v>
+        <v>0.03396978982059328</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03657972457823143</v>
+        <v>0.06350088358589373</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0330159775402452</v>
+        <v>0.03283918991240814</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06595431929494266</v>
+        <v>0.08969449522732381</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03162564811724125</v>
+        <v>0.03264168261089282</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09157249273991724</v>
+        <v>0.03106612962710931</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03351729954735744</v>
+        <v>0.03396978982059328</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02846402128448754</v>
+        <v>0.0324908042287432</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03348231994233843</v>
+        <v>0.03479832127963214</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0364622178272267</v>
+        <v>0.06419119708793086</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03382124528512923</v>
+        <v>0.03364014576393029</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06540337044139211</v>
+        <v>0.09066757579517293</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03239700538839348</v>
+        <v>0.03343782121115851</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09074752268346981</v>
+        <v>0.0324908042287432</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03433479465826859</v>
+        <v>0.03479832127963214</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0269439171137718</v>
+        <v>0.03327945374014307</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03427951803620363</v>
+        <v>0.035626852738671</v>
       </c>
       <c r="J108" t="n">
-        <v>0.035921434039206</v>
+        <v>0.06552253864105342</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03462651303001327</v>
+        <v>0.03444110161545244</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06419895775988987</v>
+        <v>0.0929650369642287</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0331683626595457</v>
+        <v>0.03423395981142419</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08957851913850301</v>
+        <v>0.03327945374014307</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03515228976917975</v>
+        <v>0.035626852738671</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02744625391724056</v>
+        <v>0.03461849555832509</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03507671613006882</v>
+        <v>0.03645538419770986</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03566243708040143</v>
+        <v>0.06629031459628557</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0354317807748973</v>
+        <v>0.03524205746697459</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06375140079417535</v>
+        <v>0.09397682322574963</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03393971993069793</v>
+        <v>0.03503009841168986</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08818704967246754</v>
+        <v>0.03461849555832509</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03596978488009091</v>
+        <v>0.03645538419770986</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02598879758741528</v>
+        <v>0.0352943470803056</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03587391422393402</v>
+        <v>0.03728391565674873</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03539029081704495</v>
+        <v>0.06738993130465148</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03623704851978132</v>
+        <v>0.03604301331849674</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06317101908798783</v>
+        <v>0.09609287907099423</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03471107720185016</v>
+        <v>0.03582623701195554</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08689468185281402</v>
+        <v>0.0352943470803056</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03678727999100206</v>
+        <v>0.03728391565674873</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02658931401681747</v>
+        <v>0.0361934257031008</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03667111231779923</v>
+        <v>0.03811244711578758</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03501005911536859</v>
+        <v>0.06821679511717541</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03704231626466535</v>
+        <v>0.03684396917001889</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06246813218506669</v>
+        <v>0.09770314899122101</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03548243447300239</v>
+        <v>0.03662237561222122</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08522298324699334</v>
+        <v>0.0361934257031008</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03760477510191323</v>
+        <v>0.03811244711578758</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02426556909796859</v>
+        <v>0.037102148823727</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03746831041166443</v>
+        <v>0.03894097857482644</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03442680584160439</v>
+        <v>0.06876631238488151</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03784758400954938</v>
+        <v>0.03764492502154104</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06135305962915125</v>
+        <v>0.0989975774776885</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03625379174415461</v>
+        <v>0.0374185142124869</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08419352142245612</v>
+        <v>0.037102148823727</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03842227021282438</v>
+        <v>0.03894097857482644</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02603532872339013</v>
+        <v>0.03770693383920047</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03826550850552963</v>
+        <v>0.03976951003386531</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03424559486198435</v>
+        <v>0.06953388945879396</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03865285175443341</v>
+        <v>0.03844588087306319</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06043612096398079</v>
+        <v>0.09976610902165506</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03702514901530683</v>
+        <v>0.03821465281275258</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08202786394665312</v>
+        <v>0.03770693383920047</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03923976532373554</v>
+        <v>0.03976951003386531</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02591635878560355</v>
+        <v>0.03859419814653745</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03906270659939483</v>
+        <v>0.04059804149290416</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03387149004274052</v>
+        <v>0.06971493268993695</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03945811949931744</v>
+        <v>0.03924683672458534</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05932763573329478</v>
+        <v>0.1008986881143794</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03779650628645906</v>
+        <v>0.03901079141301825</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08174757838703506</v>
+        <v>0.03859419814653745</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04005726043464669</v>
+        <v>0.04059804149290416</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0249104599241033</v>
+        <v>0.03895035914275422</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03985990469326003</v>
+        <v>0.04142657295194303</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0333095552501049</v>
+        <v>0.07030484842933479</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04026338724420148</v>
+        <v>0.04004779257610749</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05923792348083248</v>
+        <v>0.10188525924712</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03856786355761128</v>
+        <v>0.03980693001328393</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0801742323110527</v>
+        <v>0.03895035914275422</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04087475554555785</v>
+        <v>0.04142657295194303</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02595326793170127</v>
+        <v>0.03926183422486705</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04065710278712523</v>
+        <v>0.04225510441098188</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03316485435030951</v>
+        <v>0.07129904302801157</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0410686549890855</v>
+        <v>0.04084874842762964</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05807730375033321</v>
+        <v>0.1025157669111353</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03933922082876351</v>
+        <v>0.04060306861354961</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07892939328615661</v>
+        <v>0.03926183422486705</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04169225065646901</v>
+        <v>0.04225510441098188</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02503359339121752</v>
+        <v>0.03952896595279462</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04145430088099043</v>
+        <v>0.04308363587002075</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03254245120958639</v>
+        <v>0.07099292283699155</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04187392273396952</v>
+        <v>0.04164970427915179</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05775609608553633</v>
+        <v>0.102880155597684</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04011057809991574</v>
+        <v>0.04139920721381529</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0788346288797977</v>
+        <v>0.03952896595279462</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04250974576738017</v>
+        <v>0.04308363587002075</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02514885519552399</v>
+        <v>0.03932780718548132</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04225149897485563</v>
+        <v>0.04391216732905961</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03234740969416754</v>
+        <v>0.07186371318601487</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04267919047885356</v>
+        <v>0.04245066013067394</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05638462003018116</v>
+        <v>0.1039683697980243</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04088193537106796</v>
+        <v>0.04219534581408096</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07751150665942663</v>
+        <v>0.03932780718548132</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04332724087829132</v>
+        <v>0.04391216732905961</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02429647223749256</v>
+        <v>0.0395207943524071</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04304869706872083</v>
+        <v>0.04474069878809847</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03208479367028499</v>
+        <v>0.07176136348995774</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04348445822373759</v>
+        <v>0.04325161598219609</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05597319512800708</v>
+        <v>0.1041984604192351</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04165329264222019</v>
+        <v>0.04299148441434665</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07698159419249412</v>
+        <v>0.0395207943524071</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04414473598920248</v>
+        <v>0.04474069878809847</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02747386340999514</v>
+        <v>0.03920751324619992</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04384589516258603</v>
+        <v>0.04556923024713733</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03185966700417077</v>
+        <v>0.07185055908505425</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04428972596862162</v>
+        <v>0.04405257183371824</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05563214092275337</v>
+        <v>0.1037946566541517</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04242464991337241</v>
+        <v>0.04378762301461233</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07666645904645086</v>
+        <v>0.03920751324619992</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04496223110011364</v>
+        <v>0.04556923024713733</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02667844760590368</v>
+        <v>0.03928806042832704</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04464309325645124</v>
+        <v>0.04639776170617619</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03167709356205689</v>
+        <v>0.0716978726864457</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04509499371350565</v>
+        <v>0.04485352768524039</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05517177695815939</v>
+        <v>0.104161579637097</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04319600718452463</v>
+        <v>0.044583761614878</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07771425223275191</v>
+        <v>0.03928806042832704</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04577972621102479</v>
+        <v>0.04639776170617619</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02790764371809002</v>
+        <v>0.03926253246025581</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04544029135031644</v>
+        <v>0.04722629316521505</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0314421372101754</v>
+        <v>0.07130660482646298</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04590026145838968</v>
+        <v>0.04565448353676254</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05510242277796445</v>
+        <v>0.1034953527524785</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04396736445567686</v>
+        <v>0.04537990021514369</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07723635377249688</v>
+        <v>0.03926253246025581</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04659722132193595</v>
+        <v>0.04722629316521505</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02515887063942609</v>
+        <v>0.03923102590345351</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04623748944418164</v>
+        <v>0.04805482462425391</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03145986181475828</v>
+        <v>0.07107856575240915</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04670552920327371</v>
+        <v>0.04645543938828469</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05483439792590797</v>
+        <v>0.103996998477583</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04473872172682909</v>
+        <v>0.04617603881540936</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07870599992955979</v>
+        <v>0.03923102590345351</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04741471643284711</v>
+        <v>0.04805482462425391</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02842954726278381</v>
+        <v>0.03939363731938748</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04703468753804683</v>
+        <v>0.04888335608329277</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03143565669273804</v>
+        <v>0.07091556571158708</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04751079694815773</v>
+        <v>0.04725639523980683</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05397802194572923</v>
+        <v>0.1034675392896975</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04551007899798132</v>
+        <v>0.04697217741567504</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0789809141615046</v>
+        <v>0.03939363731938748</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04823221154375826</v>
+        <v>0.04888335608329277</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02671709248103506</v>
+        <v>0.03915046326952501</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04783188563191203</v>
+        <v>0.04971188754233163</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03161192589327104</v>
+        <v>0.07081941495129979</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04831606469304176</v>
+        <v>0.04805735109132898</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05414593225721001</v>
+        <v>0.1033079976661088</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04628143626913354</v>
+        <v>0.04776831601594073</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08091881992589584</v>
+        <v>0.03915046326952501</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04904970665466942</v>
+        <v>0.04971188754233163</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02601892518705178</v>
+        <v>0.03900160031533342</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04862908372577723</v>
+        <v>0.05054041900137049</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03160595415397685</v>
+        <v>0.07049192371885016</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0491213324379258</v>
+        <v>0.04885830694285114</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05470062261239694</v>
+        <v>0.1027193960841037</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04705279354028577</v>
+        <v>0.0485644546162064</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08217744068029764</v>
+        <v>0.03900160031533342</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04986720176558058</v>
+        <v>0.05054041900137049</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02633246427370586</v>
+        <v>0.03914714501828001</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04942628181964243</v>
+        <v>0.05136895046040935</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03200383484697439</v>
+        <v>0.07063490226154118</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04992660018280982</v>
+        <v>0.04965926279437329</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05455129305368792</v>
+        <v>0.1032027570209692</v>
       </c>
       <c r="M127" t="n">
-        <v>0.047824150811438</v>
+        <v>0.04936059321647208</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08431449988227419</v>
+        <v>0.03914714501828001</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05068469687649174</v>
+        <v>0.05136895046040935</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02665512863386919</v>
+        <v>0.03908719393983209</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05022347991350764</v>
+        <v>0.05219748191944821</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03249166134438261</v>
+        <v>0.06995016082667579</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05073186792769385</v>
+        <v>0.05046021864589544</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05507783915311937</v>
+        <v>0.1021591029539921</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04859550808259022</v>
+        <v>0.05015673181673776</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08578772098938986</v>
+        <v>0.03908719393983209</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05150219198740289</v>
+        <v>0.05219748191944821</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0279843371604137</v>
+        <v>0.038921843641457</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05102067800737284</v>
+        <v>0.05302601337848707</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03295552701832044</v>
+        <v>0.06983950966155691</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05153713567257788</v>
+        <v>0.05126117449741759</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0557601564827277</v>
+        <v>0.1021894563604593</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04936686535374244</v>
+        <v>0.05095287041700344</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08805482745920873</v>
+        <v>0.038921843641457</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05231968709831405</v>
+        <v>0.05302601337848707</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02831750874621127</v>
+        <v>0.038751190684622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05181787610123804</v>
+        <v>0.05385454483752593</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03348152524090683</v>
+        <v>0.06980475901348754</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05234240341746191</v>
+        <v>0.05206213034893974</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05667814061454926</v>
+        <v>0.1018948397176576</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05013822262489467</v>
+        <v>0.05174900901726912</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08947354274929525</v>
+        <v>0.038751190684622</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0531371822092252</v>
+        <v>0.05385454483752593</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02865206228413383</v>
+        <v>0.03867533163079444</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05261507419510324</v>
+        <v>0.0546830762965648</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03385574938426074</v>
+        <v>0.06914771912977055</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05314767116234594</v>
+        <v>0.05286308620046189</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05741168712062053</v>
+        <v>0.101176275502874</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05090957989604689</v>
+        <v>0.05254514761753479</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0925015903172135</v>
+        <v>0.03867533163079444</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05395467732013636</v>
+        <v>0.0546830762965648</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02998541666705328</v>
+        <v>0.03879436304144161</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05341227228896844</v>
+        <v>0.05551160775560365</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03456429282050107</v>
+        <v>0.06867020025770895</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05395293890722998</v>
+        <v>0.05366404205198404</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05844069157297788</v>
+        <v>0.1017347861933953</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05168093716719912</v>
+        <v>0.05334128621780047</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09369669362052768</v>
+        <v>0.03879436304144161</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05477217243104752</v>
+        <v>0.05551160775560365</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03131499078784151</v>
+        <v>0.03870838147803085</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05420947038283364</v>
+        <v>0.05634013921464252</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0351932489217468</v>
+        <v>0.06837401264460571</v>
       </c>
       <c r="K133" t="n">
-        <v>0.054758206652114</v>
+        <v>0.05446499790350619</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06024504954365772</v>
+        <v>0.1006713942665083</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05245229443835134</v>
+        <v>0.05413742481806615</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09611657611680219</v>
+        <v>0.03870838147803085</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05558966754195867</v>
+        <v>0.05634013921464252</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03163820353937043</v>
+        <v>0.03841748350202942</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05500666847669884</v>
+        <v>0.05716867067368138</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03602871106011686</v>
+        <v>0.06816096653776374</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05556347439699803</v>
+        <v>0.05526595375502834</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0608046566046965</v>
+        <v>0.1010871221994999</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05322365170950358</v>
+        <v>0.05493356341833183</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09771896126360119</v>
+        <v>0.03841748350202942</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05640716265286983</v>
+        <v>0.05716867067368138</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02895247381451199</v>
+        <v>0.03862176567490466</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05580386657056404</v>
+        <v>0.05799720213272024</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03665677260773019</v>
+        <v>0.06743287218448593</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05636874214188206</v>
+        <v>0.05606690960655049</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06229940832813055</v>
+        <v>0.1003829924696572</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0539950089806558</v>
+        <v>0.05572970201859751</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09896157251848897</v>
+        <v>0.03862176567490466</v>
       </c>
       <c r="O135" t="n">
-        <v>0.057224657763781</v>
+        <v>0.05799720213272024</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02925522050613803</v>
+        <v>0.0382213245581239</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05660106466442925</v>
+        <v>0.05882573359175909</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03716352693670573</v>
+        <v>0.06699153983207534</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05717400988676608</v>
+        <v>0.05686786545807263</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0635092002859963</v>
+        <v>0.1000600275542668</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05476636625180803</v>
+        <v>0.05652584061886319</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1012021333390297</v>
+        <v>0.0382213245581239</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05804215287469215</v>
+        <v>0.05882573359175909</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03254386250712048</v>
+        <v>0.03831625671315442</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05739826275829445</v>
+        <v>0.05965426505079795</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03753506741916242</v>
+        <v>0.06663877972783488</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05797927763165012</v>
+        <v>0.05766882130959478</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06481392805033015</v>
+        <v>0.09961924993061566</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05553772352296025</v>
+        <v>0.05732197921912886</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1017983671827877</v>
+        <v>0.03831625671315442</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05885964798560331</v>
+        <v>0.05965426505079795</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03281581871033126</v>
+        <v>0.03820665870146353</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05819546085215965</v>
+        <v>0.06048279650983682</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03805748742721922</v>
+        <v>0.06627640211906743</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05878454537653415</v>
+        <v>0.05846977716111693</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06559348719316857</v>
+        <v>0.09916168207599063</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05630908079411247</v>
+        <v>0.05811811781939454</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1024079975073271</v>
+        <v>0.03820665870146353</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05967714309651447</v>
+        <v>0.06048279650983682</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03106850800864226</v>
+        <v>0.03799262708451855</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05899265894602485</v>
+        <v>0.06131132796887568</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03881688033299505</v>
+        <v>0.06540621725307602</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05958981312141817</v>
+        <v>0.05927073301263908</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06722777328654786</v>
+        <v>0.0986883464676786</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0570804380652647</v>
+        <v>0.05891425641966022</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1037887477702122</v>
+        <v>0.03799262708451855</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06049463820742562</v>
+        <v>0.06131132796887568</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03029934929492539</v>
+        <v>0.03787425842378679</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05978985703989004</v>
+        <v>0.06213985942791454</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03909933950860883</v>
+        <v>0.06513003537716353</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06039508086630221</v>
+        <v>0.06007168886416123</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0683966819025045</v>
+        <v>0.09770026558296652</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05785179533641693</v>
+        <v>0.0597103950199259</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1041984604192351</v>
+        <v>0.03787425842378679</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06131213331833678</v>
+        <v>0.06213985942791454</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03150576146205256</v>
+        <v>0.03775164928073556</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06058705513375524</v>
+        <v>0.0629683908869534</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03952896595279462</v>
+        <v>0.06464966673863298</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06120034861118624</v>
+        <v>0.06087264471568338</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06878010861307493</v>
+        <v>0.0977984618991411</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05862315260756915</v>
+        <v>0.06050653362019159</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1033781999891431</v>
+        <v>0.03775164928073556</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06212962842924794</v>
+        <v>0.0629683908869534</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03367422606032532</v>
+        <v>0.03782489621683219</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06138425322762044</v>
+        <v>0.06379692234599225</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03961586604748338</v>
+        <v>0.0640669215847873</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06200561635607027</v>
+        <v>0.06167360056720553</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06965794899029543</v>
+        <v>0.09718395789348938</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05939450987872138</v>
+        <v>0.06130267222045725</v>
       </c>
       <c r="N142" t="n">
-        <v>0.103717002808554</v>
+        <v>0.03782489621683219</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06294712354015909</v>
+        <v>0.06379692234599225</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03385330339995322</v>
+        <v>0.03739409579354395</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06218145132148564</v>
+        <v>0.06462545380503112</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03993703059933822</v>
+        <v>0.06378361016292938</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0628108841009543</v>
+        <v>0.06247455641872768</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0705100986062025</v>
+        <v>0.09645777604329803</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0601658671498736</v>
+        <v>0.06209881082072294</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1040172947574028</v>
+        <v>0.03739409579354395</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06376461865107025</v>
+        <v>0.06462545380503112</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03202303578947203</v>
+        <v>0.03745934457233817</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06297864941535085</v>
+        <v>0.06545398526406998</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04015567762426542</v>
+        <v>0.06290154272036222</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06361615184583833</v>
+        <v>0.06327551227024984</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07111645303283254</v>
+        <v>0.09542093882585412</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06093722442102583</v>
+        <v>0.06289494942098861</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1035815141714251</v>
+        <v>0.03745934457233817</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06458211376198141</v>
+        <v>0.06545398526406998</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03119405212267749</v>
+        <v>0.03712073911468218</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06377584750921604</v>
+        <v>0.06628251672310884</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04017164800407719</v>
+        <v>0.06292252950438876</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06442141959072235</v>
+        <v>0.06407646812177199</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07186371318601487</v>
+        <v>0.09557446871844449</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06170858169217806</v>
+        <v>0.0636910880212543</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1029120993863565</v>
+        <v>0.03712073911468218</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06539960887289258</v>
+        <v>0.06628251672310884</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03436597551504356</v>
+        <v>0.03717837598204324</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06457304560308125</v>
+        <v>0.06711104818214771</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04048478262058565</v>
+        <v>0.06254838076231198</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06522668733560638</v>
+        <v>0.06487742397329414</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0725137110570791</v>
+        <v>0.0952193881983559</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06247993896333028</v>
+        <v>0.06448722662151998</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1033114887379326</v>
+        <v>0.03717837598204324</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06621710398380372</v>
+        <v>0.06711104818214771</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03153842908204415</v>
+        <v>0.03683235173588872</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06537024369694644</v>
+        <v>0.06793957964118656</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04059492235560298</v>
+        <v>0.06208090674143477</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06603195508049041</v>
+        <v>0.06567837982481628</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07264559850877611</v>
+        <v>0.09365671974287532</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0632512962344825</v>
+        <v>0.06528336522178564</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1023821205618889</v>
+        <v>0.03683235173588872</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06703459909471488</v>
+        <v>0.06793957964118656</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03271103593915325</v>
+        <v>0.03698276293768589</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06616744179081165</v>
+        <v>0.06876811110022543</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04080190809094138</v>
+        <v>0.06142191768906008</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06683722282537445</v>
+        <v>0.06647933567633843</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07307319035511303</v>
+        <v>0.09348748582928962</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06402265350563473</v>
+        <v>0.06607950382205133</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1021264331939613</v>
+        <v>0.03698276293768589</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06785209420562603</v>
+        <v>0.06876811110022543</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03388341920184478</v>
+        <v>0.03682970614890207</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06696463988467685</v>
+        <v>0.06959664255926427</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04100558070841298</v>
+        <v>0.06067322385249085</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06764249057025847</v>
+        <v>0.06728029152786058</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07349609340189267</v>
+        <v>0.09271270893488553</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06479401077678695</v>
+        <v>0.06687564242231701</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1027468649698851</v>
+        <v>0.03682970614890207</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06866958931653719</v>
+        <v>0.06959664255926427</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0320552019855927</v>
+        <v>0.03647327793100458</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06776183797854204</v>
+        <v>0.07042517401830314</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04130578108982992</v>
+        <v>0.06033663547903009</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06844775831514249</v>
+        <v>0.06808124737938273</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0740139144549179</v>
+        <v>0.09193341153695017</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06556536804793918</v>
+        <v>0.06767178102258269</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1022458542253961</v>
+        <v>0.03647327793100458</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06948708442744835</v>
+        <v>0.07042517401830314</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03522600740587093</v>
+        <v>0.03621357484546071</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06855903607240725</v>
+        <v>0.071253705477342</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04160235011700443</v>
+        <v>0.06021396281598071</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06925302606002653</v>
+        <v>0.06888220323090488</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0744262603199915</v>
+        <v>0.09205061611277021</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06633672531909141</v>
+        <v>0.06846791962284837</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1014258392962297</v>
+        <v>0.03621357484546071</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0703045795383595</v>
+        <v>0.071253705477342</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03239545857815348</v>
+        <v>0.0363506934537378</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06935623416627246</v>
+        <v>0.07208223693638087</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04149512867174862</v>
+        <v>0.05970701611064566</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07005829380491055</v>
+        <v>0.06968315908242703</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07453273780291639</v>
+        <v>0.09176534513963264</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06710808259024363</v>
+        <v>0.06926405822311404</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1010892585181218</v>
+        <v>0.0363506934537378</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07112207464927066</v>
+        <v>0.07208223693638087</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03556317861791424</v>
+        <v>0.03608473031730312</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07015343226013765</v>
+        <v>0.07291076839541973</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04188395763587466</v>
+        <v>0.05891413808795257</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07086356154979459</v>
+        <v>0.07048411493394918</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07473295370949526</v>
+        <v>0.0904786210948243</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06787943986139586</v>
+        <v>0.07006019682337972</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1012385502268078</v>
+        <v>0.03608473031730312</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07193956976018182</v>
+        <v>0.07291076839541973</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03572879064062719</v>
+        <v>0.03601578199762404</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07095063035400286</v>
+        <v>0.07373929985445858</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04186867789119475</v>
+        <v>0.05882633911669294</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07166882929467862</v>
+        <v>0.07128507078547133</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07522651484553103</v>
+        <v>0.09029146645563196</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06865079713254808</v>
+        <v>0.0708563354236454</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1002761527580233</v>
+        <v>0.03601578199762404</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07275706487109297</v>
+        <v>0.07373929985445858</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03289191776176625</v>
+        <v>0.03584394505616781</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07174782844786805</v>
+        <v>0.07456783131349745</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04234913031952102</v>
+        <v>0.05874256608377909</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07247409703956265</v>
+        <v>0.07208602663699348</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07601302801682644</v>
+        <v>0.08920490369934259</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06942215440370032</v>
+        <v>0.07165247402391109</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09970450444750406</v>
+        <v>0.03584394505616781</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07357455998200413</v>
+        <v>0.07456783131349745</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03605218309680539</v>
+        <v>0.03546931605440176</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07254502654173325</v>
+        <v>0.07539636277253631</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04252515580266564</v>
+        <v>0.05786230426238667</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07327936478444667</v>
+        <v>0.07288698248851562</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0758921000291844</v>
+        <v>0.0888199553032431</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07019351167485255</v>
+        <v>0.07244861262417676</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09942604363098551</v>
+        <v>0.03546931605440176</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0743920550929153</v>
+        <v>0.07539636277253631</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03520920976121854</v>
+        <v>0.0353919915537932</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07334222463559846</v>
+        <v>0.07622489423157516</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0425965952224408</v>
+        <v>0.05738503892569125</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0740846325293307</v>
+        <v>0.07368793834003777</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07646333768840768</v>
+        <v>0.08833764374462028</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07096486894600477</v>
+        <v>0.07324475122444243</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09924320864420344</v>
+        <v>0.0353919915537932</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07520955020382646</v>
+        <v>0.07622489423157516</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03636262087047967</v>
+        <v>0.03521206811580947</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07413942272946365</v>
+        <v>0.07705342569061402</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04286328946065864</v>
+        <v>0.05701025534686852</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07488990027421474</v>
+        <v>0.07448889419155993</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07682634780029909</v>
+        <v>0.08795899150076103</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07173622621715699</v>
+        <v>0.07404088982470812</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09935843782289333</v>
+        <v>0.03521206811580947</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07602704531473761</v>
+        <v>0.07705342569061402</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0345120395400627</v>
+        <v>0.03492964230191783</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07493662082332886</v>
+        <v>0.07788195714965289</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04272507939913134</v>
+        <v>0.05723743879909413</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07569516801909876</v>
+        <v>0.07528985004308208</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07748073717066151</v>
+        <v>0.08668502104895226</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07250758348830921</v>
+        <v>0.07483702842497379</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09827416950279078</v>
+        <v>0.03492964230191783</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07684454042564877</v>
+        <v>0.07788195714965289</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0336570888854416</v>
+        <v>0.03484481067358565</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07573381891719407</v>
+        <v>0.07871048860869174</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04308180591967103</v>
+        <v>0.0563660745555436</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0765004357639828</v>
+        <v>0.07609080589460424</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07782611260529779</v>
+        <v>0.08671675486648073</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07327894075946144</v>
+        <v>0.07563316702523948</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09819284201963147</v>
+        <v>0.03484481067358565</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07766203553655993</v>
+        <v>0.07871048860869174</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03679739202209032</v>
+        <v>0.03475766979228019</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07653101701105926</v>
+        <v>0.07953902006773061</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04303330990408993</v>
+        <v>0.05639564788939261</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07730570350886683</v>
+        <v>0.07689176174612639</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07766208091001062</v>
+        <v>0.0859552154306335</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07405029803061366</v>
+        <v>0.07642930562550515</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09771689370915099</v>
+        <v>0.03475766979228019</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07847953064747108</v>
+        <v>0.07953902006773061</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0339325720654828</v>
+        <v>0.03456831621946876</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07732821510492445</v>
+        <v>0.08036755152676947</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04347943223420016</v>
+        <v>0.05612564407381679</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07811097125375084</v>
+        <v>0.07769271759764854</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07858824889060287</v>
+        <v>0.08510142521869724</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07482165530176589</v>
+        <v>0.07722544422577082</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09734876290708488</v>
+        <v>0.03456831621946876</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07929702575838223</v>
+        <v>0.08036755152676947</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03406225213109298</v>
+        <v>0.03427684651661871</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07812541319878966</v>
+        <v>0.08119608298580833</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04352001379181389</v>
+        <v>0.05515554838199174</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07891623899863488</v>
+        <v>0.07849367344917069</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07840422335287747</v>
+        <v>0.08485640670795902</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07559301257291812</v>
+        <v>0.07802158282603651</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09769088794916886</v>
+        <v>0.03427684651661871</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08011452086929338</v>
+        <v>0.08119608298580833</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03418605533439482</v>
+        <v>0.0339833572451973</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07892261129265485</v>
+        <v>0.0820246144448472</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04345489545874331</v>
+        <v>0.05538484608709315</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07972150674351891</v>
+        <v>0.07929462930069282</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07900961110263707</v>
+        <v>0.08442118237570551</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07636436984407034</v>
+        <v>0.0788177214263022</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09724570717113851</v>
+        <v>0.0339833572451973</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08093201598020454</v>
+        <v>0.0820246144448472</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03730360479086225</v>
+        <v>0.03368794496667188</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07971980938652005</v>
+        <v>0.08285314590388605</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04388391811680058</v>
+        <v>0.05491302246229657</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08052677448840295</v>
+        <v>0.08009558515221497</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07900401894568473</v>
+        <v>0.08339460330214732</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07713572711522257</v>
+        <v>0.07961386002656787</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09631565890872934</v>
+        <v>0.03368794496667188</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0817495110911157</v>
+        <v>0.08285314590388605</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03641452361596923</v>
+        <v>0.03369070624250975</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08051700748038526</v>
+        <v>0.08368167736292491</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04380692264779784</v>
+        <v>0.05423956278077766</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08133204223328697</v>
+        <v>0.08089654100373712</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07978705368782305</v>
+        <v>0.08325885290519314</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07790708438637479</v>
+        <v>0.08040999862683354</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09620318149767704</v>
+        <v>0.03369070624250975</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08256700620202685</v>
+        <v>0.08368167736292491</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0365184349251897</v>
+        <v>0.03329173763417823</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08131420557425045</v>
+        <v>0.08451020882196376</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04402374993354727</v>
+        <v>0.05426395231571207</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08213730997817099</v>
+        <v>0.08169749685525927</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08015832213485494</v>
+        <v>0.08231026981368478</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07867844165752702</v>
+        <v>0.08120613722709923</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0964107132737172</v>
+        <v>0.03329173763417823</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08338450131293802</v>
+        <v>0.08451020882196376</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03761496183399763</v>
+        <v>0.03308193935117915</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08211140366811566</v>
+        <v>0.08533874028100263</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04413424085586103</v>
+        <v>0.05348567634027537</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08294257772305504</v>
+        <v>0.08249845270678142</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08001743109258316</v>
+        <v>0.08264947416661483</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07944979892867925</v>
+        <v>0.0820022758273649</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09554069257258541</v>
+        <v>0.03308193935117915</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08420199642384918</v>
+        <v>0.08533874028100263</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03570372745786694</v>
+        <v>0.03282840489984387</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08290860176198085</v>
+        <v>0.0861672717400415</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04403823629655131</v>
+        <v>0.0534042201276432</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08374784546793905</v>
+        <v>0.08329940855830358</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08006398736681067</v>
+        <v>0.08127708610297596</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08022115619983147</v>
+        <v>0.08279841442763058</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0954870978993177</v>
+        <v>0.03282840489984387</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08501949153476034</v>
+        <v>0.0861672717400415</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0377843549122716</v>
+        <v>0.03273210179769297</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08370579985584606</v>
+        <v>0.08699580319908035</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04443557713743024</v>
+        <v>0.05271906895099121</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08455311321282309</v>
+        <v>0.08410036440982573</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08029759776334025</v>
+        <v>0.08069372576176093</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0809925134709837</v>
+        <v>0.08359455302789627</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09512666119040464</v>
+        <v>0.03273210179769297</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08583698664567149</v>
+        <v>0.08699580319908035</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03485646731268554</v>
+        <v>0.03239749059431883</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08450299794971126</v>
+        <v>0.08782433465811922</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04422610426030998</v>
+        <v>0.05262970808349499</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08535838095770712</v>
+        <v>0.08490132026134788</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08041786908797458</v>
+        <v>0.08010001328196231</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08176387074213592</v>
+        <v>0.08439069162816193</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09445870433969322</v>
+        <v>0.03239749059431883</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08665448175658265</v>
+        <v>0.08782433465811922</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03491968777458272</v>
+        <v>0.03182903183931388</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08530019604357646</v>
+        <v>0.08865286611715807</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04440965854700273</v>
+        <v>0.05233562279833023</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08616364870259115</v>
+        <v>0.08570227611287003</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08082440814651662</v>
+        <v>0.07979656880257308</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08253522801328815</v>
+        <v>0.08518683022842762</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09448416383382013</v>
+        <v>0.03182903183931388</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08747197686749381</v>
+        <v>0.08865286611715807</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03497363941343708</v>
+        <v>0.03163118608227042</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08609739413744166</v>
+        <v>0.08948139757619694</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04458608087932063</v>
+        <v>0.05163629836867248</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08696891644747518</v>
+        <v>0.08650323196439218</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08121682174476921</v>
+        <v>0.07898401246258563</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08330658528444038</v>
+        <v>0.0859829688286933</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09380397615942182</v>
+        <v>0.03163118608227042</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08828947197840496</v>
+        <v>0.08948139757619694</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03701794534472257</v>
+        <v>0.03120841387278091</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08689459223130687</v>
+        <v>0.09030992903523578</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04445521213907587</v>
+        <v>0.0509312200676974</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0877741841923592</v>
+        <v>0.08730418781591433</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08119471668853515</v>
+        <v>0.07896296440099293</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0840779425555926</v>
+        <v>0.08677910742895897</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09451907780313484</v>
+        <v>0.03120841387278091</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08910696708931612</v>
+        <v>0.09030992903523578</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03605222868391313</v>
+        <v>0.03056517576043774</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08769179032517206</v>
+        <v>0.09113846049427465</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04471689320808057</v>
+        <v>0.05121987316858068</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08857945193724323</v>
+        <v>0.08810514366743648</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08145769978361714</v>
+        <v>0.07823404475678736</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08484929982674483</v>
+        <v>0.08757524602922466</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09323040525159576</v>
+        <v>0.03056517576043774</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08992446220022728</v>
+        <v>0.09113846049427465</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03507611254648273</v>
+        <v>0.03010593229483326</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08848898841903727</v>
+        <v>0.09196699195331352</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04477096496814693</v>
+        <v>0.05020174294449781</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08938471968212726</v>
+        <v>0.08890609951895863</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08160537783581814</v>
+        <v>0.07749787366896194</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08562065709789705</v>
+        <v>0.08837138462949033</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09373889499144111</v>
+        <v>0.03010593229483326</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09074195731113843</v>
+        <v>0.09196699195331352</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0380892200479053</v>
+        <v>0.02993514402555987</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08928618651290247</v>
+        <v>0.09279552341235238</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0447172683010871</v>
+        <v>0.05027631466862448</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0901899874270113</v>
+        <v>0.08970705537048078</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08153735765094097</v>
+        <v>0.07705507127650918</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08639201436904927</v>
+        <v>0.089167523229756</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0936454835093074</v>
+        <v>0.02993514402555987</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09155945242204959</v>
+        <v>0.09279552341235238</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03708984074261209</v>
+        <v>0.02945727150220996</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09008338460676767</v>
+        <v>0.09362405487139125</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04485564408871329</v>
+        <v>0.04974307361413632</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09099525517189533</v>
+        <v>0.09050801122200293</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08165324603478843</v>
+        <v>0.07580625771842175</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08716337164020149</v>
+        <v>0.08996366183002169</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09245110729183126</v>
+        <v>0.02945727150220996</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09237694753296075</v>
+        <v>0.09362405487139125</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03806027336448376</v>
+        <v>0.02877677527437596</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09088058270063287</v>
+        <v>0.09445258633043009</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04468593321283759</v>
+        <v>0.04930150505420894</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09180052291677936</v>
+        <v>0.09130896707352508</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0822526497931633</v>
+        <v>0.07535205313369253</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08793472891135372</v>
+        <v>0.09075980043028738</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0925567028256491</v>
+        <v>0.02877677527437596</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0931944426438719</v>
+        <v>0.09445258633043009</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03699654903944815</v>
+        <v>0.02819811589165021</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09167778079449806</v>
+        <v>0.09528111778946896</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04490797655527219</v>
+        <v>0.04885109426201803</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09260579066166338</v>
+        <v>0.09210992292504723</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08223517573186848</v>
+        <v>0.07439307766131398</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08870608618250594</v>
+        <v>0.09155593903055305</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09276320659739756</v>
+        <v>0.02819811589165021</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09401193775478306</v>
+        <v>0.09528111778946896</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0349005263750389</v>
+        <v>0.02782575390362509</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09247497888836327</v>
+        <v>0.09610964924850782</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04482161499782929</v>
+        <v>0.0481913265107391</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09341105840654741</v>
+        <v>0.09291087877656938</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08200043065670667</v>
+        <v>0.07362995144027912</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08947744345365818</v>
+        <v>0.09235207763081872</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09187155509371314</v>
+        <v>0.02782575390362509</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09482943286569422</v>
+        <v>0.09610964924850782</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03477406397878958</v>
+        <v>0.02726414985989305</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09327217698222848</v>
+        <v>0.09693818070754669</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04502668942232102</v>
+        <v>0.0480216870735479</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09421632615143144</v>
+        <v>0.09371183462809152</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08244802137348092</v>
+        <v>0.07396329460958029</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09024880072481041</v>
+        <v>0.09314821623108441</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09218268480123243</v>
+        <v>0.02726414985989305</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09564692797660537</v>
+        <v>0.09693818070754669</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03561902045823385</v>
+        <v>0.02711776431004642</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09406937507609366</v>
+        <v>0.09776671216658554</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04480483560991351</v>
+        <v>0.04714166122361999</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09502159389631547</v>
+        <v>0.09451279047961367</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08227755468799378</v>
+        <v>0.07289372730821037</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09102015799596264</v>
+        <v>0.09394435483135008</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09089753220659197</v>
+        <v>0.02711776431004642</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09646442308751653</v>
+        <v>0.09776671216658554</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03543725442090529</v>
+        <v>0.02639105780367761</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09486657316995886</v>
+        <v>0.0985952436256244</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04463266791399378</v>
+        <v>0.04705073423413098</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09582686164119951</v>
+        <v>0.09531374633113582</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08258863740604819</v>
+        <v>0.07182186967516213</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09179151526711486</v>
+        <v>0.09474049343161577</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09111703379642816</v>
+        <v>0.02639105780367761</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09728191819842769</v>
+        <v>0.0985952436256244</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03723062447433757</v>
+        <v>0.02598849089037902</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09566377126382407</v>
+        <v>0.09942377508466327</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04461293058637809</v>
+        <v>0.04614839137825649</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09663212938608352</v>
+        <v>0.09611470218265797</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08254561636981153</v>
+        <v>0.0715483418494281</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09256287253826709</v>
+        <v>0.09553663203188145</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09044212605737767</v>
+        <v>0.02598849089037902</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09809941330933884</v>
+        <v>0.09942377508466327</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03600098922606423</v>
+        <v>0.02591452411974303</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09646096935768926</v>
+        <v>0.1002523065437021</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04454852741557899</v>
+        <v>0.04553411792917217</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09743739713096755</v>
+        <v>0.09691565803418013</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08200181495970651</v>
+        <v>0.0709737639700011</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09333422980941931</v>
+        <v>0.09633277063214711</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09037374547607713</v>
+        <v>0.02591452411974303</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09891690842025</v>
+        <v>0.1002523065437021</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03475020728361895</v>
+        <v>0.02527361804136201</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09725816745155447</v>
+        <v>0.101080838002741</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04434236219010902</v>
+        <v>0.04560739916005366</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09824266487585159</v>
+        <v>0.09771661388570228</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08146231184282107</v>
+        <v>0.07039875617587388</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09410558708057154</v>
+        <v>0.0971289092324128</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09031282853916295</v>
+        <v>0.02527361804136201</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09973440353116116</v>
+        <v>0.101080838002741</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03448013725453532</v>
+        <v>0.02526734879266344</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09805536554541967</v>
+        <v>0.1019093694617798</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04419733869848073</v>
+        <v>0.04436772034407654</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09904793262073562</v>
+        <v>0.09851756973722443</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08113255172916531</v>
+        <v>0.06962343348002659</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09487694435172377</v>
+        <v>0.09792504783267848</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08966031173327155</v>
+        <v>0.02526734879266344</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1005518986420723</v>
+        <v>0.1019093694617798</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03619263774634695</v>
+        <v>0.02476704825226958</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09885256363928487</v>
+        <v>0.1027379009208187</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04361636072920666</v>
+        <v>0.04421456675441651</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09985320036561965</v>
+        <v>0.09931852558874658</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0811179793287494</v>
+        <v>0.06824340281102081</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09564830162287599</v>
+        <v>0.09872118643294416</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0901171315450397</v>
+        <v>0.02476704825226958</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1013693937529835</v>
+        <v>0.1027379009208187</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03488956736658749</v>
+        <v>0.02446473619533893</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09964976173315007</v>
+        <v>0.1035664323798576</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04350233207079933</v>
+        <v>0.04394742366424914</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1006584681105037</v>
+        <v>0.1001194814402687</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08042403935158385</v>
+        <v>0.06835765291273349</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09641965889402822</v>
+        <v>0.09951732503320984</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08938422446110389</v>
+        <v>0.02446473619533893</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1021868888638946</v>
+        <v>0.1035664323798576</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0345727847227905</v>
+        <v>0.0242610172592049</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1004469598270153</v>
+        <v>0.1043949638388964</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04305815651177131</v>
+        <v>0.04306577634675005</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1014637358553877</v>
+        <v>0.1009204372917909</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08025617650767877</v>
+        <v>0.0668663690476779</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09719101616518044</v>
+        <v>0.1003134636334755</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08966252696810051</v>
+        <v>0.0242610172592049</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1030043839748058</v>
+        <v>0.1043949638388964</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03224414842248966</v>
+        <v>0.0237564960812009</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1012441579208805</v>
+        <v>0.1052234952979353</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04268673784063515</v>
+        <v>0.0425691100750949</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1022690036002717</v>
+        <v>0.101721393143313</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07961983550704452</v>
+        <v>0.06626973647836731</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09796237343633267</v>
+        <v>0.1011096022337412</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08915297555266632</v>
+        <v>0.0237564960812009</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1038218790857169</v>
+        <v>0.1052234952979353</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03390551707321853</v>
+        <v>0.02365177729866037</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1020413560147457</v>
+        <v>0.1060520267569741</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04249097984590339</v>
+        <v>0.04194744905670897</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1030742713451558</v>
+        <v>0.1025223489948352</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07852046105969121</v>
+        <v>0.06616794046731522</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09873373070748488</v>
+        <v>0.1019057408340069</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08935650670143769</v>
+        <v>0.02365177729866037</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1046393741966281</v>
+        <v>0.1060520267569741</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03455874928251079</v>
+        <v>0.02324746554891673</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1028385541086109</v>
+        <v>0.106880558216013</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04187378631608854</v>
+        <v>0.04142989737571195</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1038795390900398</v>
+        <v>0.1033233048463573</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07766349787562923</v>
+        <v>0.06526116627703482</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09950508797863711</v>
+        <v>0.1027018794342726</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08887405690105121</v>
+        <v>0.02324746554891673</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1054568693075393</v>
+        <v>0.106880558216013</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03320570365789998</v>
+        <v>0.02314416546930338</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1036357522024761</v>
+        <v>0.1077090896750519</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04163806103970319</v>
+        <v>0.03991185783461226</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1046848068349238</v>
+        <v>0.1041242606978795</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07745439066486881</v>
+        <v>0.06444959917003945</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1002764452497893</v>
+        <v>0.1034980180345382</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0884065626381435</v>
+        <v>0.02314416546930338</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1062743644184504</v>
+        <v>0.1077090896750519</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03384823880691978</v>
+        <v>0.0225424816971538</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1044329502963413</v>
+        <v>0.1085376211340907</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04118670780525982</v>
+        <v>0.03910541553223751</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1054900745798079</v>
+        <v>0.1049252165494016</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07639858413742018</v>
+        <v>0.06403342440884241</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1010478025209416</v>
+        <v>0.1042941566348039</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08895496039935102</v>
+        <v>0.0225424816971538</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1070918595293616</v>
+        <v>0.1085376211340907</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03048821333710378</v>
+        <v>0.02234301886980133</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1052301483902065</v>
+        <v>0.1093661525931296</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04072263040127105</v>
+        <v>0.03832265556741515</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1062953423246919</v>
+        <v>0.1057261724009238</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07540152300329367</v>
+        <v>0.06281282725595716</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1018191597920938</v>
+        <v>0.1050902952350696</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08782018667131031</v>
+        <v>0.02234301886980133</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1079093546402727</v>
+        <v>0.1093661525931296</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03012748585598559</v>
+        <v>0.0219463816245795</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1060273464840717</v>
+        <v>0.1101946840521685</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03994873261624939</v>
+        <v>0.03767566303897299</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1071006100695759</v>
+        <v>0.1065271282524459</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07436865197249953</v>
+        <v>0.06198799297389684</v>
       </c>
       <c r="M198" t="n">
-        <v>0.102590517063246</v>
+        <v>0.1058864338353352</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08800317794065793</v>
+        <v>0.0219463816245795</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1087268497511839</v>
+        <v>0.1101946840521685</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03076791497109884</v>
+        <v>0.02185317459882165</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1068245445779369</v>
+        <v>0.1110232155112073</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03946791823870735</v>
+        <v>0.03617652304573837</v>
       </c>
       <c r="K199" t="n">
-        <v>0.10790587781446</v>
+        <v>0.1073280841039681</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07310541575504798</v>
+        <v>0.06175910682517494</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1033618743343982</v>
+        <v>0.1066825724356009</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08860487069403039</v>
+        <v>0.02185317459882165</v>
       </c>
       <c r="O199" t="n">
-        <v>0.109544344862095</v>
+        <v>0.1110232155112073</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03241135928997715</v>
+        <v>0.02166400242986125</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1076217426718021</v>
+        <v>0.1118517469702462</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03898309105715754</v>
+        <v>0.03543732068653907</v>
       </c>
       <c r="K200" t="n">
-        <v>0.108711145559344</v>
+        <v>0.1081290399554902</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07221725906094933</v>
+        <v>0.06092635407230473</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1041332316055505</v>
+        <v>0.1074787110358666</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08762620141806432</v>
+        <v>0.02166400242986125</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1103618399730062</v>
+        <v>0.1118517469702462</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02905967742015412</v>
+        <v>0.02107946975503169</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1084189407656673</v>
+        <v>0.112680278429285</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03859715486011242</v>
+        <v>0.03357014106020256</v>
       </c>
       <c r="K201" t="n">
-        <v>0.109516413304228</v>
+        <v>0.1089299958070124</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07120962660021382</v>
+        <v>0.06018991997779949</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1049045888767027</v>
+        <v>0.1082748496361323</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08756810659939618</v>
+        <v>0.02107946975503169</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1111793350839173</v>
+        <v>0.112680278429285</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02871472796916338</v>
+        <v>0.0209001812116664</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1092161388595325</v>
+        <v>0.1135088098883239</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03801301343608463</v>
+        <v>0.03248706926555647</v>
       </c>
       <c r="K202" t="n">
-        <v>0.110321681049112</v>
+        <v>0.1097309516585345</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07078796308285171</v>
+        <v>0.05904998980417253</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1056759461478549</v>
+        <v>0.109070988236398</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08763152272466251</v>
+        <v>0.0209001812116664</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1119968301948285</v>
+        <v>0.1135088098883239</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02937836954453855</v>
+        <v>0.02062674143709882</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1100133369533977</v>
+        <v>0.1143373413473628</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03783357057358663</v>
+        <v>0.03160019040142839</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1111269487939961</v>
+        <v>0.1105319075100567</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06945771321887328</v>
+        <v>0.05850674881393719</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1064473034190072</v>
+        <v>0.1098671268366637</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0878173862804999</v>
+        <v>0.02062674143709882</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1128143253057397</v>
+        <v>0.1143373413473628</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03105246075381322</v>
+        <v>0.02045975506866238</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1108105350472629</v>
+        <v>0.1151658728064016</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03716173006113102</v>
+        <v>0.03002158956664588</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1119322165388801</v>
+        <v>0.1113328633615788</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0684243217182888</v>
+        <v>0.05756038226960691</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1072186606901594</v>
+        <v>0.1106632654369293</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08822212923233308</v>
+        <v>0.02045975506866238</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1136318204166508</v>
+        <v>0.1151658728064016</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02973886020452104</v>
+        <v>0.02019982674369047</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1116077331411281</v>
+        <v>0.1159944042654405</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0369003956872303</v>
+        <v>0.02936335186003652</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1127374842837641</v>
+        <v>0.112133819213101</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06719323329110852</v>
+        <v>0.05721107543369486</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1079900179613116</v>
+        <v>0.111459404037195</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08753930947597666</v>
+        <v>0.02019982674369047</v>
       </c>
       <c r="O205" t="n">
-        <v>0.114449315527562</v>
+        <v>0.1159944042654405</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0294394265041956</v>
+        <v>0.01974756109951656</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1124049312349933</v>
+        <v>0.1168229357244793</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03635247124039705</v>
+        <v>0.02833756238042792</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1135427520286482</v>
+        <v>0.1129347750646231</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06616989264734269</v>
+        <v>0.0561590135687145</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1087613752324638</v>
+        <v>0.1122555426374607</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08766886212650071</v>
+        <v>0.01974756109951656</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1152668106384731</v>
+        <v>0.1168229357244793</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02715601826037053</v>
+        <v>0.01980356277347406</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1132021293288585</v>
+        <v>0.1176514671835182</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0357208605091438</v>
+        <v>0.02735630622664764</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1143480197735322</v>
+        <v>0.1137357309161453</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06535974449700163</v>
+        <v>0.0560043819371791</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1095327325036161</v>
+        <v>0.1130516812377264</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08771079055940351</v>
+        <v>0.01980356277347406</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1160843057493843</v>
+        <v>0.1176514671835182</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02689049408057944</v>
+        <v>0.01936843640289634</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1139993274227237</v>
+        <v>0.1184799986425571</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03540846728198307</v>
+        <v>0.02583166849752325</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1151532875184162</v>
+        <v>0.1145366867676674</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06436823355009558</v>
+        <v>0.05504736580160191</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1103040897747683</v>
+        <v>0.113847819837992</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08816509815018364</v>
+        <v>0.01936843640289634</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1169018008602954</v>
+        <v>0.1184799986425571</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02664470649041712</v>
+        <v>0.01904278662511691</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1147965255165889</v>
+        <v>0.1193085301015959</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03501819534742745</v>
+        <v>0.0250757342918824</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1159585552633002</v>
+        <v>0.1153376426191896</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06350080451663473</v>
+        <v>0.05388815042449629</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1110754470459205</v>
+        <v>0.1146439584382577</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08853178827433944</v>
+        <v>0.01904278662511691</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1177192959712066</v>
+        <v>0.1193085301015959</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0264092893825523</v>
+        <v>0.01882721807746914</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1155937236104541</v>
+        <v>0.1201370615606348</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03455294849398943</v>
+        <v>0.02440058870855266</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1167638230081843</v>
+        <v>0.1161385984707117</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06226290210662949</v>
+        <v>0.05362692106837569</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1118468043170727</v>
+        <v>0.1154400970385234</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08841086430736927</v>
+        <v>0.01882721807746914</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1185367910821178</v>
+        <v>0.1201370615606348</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02717463998391716</v>
+        <v>0.01862233539728646</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1163909217043193</v>
+        <v>0.1209655930196736</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03440259890485632</v>
+        <v>0.02301831684636152</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1175690907530683</v>
+        <v>0.1169395543222339</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06125997103009001</v>
+        <v>0.05266386299575332</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1126181615882249</v>
+        <v>0.1162362356387891</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08860232962477177</v>
+        <v>0.01862233539728646</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1193542861930289</v>
+        <v>0.1209655930196736</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02894077884764289</v>
+        <v>0.01872874322190229</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1171881197981845</v>
+        <v>0.1217941244787125</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03415272947855993</v>
+        <v>0.02254100380413665</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1183743584979523</v>
+        <v>0.117740510173756</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06038414127613384</v>
+        <v>0.05149916146914246</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1133895188593772</v>
+        <v>0.1170323742390548</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08800618760204504</v>
+        <v>0.01872874322190229</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1201717813039401</v>
+        <v>0.1217941244787125</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02670772652686072</v>
+        <v>0.01834704618865007</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1179853178920497</v>
+        <v>0.1226226559377514</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03370332095123078</v>
+        <v>0.02248073468070561</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1191796262428363</v>
+        <v>0.1185414660252782</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05990387806135214</v>
+        <v>0.05103300175105663</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1141608761305294</v>
+        <v>0.1178285128393204</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08882244161468783</v>
+        <v>0.01834704618865007</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1209892764148512</v>
+        <v>0.1226226559377514</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02547550357470183</v>
+        <v>0.01827784893486324</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1187825159859149</v>
+        <v>0.1234511873967902</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03315438108812382</v>
+        <v>0.02194959457489601</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1199848939877204</v>
+        <v>0.1193424218768003</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0591174961911633</v>
+        <v>0.0504655691040089</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1149322334016816</v>
+        <v>0.1186246514395861</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08845109503819837</v>
+        <v>0.01827784893486324</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1218067715257624</v>
+        <v>0.1234511873967902</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02624413054429744</v>
+        <v>0.01812175609787518</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1195797140797801</v>
+        <v>0.1242797188558291</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03290591765449405</v>
+        <v>0.02175327527420304</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1207901617326044</v>
+        <v>0.1201433777283225</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05772497582430303</v>
+        <v>0.04919704879051279</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1157035906728339</v>
+        <v>0.1194207900398518</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0892921512480751</v>
+        <v>0.01812175609787518</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1226242666366736</v>
+        <v>0.1242797188558291</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02601362798877874</v>
+        <v>0.01787937231501933</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1203769121736453</v>
+        <v>0.1251082503148679</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03245793841559648</v>
+        <v>0.02119692608550872</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1215954294774884</v>
+        <v>0.1209443335798446</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05722629711950697</v>
+        <v>0.0488276260730815</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1164749479439861</v>
+        <v>0.1202169286401175</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08944561361981646</v>
+        <v>0.01787937231501933</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1234417617475847</v>
+        <v>0.1251082503148679</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02478401646127697</v>
+        <v>0.01775130222362913</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1211741102675105</v>
+        <v>0.1259367817739068</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03211045113668602</v>
+        <v>0.0206453050309601</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1224006972223725</v>
+        <v>0.1217452894313668</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05622144023551082</v>
+        <v>0.04765748621422844</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1172463052151383</v>
+        <v>0.1210130672403832</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08931148552892093</v>
+        <v>0.01775130222362913</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1242592568584959</v>
+        <v>0.1259367817739068</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02555531651492333</v>
+        <v>0.01783815046103801</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1219713083613757</v>
+        <v>0.1267653132329457</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03186346358301771</v>
+        <v>0.02039843558155918</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1232059649672565</v>
+        <v>0.1225462452828889</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05541038533105039</v>
+        <v>0.04718679174752211</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1180176624862905</v>
+        <v>0.1218092058406488</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08928977035088687</v>
+        <v>0.01783815046103801</v>
       </c>
       <c r="O218" t="n">
-        <v>0.125076751969407</v>
+        <v>0.1267653132329457</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02732754870284899</v>
+        <v>0.01744052166457938</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1227685064552409</v>
+        <v>0.1275938446919845</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03161698351984653</v>
+        <v>0.0201563412083082</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1240112327121405</v>
+        <v>0.1233472011344111</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05419311256486126</v>
+        <v>0.04701480704590144</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1187890197574428</v>
+        <v>0.1226053444409145</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08928047146121276</v>
+        <v>0.01744052166457938</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1258942470803182</v>
+        <v>0.1275938446919845</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02710073357818518</v>
+        <v>0.01745902047158664</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1235657045491061</v>
+        <v>0.1284223761510234</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03117101871242742</v>
+        <v>0.02021904538220917</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1248165004570246</v>
+        <v>0.1241481569859332</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05316960209567922</v>
+        <v>0.04554109532454936</v>
       </c>
       <c r="M220" t="n">
-        <v>0.119560377028595</v>
+        <v>0.1234014830411802</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08958359223539697</v>
+        <v>0.01745902047158664</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1267117421912294</v>
+        <v>0.1284223761510234</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0248748916940631</v>
+        <v>0.01749425151939324</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1243629026429713</v>
+        <v>0.1292509076100622</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03102557692601543</v>
+        <v>0.01988657157426438</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1256217682019086</v>
+        <v>0.1249491128374554</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05263983408223996</v>
+        <v>0.0454656468158316</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1203317342997472</v>
+        <v>0.1241976216414459</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09019913604893792</v>
+        <v>0.01749425151939324</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1275292373021405</v>
+        <v>0.1292509076100622</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02365004360361399</v>
+        <v>0.0174467891352459</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1251601007368365</v>
+        <v>0.1300794390691011</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03068066592586546</v>
+        <v>0.0199589432554759</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1264270359467926</v>
+        <v>0.1257500686889775</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05180378868327917</v>
+        <v>0.04428845175211399</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1211030915708994</v>
+        <v>0.1249937602417115</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09042710627733413</v>
+        <v>0.0174467891352459</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1283467324130517</v>
+        <v>0.1300794390691011</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02542620985996901</v>
+        <v>0.0175075929758199</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1259572988307017</v>
+        <v>0.13090797052814</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03003629347723256</v>
+        <v>0.01983618389684583</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1272323036916767</v>
+        <v>0.1265510245404997</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05076144605753252</v>
+        <v>0.0433095003657622</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1218744488420517</v>
+        <v>0.1257898988419772</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09036750629608387</v>
+        <v>0.0175075929758199</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1291642275239628</v>
+        <v>0.13090797052814</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02620341101625939</v>
+        <v>0.01736917406899963</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1267544969245669</v>
+        <v>0.1317365019871788</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02969246734537169</v>
+        <v>0.01901831696937639</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1280375714365607</v>
+        <v>0.1273519803920218</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04941278636373583</v>
+        <v>0.04262878288914185</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1226458061132039</v>
+        <v>0.1265860374422429</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09052033948068566</v>
+        <v>0.01736917406899963</v>
       </c>
       <c r="O224" t="n">
-        <v>0.129981722634874</v>
+        <v>0.1317365019871788</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02398166762561636</v>
+        <v>0.01713154067362242</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1275516950184321</v>
+        <v>0.1325650334462177</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02964919529553779</v>
+        <v>0.01890536594406972</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1288428391814447</v>
+        <v>0.128152936243544</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04885778976062466</v>
+        <v>0.04154628955461886</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1234171633843561</v>
+        <v>0.1273821760425086</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09138560920663785</v>
+        <v>0.01713154067362242</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1307992177457852</v>
+        <v>0.1325650334462177</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02576100024117107</v>
+        <v>0.01729470104852554</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1283488931122973</v>
+        <v>0.1333935649052566</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02900648509298592</v>
+        <v>0.01889735429192788</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1296481069263287</v>
+        <v>0.1289538920950661</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04799643640693482</v>
+        <v>0.04146201059455895</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1241885206555083</v>
+        <v>0.1281783146427743</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09126331884943895</v>
+        <v>0.01729470104852554</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1316167128566963</v>
+        <v>0.1333935649052566</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02454142941605476</v>
+        <v>0.01705866345254634</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1291460912061625</v>
+        <v>0.1342220963642954</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02896434450297102</v>
+        <v>0.0183943054839531</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1304533746712128</v>
+        <v>0.1297548479465883</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04712870646140196</v>
+        <v>0.04037593624132763</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1249598779266606</v>
+        <v>0.12897445324304</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09185347178458747</v>
+        <v>0.01705866345254634</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1324342079676074</v>
+        <v>0.1342220963642954</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02432297570339865</v>
+        <v>0.01712343614452209</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1299432893000277</v>
+        <v>0.1350506278233342</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02862278129074804</v>
+        <v>0.01869624299114747</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1312586424160968</v>
+        <v>0.1305558037981104</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04595458008276179</v>
+        <v>0.03968805672729081</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1257312351978128</v>
+        <v>0.1297705918433056</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09215607138758158</v>
+        <v>0.01712343614452209</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1332517030785186</v>
+        <v>0.1350506278233342</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02510565965633391</v>
+        <v>0.01708902738329017</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1307404873938929</v>
+        <v>0.1358791592823731</v>
       </c>
       <c r="J229" t="n">
-        <v>0.028181803221572</v>
+        <v>0.0186031902845131</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1320639101609808</v>
+        <v>0.1313567596496326</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04517403742975012</v>
+        <v>0.03889836228481425</v>
       </c>
       <c r="M229" t="n">
-        <v>0.126502592468965</v>
+        <v>0.1305667304435713</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09217112103391983</v>
+        <v>0.01708902738329017</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1340691981894298</v>
+        <v>0.1358791592823731</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02488950182799179</v>
+        <v>0.01715544542768783</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1315376854877581</v>
+        <v>0.136707690741412</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02784141806069788</v>
+        <v>0.01831517083505221</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1328691779058648</v>
+        <v>0.1321577155011547</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04348705866110247</v>
+        <v>0.03780684314626359</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1272739497401172</v>
+        <v>0.131362869043837</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09249862409910076</v>
+        <v>0.01715544542768783</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1348866933003409</v>
+        <v>0.136707690741412</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02167452277150344</v>
+        <v>0.01702269853655243</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1323348835816233</v>
+        <v>0.1375362222004509</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02730163357338067</v>
+        <v>0.01773220811376683</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1336744456507489</v>
+        <v>0.1329586713526769</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04289362393555471</v>
+        <v>0.03741348954400453</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1280453070112695</v>
+        <v>0.1321590076441027</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09313858395862262</v>
+        <v>0.01702269853655243</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1357041884112521</v>
+        <v>0.1375362222004509</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02346074304000014</v>
+        <v>0.01689079496872126</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1331320816754885</v>
+        <v>0.1383647536594897</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02716245752487531</v>
+        <v>0.01795432559165927</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1344797133956329</v>
+        <v>0.133759627204199</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04199371341184241</v>
+        <v>0.03641829171040278</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1288166642824217</v>
+        <v>0.1329551462443683</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09259100398798392</v>
+        <v>0.01689079496872126</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1365216835221632</v>
+        <v>0.1383647536594897</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02224818318661303</v>
+        <v>0.01695974298303159</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1339292797693537</v>
+        <v>0.1391932851185285</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02692389768043683</v>
+        <v>0.01748154673973148</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1352849811405169</v>
+        <v>0.1345605830557212</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04108730724870138</v>
+        <v>0.03572123987782416</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1295880215535739</v>
+        <v>0.133751284844634</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09335588756268309</v>
+        <v>0.01695974298303159</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1373391786330744</v>
+        <v>0.1391932851185285</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02203686376447334</v>
+        <v>0.01712955083832082</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1347264778632189</v>
+        <v>0.1400218165775674</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02638596180532018</v>
+        <v>0.01751389502898576</v>
       </c>
       <c r="K234" t="n">
-        <v>0.136090248885401</v>
+        <v>0.1353615389072433</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03997438560486727</v>
+        <v>0.03422232427863448</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1303593788247261</v>
+        <v>0.1345474234448997</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09423323805821848</v>
+        <v>0.01712955083832082</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1381566737439855</v>
+        <v>0.1400218165775674</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02082680532671231</v>
+        <v>0.01700022679342619</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1355236759570841</v>
+        <v>0.1408503480366063</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02624865766478039</v>
+        <v>0.01745139393042416</v>
       </c>
       <c r="K235" t="n">
-        <v>0.136895516630285</v>
+        <v>0.1361624947587655</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03865492863907583</v>
+        <v>0.03412153514519928</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1311307360958784</v>
+        <v>0.1353435620451654</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09462305885008859</v>
+        <v>0.01700022679342619</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1389741688548967</v>
+        <v>0.1408503480366063</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02261802842646108</v>
+        <v>0.01707177910718505</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1363208740509493</v>
+        <v>0.1416788794956451</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02571199302407237</v>
+        <v>0.01709406691504881</v>
       </c>
       <c r="K236" t="n">
-        <v>0.137700784375169</v>
+        <v>0.1369634506102876</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03792891651006267</v>
+        <v>0.0326188627098844</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1319020933670306</v>
+        <v>0.1361397006454311</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09512535331379179</v>
+        <v>0.01707177910718505</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1397916639658079</v>
+        <v>0.1416788794956451</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02141055361685091</v>
+        <v>0.01674421603843471</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1371180721448145</v>
+        <v>0.142507410954684</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02537597564845114</v>
+        <v>0.01674193745386193</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1385060521200531</v>
+        <v>0.1377644064618098</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03689632937656365</v>
+        <v>0.0320142972050555</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1326734506381828</v>
+        <v>0.1369358392456967</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09534012482482651</v>
+        <v>0.01674421603843471</v>
       </c>
       <c r="O237" t="n">
-        <v>0.140609159076719</v>
+        <v>0.142507410954684</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02220440145101301</v>
+        <v>0.01691754584601245</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1379152702386797</v>
+        <v>0.1433359424137229</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02504061330317167</v>
+        <v>0.01689502901786555</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1393113198649371</v>
+        <v>0.1385653623133319</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0360571473973143</v>
+        <v>0.03160782886307839</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1334448079093351</v>
+        <v>0.1377319778459624</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09536737675869128</v>
+        <v>0.01691754584601245</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1414266541876302</v>
+        <v>0.1433359424137229</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02099959248207852</v>
+        <v>0.01689177678875561</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1387124683325449</v>
+        <v>0.1441644738727617</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02470591375348899</v>
+        <v>0.01655336507806193</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1401165876098211</v>
+        <v>0.1393663181648541</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03461135073105048</v>
+        <v>0.03029944791631872</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1342161651804873</v>
+        <v>0.1385281164462281</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09560711249088433</v>
+        <v>0.01689177678875561</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1422441492985413</v>
+        <v>0.1441644738727617</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02079614726317872</v>
+        <v>0.01666691712550153</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1395096664264101</v>
+        <v>0.1449930053318006</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02447188476465799</v>
+        <v>0.01651696910545311</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1409218553547051</v>
+        <v>0.1401672740163762</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03395891953650779</v>
+        <v>0.02938914459714226</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1349875224516395</v>
+        <v>0.1393242550464938</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0966593353969043</v>
+        <v>0.01666691712550153</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1430616444094525</v>
+        <v>0.1449930053318006</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02159408634744479</v>
+        <v>0.01684297511508745</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1403068645202753</v>
+        <v>0.1458215367908395</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02413853410193374</v>
+        <v>0.01618586457104129</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1417271230995892</v>
+        <v>0.1409682298678984</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03279983397242203</v>
+        <v>0.02957690913791472</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1357588797227917</v>
+        <v>0.1401203936467594</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09732404885224943</v>
+        <v>0.01684297511508745</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1438791395203636</v>
+        <v>0.1458215367908395</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02039343028800793</v>
+        <v>0.01681995901635074</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1411040626141405</v>
+        <v>0.1466500682498783</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02360586953057119</v>
+        <v>0.01616007494582858</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1425323908444732</v>
+        <v>0.1417691857194205</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03153407419752879</v>
+        <v>0.0282627317710018</v>
       </c>
       <c r="M242" t="n">
-        <v>0.136530236993944</v>
+        <v>0.1409165322470251</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0978012562324182</v>
+        <v>0.01681995901635074</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1446966346312748</v>
+        <v>0.1466500682498783</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02219419963799935</v>
+        <v>0.01659787708812872</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1419012607080057</v>
+        <v>0.1474785997089172</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02337389881582529</v>
+        <v>0.01633962370081715</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1433376585893572</v>
+        <v>0.1425701415709427</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03046162037056385</v>
+        <v>0.02764660272876934</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1373015942650962</v>
+        <v>0.1417126708472908</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09789096091290905</v>
+        <v>0.01659787708812872</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1455141297421859</v>
+        <v>0.1474785997089172</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02099641495055028</v>
+        <v>0.01667673758925863</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1426984588018709</v>
+        <v>0.148307131167956</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02324262972295107</v>
+        <v>0.01632453430700914</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1441429263342413</v>
+        <v>0.1433710974224648</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02928245265026289</v>
+        <v>0.026428512243583</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1380729515362484</v>
+        <v>0.1425088094475565</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09779316626922047</v>
+        <v>0.01667673758925863</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1463316248530971</v>
+        <v>0.148307131167956</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0198000967787919</v>
+        <v>0.01685654877857787</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1434956568957361</v>
+        <v>0.1491356626269949</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02291207001720347</v>
+        <v>0.01591483023540666</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1449481940791253</v>
+        <v>0.144172053273987</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0281965511953616</v>
+        <v>0.02590845054780844</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1388443088074006</v>
+        <v>0.1433049480478222</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09930787567685079</v>
+        <v>0.01685654877857787</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1471491199640083</v>
+        <v>0.1491356626269949</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01960526567585542</v>
+        <v>0.0168373189149237</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1442928549896013</v>
+        <v>0.1499641940860338</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02258222746383752</v>
+        <v>0.01541053495701186</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1457534618240093</v>
+        <v>0.1449730091255091</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02700389616459575</v>
+        <v>0.02448640787381151</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1396156660785529</v>
+        <v>0.1441010866480879</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09903509251129844</v>
+        <v>0.0168373189149237</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1479666150749194</v>
+        <v>0.1499641940860338</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02141194219487202</v>
+        <v>0.01671905625713342</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1450900530834665</v>
+        <v>0.1507927255450726</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02215310982810814</v>
+        <v>0.01551167194282688</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1465587295688933</v>
+        <v>0.1457739649770312</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02640446771670102</v>
+        <v>0.02456237445395787</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1403870233497051</v>
+        <v>0.1448972252483535</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09997482014806192</v>
+        <v>0.01671905625713342</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1487841101858306</v>
+        <v>0.1507927255450726</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01922014688897295</v>
+        <v>0.01650176906404441</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1458872511773317</v>
+        <v>0.1516212570041115</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02192472487527038</v>
+        <v>0.01531826466385386</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1473639973137774</v>
+        <v>0.1465749208285534</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02479824601041308</v>
+        <v>0.02373634052061324</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1411583806208573</v>
+        <v>0.1456933638486192</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1009270619626395</v>
+        <v>0.01650176906404441</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1496016052967417</v>
+        <v>0.1516212570041115</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02002990031128943</v>
+        <v>0.01678546559449393</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1466844492711969</v>
+        <v>0.1524497884631503</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02159708037057918</v>
+        <v>0.01573033659109499</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1481692650586614</v>
+        <v>0.1473758766800755</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02388521120446763</v>
+        <v>0.02280829630614334</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1419297378920095</v>
+        <v>0.1464895024488849</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1006918213305298</v>
+        <v>0.01678546559449393</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1504191004076529</v>
+        <v>0.1524497884631503</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01884122301495262</v>
+        <v>0.01667015410731928</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1474816473650621</v>
+        <v>0.1532783199221892</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02107018407928951</v>
+        <v>0.01554791119555229</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1489745328035454</v>
+        <v>0.1481768325315977</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02306534345760042</v>
+        <v>0.021378232042914</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1427010951631618</v>
+        <v>0.1472856410491505</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1010691016272311</v>
+        <v>0.01667015410731928</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1512365955185641</v>
+        <v>0.1532783199221892</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01865413555309373</v>
+        <v>0.01655584286135781</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1482788454589273</v>
+        <v>0.154106851381228</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02094404376665639</v>
+        <v>0.01537101194822801</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1497798005484295</v>
+        <v>0.1489777883831199</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02163862292854712</v>
+        <v>0.02074613796329083</v>
       </c>
       <c r="M251" t="n">
-        <v>0.143472452434314</v>
+        <v>0.1480817796494162</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1020589062282419</v>
+        <v>0.01655584286135781</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1520540906294752</v>
+        <v>0.154106851381228</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01846865847884403</v>
+        <v>0.01654254011544684</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1490760435527925</v>
+        <v>0.1549353828402669</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02051866719793477</v>
+        <v>0.01559966232012427</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1505850682933135</v>
+        <v>0.149778744234642</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02070502977604349</v>
+        <v>0.01991200429963963</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1442438097054662</v>
+        <v>0.1488779182496819</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1030612385090606</v>
+        <v>0.01654254011544684</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1528715857403864</v>
+        <v>0.1549353828402669</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02028481234533463</v>
+        <v>0.01663025412842363</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1498732416466577</v>
+        <v>0.1557639142993058</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02009406213837965</v>
+        <v>0.0154338857822432</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1513903360381975</v>
+        <v>0.1505797000861642</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01936454415882516</v>
+        <v>0.0196758212843261</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1450151669766184</v>
+        <v>0.1496740568499476</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1035761018451855</v>
+        <v>0.01663025412842363</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1536890808512975</v>
+        <v>0.1557639142993058</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0201026177056968</v>
+        <v>0.01641899315912554</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1506704397405229</v>
+        <v>0.1565924457583446</v>
       </c>
       <c r="J254" t="n">
-        <v>0.019970236353246</v>
+        <v>0.01487370580558692</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1521956037830816</v>
+        <v>0.1513806559376863</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01811714623562788</v>
+        <v>0.01793757914971594</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1457865242477706</v>
+        <v>0.1504701954502133</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1040034996121152</v>
+        <v>0.01641899315912554</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1545065759622087</v>
+        <v>0.1565924457583446</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01692209511306175</v>
+        <v>0.01640876546638986</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1514676378343881</v>
+        <v>0.1574209772173835</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01964719760778882</v>
+        <v>0.01521914586115758</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1530008715279656</v>
+        <v>0.1521816117892085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01696281616518733</v>
+        <v>0.01739726812817488</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1465578815189229</v>
+        <v>0.151266334050479</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1048434351853481</v>
+        <v>0.01640876546638986</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1553240710731199</v>
+        <v>0.1574209772173835</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01774326512056065</v>
+        <v>0.0166995793090539</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1522648359282533</v>
+        <v>0.1582495086764223</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01932495366726308</v>
+        <v>0.01517022941995733</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1538061392728496</v>
+        <v>0.1529825676407306</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01550153410623925</v>
+        <v>0.01705487845206871</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1473292387900751</v>
+        <v>0.1520624726507446</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1057959119403826</v>
+        <v>0.0166995793090539</v>
       </c>
       <c r="O256" t="n">
-        <v>0.156141566184031</v>
+        <v>0.1582495086764223</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01956614828132471</v>
+        <v>0.01659144294595498</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1530620340221185</v>
+        <v>0.1590780401354612</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01900351229692375</v>
+        <v>0.01462697995298834</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1546114070177337</v>
+        <v>0.1537835234922528</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01503328021751932</v>
+        <v>0.01581040035376324</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1481005960612273</v>
+        <v>0.1528586112510103</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1055609332527171</v>
+        <v>0.01659144294595498</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1569590612949422</v>
+        <v>0.1590780401354612</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01739076514848518</v>
+        <v>0.01638436463593043</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1538592321159837</v>
+        <v>0.1599065715945001</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01868288126202583</v>
+        <v>0.01498942093125272</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1554166747626177</v>
+        <v>0.1545844793437749</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01345803465776327</v>
+        <v>0.01446382406562391</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1488719533323795</v>
+        <v>0.153654749851276</v>
       </c>
       <c r="N258" t="n">
-        <v>0.10633850249785</v>
+        <v>0.01638436463593043</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1577765564058533</v>
+        <v>0.1599065715945001</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01821713627517323</v>
+        <v>0.01637835263781753</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1546564302098489</v>
+        <v>0.1607351030535389</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0182630683278243</v>
+        <v>0.01495757582575258</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1562219425075017</v>
+        <v>0.1553854351952971</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01267577758570676</v>
+        <v>0.01411513982001666</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1496433106035318</v>
+        <v>0.1544508884515416</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1075286230512798</v>
+        <v>0.01637835263781753</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1585940515167645</v>
+        <v>0.1607351030535389</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01704528221452007</v>
+        <v>0.0163734152104536</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1554536283037141</v>
+        <v>0.1615636345125778</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01794408125957413</v>
+        <v>0.01523146810749007</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1570272102523858</v>
+        <v>0.1561863910468192</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01128648916008554</v>
+        <v>0.01346433784930723</v>
       </c>
       <c r="M260" t="n">
-        <v>0.150414667874684</v>
+        <v>0.1552470270518073</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1078312982885049</v>
+        <v>0.0163734152104536</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1594115466276756</v>
+        <v>0.1615636345125778</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01587522351965692</v>
+        <v>0.01646956061267597</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1562508263975793</v>
+        <v>0.1623921659716167</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0174259278225303</v>
+        <v>0.01481112124746733</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1578324779972698</v>
+        <v>0.1569873468983414</v>
       </c>
       <c r="L261" t="n">
-        <v>0.009790149539635307</v>
+        <v>0.01281140838586137</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1511860251458362</v>
+        <v>0.156043165652073</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1090465315850237</v>
+        <v>0.01646956061267597</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1602290417385868</v>
+        <v>0.1623921659716167</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01570698074371498</v>
+        <v>0.01656679710332196</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1570480244914445</v>
+        <v>0.1632206974306555</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01730861578194781</v>
+        <v>0.0146965587166866</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1586377457421538</v>
+        <v>0.1577883027498635</v>
       </c>
       <c r="L262" t="n">
-        <v>0.008986738883091733</v>
+        <v>0.01125634166204459</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1519573824169884</v>
+        <v>0.1568393042523387</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1089743263163346</v>
+        <v>0.01656679710332196</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1610465368494979</v>
+        <v>0.1632206974306555</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01754057443982544</v>
+        <v>0.01656513294122884</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1578452225853097</v>
+        <v>0.1640492288896944</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01679215290308163</v>
+        <v>0.01458780398614989</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1594430134870378</v>
+        <v>0.1585892586013856</v>
       </c>
       <c r="L263" t="n">
-        <v>0.00767623734919054</v>
+        <v>0.01079912791022286</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1527287396881407</v>
+        <v>0.1576354428526044</v>
       </c>
       <c r="N263" t="n">
-        <v>0.110614685857936</v>
+        <v>0.01656513294122884</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1618640319604091</v>
+        <v>0.1640492288896944</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01737602516111953</v>
+        <v>0.01656457638523397</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1586424206791749</v>
+        <v>0.1648777603487332</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01667654695118674</v>
+        <v>0.01498488052685945</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1602482812319218</v>
+        <v>0.1593902144529078</v>
       </c>
       <c r="L264" t="n">
-        <v>0.005958625096667503</v>
+        <v>0.009439757362761758</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1535000969592929</v>
+        <v>0.1584315814528701</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1113676135853264</v>
+        <v>0.01656457638523397</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1626815270713202</v>
+        <v>0.1648777603487332</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.06235967788949132</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.06235967788949132</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.09977548462318613</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08927871303016266</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01976448297639731</v>
+        <v>0.01683711303016266</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02351149954067264</v>
+        <v>0.020029149042131</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001517565031443943</v>
+        <v>0.0007993846907562926</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008285314590388605</v>
+        <v>0.00168287114351448</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002599539099654269</v>
+        <v>0.002825464697121971</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008009558515221498</v>
+        <v>0.001699143441795228</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006400777752647635</v>
+        <v>0.006009815684305253</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007961386002656787</v>
+        <v>0.001704015162146987</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001517565031443943</v>
+        <v>0.009990526832577284</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008285314590388605</v>
+        <v>0.001699143441795228</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003203869811655838</v>
+        <v>0.005419004344538327</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001657062918077721</v>
+        <v>0.00336574228702896</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006312765465272763</v>
+        <v>0.005514876789829787</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.0016019117030443</v>
+        <v>0.003398286883590457</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0123763222747385</v>
+        <v>0.01246582629477169</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001592277200531357</v>
+        <v>0.003408030324293974</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003203869811655838</v>
+        <v>0.02075994912427481</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001657062918077721</v>
+        <v>0.003398286883590457</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004649715076261135</v>
+        <v>0.006679093924371778</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002485594377116582</v>
+        <v>0.005048613430543439</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008694493290228755</v>
+        <v>0.007735390519514287</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00240286755456645</v>
+        <v>0.005097430325385685</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01894723694812195</v>
+        <v>0.01760198052040315</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002388415800797036</v>
+        <v>0.005112045486440961</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004649715076261135</v>
+        <v>0.02917556891738582</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002485594377116582</v>
+        <v>0.00553707066976066</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006145901560885347</v>
+        <v>0.009353951683423699</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003314125836155442</v>
+        <v>0.006676383014043666</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0105584</v>
+        <v>0.009954160127566225</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002904448795667262</v>
+        <v>0.006796573767180914</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.024334125154647</v>
+        <v>0.0208404768239443</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003184554401062715</v>
+        <v>0.006509213696317998</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006145901560885347</v>
+        <v>0.0315018007592896</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003314125836155442</v>
+        <v>0.006796573767180914</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.011818558</v>
+        <v>0.006676383014043666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0165584</v>
+        <v>0.009353951683423699</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00738323000115397</v>
+        <v>0.01069063161830774</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004142657295194302</v>
+        <v>0.008414355717572397</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01326687996427084</v>
+        <v>0.01086624</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00400477925761075</v>
+        <v>0.0077557788</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02975759027616298</v>
+        <v>0.02280439357066832</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003980693001328394</v>
+        <v>0.008520075810734936</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.00738323000115397</v>
+        <v>0.0340111665552158</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004142657295194302</v>
+        <v>0.008495717208976142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00895250113269247</v>
+        <v>0.008782205693492438</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004971188754233163</v>
+        <v>0.01009722686108688</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01487968202069628</v>
+        <v>0.01272881613775344</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004805735109132899</v>
+        <v>0.01019486065077137</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03383823569451894</v>
+        <v>0.02504268710433272</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004776831601594072</v>
+        <v>0.01022409097288192</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.00895250113269247</v>
+        <v>0.03667711727853545</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004971188754233163</v>
+        <v>0.01019486065077137</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01024451569112635</v>
+        <v>0.01172452050496319</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005799720213272024</v>
+        <v>0.01178009800460136</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01659104909774473</v>
+        <v>0.01370859265837948</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005606690960655049</v>
+        <v>0.0118940040925666</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03779666479156413</v>
+        <v>0.02647751468240667</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00557297020185975</v>
+        <v>0.01192810613502891</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01024451569112635</v>
+        <v>0.03921953109209825</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005799720213272024</v>
+        <v>0.0118940040925666</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01145007441208107</v>
+        <v>0.01156723642780803</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006628251672310884</v>
+        <v>0.01346296914811584</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01810934476698378</v>
+        <v>0.01455825852246843</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006407646812177198</v>
+        <v>0.01359314753436183</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04145348094914775</v>
+        <v>0.02778532570486705</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00636910880212543</v>
+        <v>0.0136321212971759</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01145007441208107</v>
+        <v>0.04065828615875394</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006628251672310884</v>
+        <v>0.01359314753436183</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01245997803118216</v>
+        <v>0.01236001383711496</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007456783131349744</v>
+        <v>0.01514584029163032</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01974293259998122</v>
+        <v>0.01562034753850874</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007208602663699348</v>
+        <v>0.01529229097615706</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.044529287549119</v>
+        <v>0.02884256957169076</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007165247402391108</v>
+        <v>0.01533613645932288</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01245997803118216</v>
+        <v>0.04251326064135219</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007456783131349744</v>
+        <v>0.01529229097615706</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01346502728405508</v>
+        <v>0.01315251310797203</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008285314590388605</v>
+        <v>0.01682871143514479</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02170017616830477</v>
+        <v>0.01613739351498883</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008009558515221499</v>
+        <v>0.01699143441795228</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0465584</v>
+        <v>0.03042569568285453</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008106479378045917</v>
+        <v>0.01704015162146987</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01346502728405508</v>
+        <v>0.0438043327027427</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008285314590388605</v>
+        <v>0.01699143441795228</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01455602290632534</v>
+        <v>0.01599439461546726</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009113846049427466</v>
+        <v>0.01851158257865928</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02288943904352214</v>
+        <v>0.01695193026039714</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008810514366743648</v>
+        <v>0.01869057785974751</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04726761006949598</v>
+        <v>0.0311111534383352</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008757524602922465</v>
+        <v>0.01874416678361686</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01455602290632534</v>
+        <v>0.0460513805057754</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009113846049427466</v>
+        <v>0.01869057785974751</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01512376563361839</v>
+        <v>0.01683711303016266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009942377508466327</v>
+        <v>0.020029149042131</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02461908479720101</v>
+        <v>0.0180064915832221</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009611470218265798</v>
+        <v>0.02038972130154274</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04806985107138234</v>
+        <v>0.0326753922381097</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009553663203188144</v>
+        <v>0.02044818194576385</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01512376563361839</v>
+        <v>0.0473742822132997</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009942377508466327</v>
+        <v>0.02038972130154274</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01565905620155976</v>
+        <v>0.01699536164038774</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01077090896750519</v>
+        <v>0.02187732486568824</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02599747700090915</v>
+        <v>0.01884361129195217</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01041242606978795</v>
+        <v>0.02208886474333797</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04841270592707225</v>
+        <v>0.03329486148215474</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01034980180345382</v>
+        <v>0.02215219710791083</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01565905620155976</v>
+        <v>0.04959291598816551</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01077090896750519</v>
+        <v>0.02208886474333797</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0165584</v>
+        <v>0.01914868818198961</v>
       </c>
       <c r="G79" t="n">
-        <v>0.011818558</v>
+        <v>0.02356019600920272</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0273329792262143</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0112133819213101</v>
+        <v>0.02326733639999999</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04914590035378646</v>
+        <v>0.03593185659300743</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0111459404037195</v>
+        <v>0.02423680874999998</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0165584</v>
+        <v>0.05209923020961754</v>
       </c>
       <c r="O79" t="n">
-        <v>0.011818558</v>
+        <v>0.02326733639999999</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01652210452494852</v>
+        <v>0.01936817322536872</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01242797188558291</v>
+        <v>0.0252430671527172</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02893395504468413</v>
+        <v>0.02112394577863709</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01201433777283225</v>
+        <v>0.02548715162692843</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0496191600687455</v>
+        <v>0.03691376906520932</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01194207900398518</v>
+        <v>0.02556022743220481</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01652210452494852</v>
+        <v>0.05575018726133396</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01242797188558291</v>
+        <v>0.02548715162692843</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01713505210530993</v>
+        <v>0.01862680500891675</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01325650334462177</v>
+        <v>0.02692593829623168</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02960876802788637</v>
+        <v>0.02236948008751501</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0128152936243544</v>
+        <v>0.02718629506872365</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0495822107891703</v>
+        <v>0.03961391013250198</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01273821760425086</v>
+        <v>0.02726424259435179</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01713505210530993</v>
+        <v>0.05897727590208346</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01325650334462177</v>
+        <v>0.02718629506872365</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01740274901408635</v>
+        <v>0.02289757177102537</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01408503480366063</v>
+        <v>0.02860880943974616</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03126578174738875</v>
+        <v>0.02390697059452949</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01361624947587655</v>
+        <v>0.02888543851051888</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04998477823228131</v>
+        <v>0.04137351033514267</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01353435620451654</v>
+        <v>0.02896825775649878</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01740274901408635</v>
+        <v>0.06270463410730653</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01408503480366063</v>
+        <v>0.02888543851051888</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01743316480032893</v>
+        <v>0.02315346175008625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01491356626269949</v>
+        <v>0.03029168058326064</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03221335977475898</v>
+        <v>0.02540037661306176</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0144172053273987</v>
+        <v>0.03058458195231411</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05067658811529946</v>
+        <v>0.04441768663916507</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01433049480478222</v>
+        <v>0.03067227291864577</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01743316480032893</v>
+        <v>0.06672752437572377</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01491356626269949</v>
+        <v>0.03058458195231411</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01763426901308879</v>
+        <v>0.02536746318449109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01574209772173835</v>
+        <v>0.03197455172677512</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03335986568156479</v>
+        <v>0.02711365745649297</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01521816117892084</v>
+        <v>0.03228372539410934</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05209923020961754</v>
+        <v>0.04697155601060299</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01511869448929844</v>
+        <v>0.03237628808079276</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01763426901308879</v>
+        <v>0.07034120920605585</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01574209772173835</v>
+        <v>0.03228372539410934</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01801403120141705</v>
+        <v>0.02551256431263154</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01657062918077721</v>
+        <v>0.03365742287028959</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03501366303937392</v>
+        <v>0.02831077243820432</v>
       </c>
       <c r="K85" t="n">
-        <v>0.016019117030443</v>
+        <v>0.03398286883590457</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05280002816239404</v>
+        <v>0.04986023541549012</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01592277200531357</v>
+        <v>0.03408030324293974</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01801403120141705</v>
+        <v>0.07424095109702361</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01657062918077721</v>
+        <v>0.03398286883590457</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01818042091436484</v>
+        <v>0.02456175337289928</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01739916063981607</v>
+        <v>0.03534029401380408</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03593185659300743</v>
+        <v>0.02995568087157699</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01647380878536667</v>
+        <v>0.03568201227769979</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05343829358562069</v>
+        <v>0.05240884181986036</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01671891060557925</v>
+        <v>0.03578431840508673</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01818042091436484</v>
+        <v>0.0780220125473477</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01739916063981607</v>
+        <v>0.03568201227769979</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01814140770098326</v>
+        <v>0.025488018603686</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01822769209885493</v>
+        <v>0.03702316515731856</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03768980989122869</v>
+        <v>0.03131234206999216</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0176210287334873</v>
+        <v>0.03738115571949503</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05441210529362522</v>
+        <v>0.05514249218974734</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01751504920584493</v>
+        <v>0.03748833356723372</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01814140770098326</v>
+        <v>0.08207965605574902</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01822769209885493</v>
+        <v>0.03738115571949503</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01840496111032347</v>
+        <v>0.02926434824338336</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01905622355789379</v>
+        <v>0.03870603630083304</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03912779711724101</v>
+        <v>0.03234471534683105</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01842198458500944</v>
+        <v>0.03908029916129026</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05551140777766617</v>
+        <v>0.05758630349118485</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01831118780611061</v>
+        <v>0.0391923487293807</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01840496111032347</v>
+        <v>0.08560914412094806</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01905622355789379</v>
+        <v>0.03908029916129026</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01867905069143655</v>
+        <v>0.02986373053038305</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01988475501693265</v>
+        <v>0.04038890744434751</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04039409172487898</v>
+        <v>0.0337167600154748</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0192229404365316</v>
+        <v>0.04077944260308548</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05752614552900193</v>
+        <v>0.05956539269020669</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01910732640637629</v>
+        <v>0.04089636389152769</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01867905069143655</v>
+        <v>0.08790573924166573</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01988475501693265</v>
+        <v>0.04077944260308548</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01877164599337364</v>
+        <v>0.02729709769738872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02071328647597151</v>
+        <v>0.04207177858786199</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04158410006516675</v>
+        <v>0.03459243538930463</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02002389628805374</v>
+        <v>0.04247858604488071</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05894626303889106</v>
+        <v>0.06210487675284659</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01990346500664197</v>
+        <v>0.04260037905367468</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01877164599337364</v>
+        <v>0.09066470391662274</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02071328647597151</v>
+        <v>0.04247858604488071</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01909071656518588</v>
+        <v>0.02870324166309179</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02154181793501038</v>
+        <v>0.04375464973137647</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04259322848912858</v>
+        <v>0.03493570078170175</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02082485213957589</v>
+        <v>0.04417772948667594</v>
       </c>
       <c r="L91" t="n">
-        <v>0.060261704798592</v>
+        <v>0.0628298726451384</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02069960360690765</v>
+        <v>0.04430439421582167</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01909071656518588</v>
+        <v>0.09288130064453975</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02154181793501038</v>
+        <v>0.04417772948667594</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01934423195592437</v>
+        <v>0.03109539775653396</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02237034939404924</v>
+        <v>0.04543752087489095</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04441688334778865</v>
+        <v>0.03542690700327798</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02162580799109804</v>
+        <v>0.04587687292847117</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06236241529936348</v>
+        <v>0.06381465852042226</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02149574220717333</v>
+        <v>0.04600840937796866</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01934423195592437</v>
+        <v>0.09377622281666509</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02237034939404924</v>
+        <v>0.04587687292847117</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01976448297639731</v>
+        <v>0.03147070421002632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02351149954067264</v>
+        <v>0.04712039201840543</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04585047099217113</v>
+        <v>0.0361029885373839</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02242676384262019</v>
+        <v>0.0475760163702664</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06393833903246382</v>
+        <v>0.06529641391213628</v>
       </c>
       <c r="M93" t="n">
-        <v>0.022291880807439</v>
+        <v>0.04771242454011564</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01976448297639731</v>
+        <v>0.09533117501923738</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02351149954067264</v>
+        <v>0.0475760163702664</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01990414485532344</v>
+        <v>0.03082629925587991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02402741231212695</v>
+        <v>0.04880326316191991</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04688939777330017</v>
+        <v>0.03636114437854811</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02322771969414235</v>
+        <v>0.04927515981206163</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06557942048915161</v>
+        <v>0.06564849292316574</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02308801940770468</v>
+        <v>0.04941643970226263</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01990414485532344</v>
+        <v>0.09653887504707009</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02402741231212695</v>
+        <v>0.04927515981206163</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02030167750703503</v>
+        <v>0.03015932112640578</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02485594377116582</v>
+        <v>0.0504861343054344</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04842907004220012</v>
+        <v>0.03699791680737061</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02402867554566449</v>
+        <v>0.05097430325385686</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06827560416068534</v>
+        <v>0.06666455518968031</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02388415800797036</v>
+        <v>0.05112045486440962</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02030167750703503</v>
+        <v>0.09769020834253822</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02485594377116582</v>
+        <v>0.05097430325385686</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02112617630431736</v>
+        <v>0.03246690805391498</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02568447523020468</v>
+        <v>0.05216900544894888</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05006489414989504</v>
+        <v>0.03720984810445145</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02482963139718665</v>
+        <v>0.05267344669565208</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06931683453832355</v>
+        <v>0.06743826034784958</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02468029660823604</v>
+        <v>0.0528244700265566</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02112617630431736</v>
+        <v>0.09827606034801639</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02568447523020468</v>
+        <v>0.05267344669565208</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02186405864418667</v>
+        <v>0.03274619827071856</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02651300668924354</v>
+        <v>0.05385187659246336</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05189227644740918</v>
+        <v>0.03789348055039062</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02563058724870879</v>
+        <v>0.05437259013744731</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07139305611332464</v>
+        <v>0.06846326803384326</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02547643520850172</v>
+        <v>0.05452848518870359</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02186405864418667</v>
+        <v>0.09908731650587954</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02651300668924354</v>
+        <v>0.05437259013744731</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02260174192365925</v>
+        <v>0.03099433000912758</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0273415381482824</v>
+        <v>0.05553474773597783</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05300662328576675</v>
+        <v>0.03824535642578818</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02643154310023095</v>
+        <v>0.05607173357924253</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07319421337694731</v>
+        <v>0.06883323788383083</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0262725738087674</v>
+        <v>0.05623250035085058</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02260174192365925</v>
+        <v>0.1006148622585026</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0273415381482824</v>
+        <v>0.05607173357924253</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02362564353975137</v>
+        <v>0.03220844150145307</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02817006960732126</v>
+        <v>0.05721761887949231</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0541033410159919</v>
+        <v>0.03856201801124412</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02723249895175309</v>
+        <v>0.05777087702103776</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07571025082044996</v>
+        <v>0.06924182953398203</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02706871240903307</v>
+        <v>0.05793651551299756</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02362564353975137</v>
+        <v>0.1011495830482604</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02817006960732126</v>
+        <v>0.05777087702103776</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02462218088947929</v>
+        <v>0.03038567098000609</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02899860106636012</v>
+        <v>0.05890049002300679</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05587783598910886</v>
+        <v>0.03864000758735849</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02803345480327524</v>
+        <v>0.059470020462833</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07773111293509116</v>
+        <v>0.06978270262046649</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02786485100929876</v>
+        <v>0.05964053067514455</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02462218088947929</v>
+        <v>0.1016823643175277</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02899860106636012</v>
+        <v>0.059470020462833</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02547777136985922</v>
+        <v>0.03252315667709769</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02982713252539898</v>
+        <v>0.06058336116652127</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05712551455614184</v>
+        <v>0.03877586743473131</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02883441065479739</v>
+        <v>0.06116916390462823</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07924674421212935</v>
+        <v>0.07064951677945377</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02866098960956443</v>
+        <v>0.06134454583729154</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02547777136985922</v>
+        <v>0.1022040915086794</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02982713252539898</v>
+        <v>0.06116916390462823</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02667883237790754</v>
+        <v>0.03261803682503894</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03065566398443784</v>
+        <v>0.06226623231003575</v>
       </c>
       <c r="J102" t="n">
-        <v>0.058541783068115</v>
+        <v>0.03906613983396258</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02963536650631954</v>
+        <v>0.06286830734642346</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08194708914282306</v>
+        <v>0.07063593164711351</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02945712820983011</v>
+        <v>0.06304856099943852</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02667883237790754</v>
+        <v>0.1029056500640904</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03065566398443784</v>
+        <v>0.06286830734642346</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02781178131064042</v>
+        <v>0.03367422606032532</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0314841954434767</v>
+        <v>0.06394910345355023</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05992204787605263</v>
+        <v>0.03920736706565234</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03043632235784169</v>
+        <v>0.06456745078821868</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08352209221843088</v>
+        <v>0.07083560685961535</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03025326681009579</v>
+        <v>0.06475257616158551</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02781178131064042</v>
+        <v>0.1035779254261354</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0314841954434767</v>
+        <v>0.06456745078821868</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02896303556507417</v>
+        <v>0.03367148817567311</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03231272690251556</v>
+        <v>0.06563197459706471</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06086171533097876</v>
+        <v>0.03952896595279462</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03123727820936384</v>
+        <v>0.06626659423001391</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08556169793021123</v>
+        <v>0.07154220205312894</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03104940541036147</v>
+        <v>0.06645659132373251</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02896303556507417</v>
+        <v>0.1041984604192351</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03231272690251556</v>
+        <v>0.06626659423001391</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03021901253822504</v>
+        <v>0.03164843631633518</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03314125836155442</v>
+        <v>0.06731484574057918</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06245619178391776</v>
+        <v>0.03932885514880742</v>
       </c>
       <c r="K105" t="n">
-        <v>0.032038234060886</v>
+        <v>0.06796573767180913</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0873558507694227</v>
+        <v>0.07186371318601487</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03184554401062715</v>
+        <v>0.06816060648587949</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03021901253822504</v>
+        <v>0.1033981683396273</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03314125836155442</v>
+        <v>0.06796573767180913</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03106612962710931</v>
+        <v>0.03360318751646118</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03396978982059328</v>
+        <v>0.06899771688409367</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06350088358589373</v>
+        <v>0.03931633268877971</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03283918991240814</v>
+        <v>0.06966488111360436</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08969449522732381</v>
+        <v>0.07165750189174183</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03264168261089282</v>
+        <v>0.06986462164802648</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03106612962710931</v>
+        <v>0.1034651591013612</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03396978982059328</v>
+        <v>0.06966488111360436</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0324908042287432</v>
+        <v>0.03053725001015196</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03479832127963214</v>
+        <v>0.07068058802760815</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06419119708793086</v>
+        <v>0.03917623880834041</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03364014576393029</v>
+        <v>0.07136402455539959</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09066757579517293</v>
+        <v>0.07120664534643223</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03343782121115851</v>
+        <v>0.07156863681017346</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0324908042287432</v>
+        <v>0.1033594715248383</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03479832127963214</v>
+        <v>0.07136402455539959</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03327945374014307</v>
+        <v>0.03045213203150842</v>
       </c>
       <c r="G108" t="n">
-        <v>0.035626852738671</v>
+        <v>0.07236345917112263</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06552253864105342</v>
+        <v>0.03911045218766138</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03444110161545244</v>
+        <v>0.07306316799719483</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0929650369642287</v>
+        <v>0.07130731125174367</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03423395981142419</v>
+        <v>0.07327265197232045</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03327945374014307</v>
+        <v>0.1028860578160373</v>
       </c>
       <c r="O108" t="n">
-        <v>0.035626852738671</v>
+        <v>0.07306316799719483</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03461849555832509</v>
+        <v>0.03334934181463144</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03645538419770986</v>
+        <v>0.07404633031463712</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06629031459628557</v>
+        <v>0.0392207951445815</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03524205746697459</v>
+        <v>0.07476231143899005</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09397682322574963</v>
+        <v>0.07136284116226077</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03503009841168986</v>
+        <v>0.07497666713446743</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03461849555832509</v>
+        <v>0.1036497216096761</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03645538419770986</v>
+        <v>0.07476231143899005</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0352943470803056</v>
+        <v>0.03123038759362189</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03728391565674873</v>
+        <v>0.0757292014581516</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06738993130465148</v>
+        <v>0.0391090899969397</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03604301331849674</v>
+        <v>0.07646145488078528</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09609287907099423</v>
+        <v>0.07137657663256805</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03582623701195554</v>
+        <v>0.07668068229661443</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0352943470803056</v>
+        <v>0.1033552665404725</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03728391565674873</v>
+        <v>0.07646145488078528</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0361934257031008</v>
+        <v>0.03009677760258066</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03811244711578758</v>
+        <v>0.07741207260166608</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06821679511717541</v>
+        <v>0.03907715906257485</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03684396917001889</v>
+        <v>0.07816059832258052</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09770314899122101</v>
+        <v>0.0708518592172501</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03662237561222122</v>
+        <v>0.07838469745876141</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0361934257031008</v>
+        <v>0.102607496243144</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03811244711578758</v>
+        <v>0.07816059832258052</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.037102148823727</v>
+        <v>0.03295002007560863</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03894097857482644</v>
+        <v>0.07909494374518056</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06876631238488151</v>
+        <v>0.03892682465932581</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03764492502154104</v>
+        <v>0.07985974176437574</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0989975774776885</v>
+        <v>0.07069203047089143</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0374185142124869</v>
+        <v>0.0800887126209084</v>
       </c>
       <c r="N112" t="n">
-        <v>0.037102148823727</v>
+        <v>0.1020112143524085</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03894097857482644</v>
+        <v>0.07985974176437574</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03770693383920047</v>
+        <v>0.03079162324680667</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03976951003386531</v>
+        <v>0.08077781488869502</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06953388945879396</v>
+        <v>0.03865990910503152</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03844588087306319</v>
+        <v>0.08155888520617097</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09976610902165506</v>
+        <v>0.07060043194807666</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03821465281275258</v>
+        <v>0.08179272778305538</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03770693383920047</v>
+        <v>0.1020712245029837</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03976951003386531</v>
+        <v>0.08155888520617097</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03859419814653745</v>
+        <v>0.03262309535027568</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04059804149290416</v>
+        <v>0.0824606860322095</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06971493268993695</v>
+        <v>0.03847823471753083</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03924683672458534</v>
+        <v>0.08325802864796619</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1008986881143794</v>
+        <v>0.07018040520339036</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03901079141301825</v>
+        <v>0.08349674294520237</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03859419814653745</v>
+        <v>0.1012923303295872</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04059804149290416</v>
+        <v>0.08325802864796619</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03895035914275422</v>
+        <v>0.03244594462011652</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04142657295194303</v>
+        <v>0.08414355717572398</v>
       </c>
       <c r="J115" t="n">
-        <v>0.07030484842933479</v>
+        <v>0.03818362381466262</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04004779257610749</v>
+        <v>0.08495717208976142</v>
       </c>
       <c r="L115" t="n">
-        <v>0.10188525924712</v>
+        <v>0.06973529179141699</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03980693001328393</v>
+        <v>0.08520075810734937</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03895035914275422</v>
+        <v>0.1008793354669369</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04142657295194303</v>
+        <v>0.08495717208976142</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03926183422486705</v>
+        <v>0.02926167929043007</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04225510441098188</v>
+        <v>0.08582642831923847</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07129904302801157</v>
+        <v>0.03787789871426581</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04084874842762964</v>
+        <v>0.08665631553155666</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1025157669111353</v>
+        <v>0.06956843326674128</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04060306861354961</v>
+        <v>0.08690477326949635</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03926183422486705</v>
+        <v>0.09963704354975034</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04225510441098188</v>
+        <v>0.08665631553155666</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03952896595279462</v>
+        <v>0.03007180759531724</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04308363587002075</v>
+        <v>0.08750929946275295</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07099292283699155</v>
+        <v>0.03786288173417925</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04164970427915179</v>
+        <v>0.08835545897335188</v>
       </c>
       <c r="L117" t="n">
-        <v>0.102880155597684</v>
+        <v>0.06878317118394761</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04139920721381529</v>
+        <v>0.08860878843164334</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03952896595279462</v>
+        <v>0.09987025821274542</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04308363587002075</v>
+        <v>0.08835545897335188</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03932780718548132</v>
+        <v>0.03087783776887889</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04391216732905961</v>
+        <v>0.08919217060626743</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07186371318601487</v>
+        <v>0.03744039519224183</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04245066013067394</v>
+        <v>0.09005460241514711</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1039683697980243</v>
+        <v>0.06838284709762069</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04219534581408096</v>
+        <v>0.09031280359379032</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03932780718548132</v>
+        <v>0.09898378309063977</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04391216732905961</v>
+        <v>0.09005460241514711</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0395207943524071</v>
+        <v>0.03168127804521589</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04474069878809847</v>
+        <v>0.09087504174978191</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07176136348995774</v>
+        <v>0.03751226140629249</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04325161598219609</v>
+        <v>0.09175374585694235</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1041984604192351</v>
+        <v>0.06827080256234502</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04299148441434665</v>
+        <v>0.09201681875593731</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0395207943524071</v>
+        <v>0.09848242181815103</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04474069878809847</v>
+        <v>0.09175374585694235</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03920751324619992</v>
+        <v>0.02848363665842913</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04556923024713733</v>
+        <v>0.09255791289329639</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07185055908505425</v>
+        <v>0.03728030269417004</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04405257183371824</v>
+        <v>0.09345288929873757</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1037946566541517</v>
+        <v>0.06775037913270515</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04378762301461233</v>
+        <v>0.09372083391808429</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03920751324619992</v>
+        <v>0.09817097802999708</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04556923024713733</v>
+        <v>0.09345288929873757</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03928806042832704</v>
+        <v>0.03028642184261949</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04639776170617619</v>
+        <v>0.09424078403681087</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0716978726864457</v>
+        <v>0.03684634137371341</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04485352768524039</v>
+        <v>0.0951520327405328</v>
       </c>
       <c r="L121" t="n">
-        <v>0.104161579637097</v>
+        <v>0.06682491836328566</v>
       </c>
       <c r="M121" t="n">
-        <v>0.044583761614878</v>
+        <v>0.09542484908023129</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03928806042832704</v>
+        <v>0.09665425536089556</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04639776170617619</v>
+        <v>0.0951520327405328</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03926253246025581</v>
+        <v>0.03109114183188787</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04722629316521505</v>
+        <v>0.09592365518032535</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07130660482646298</v>
+        <v>0.0366121997627615</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04565448353676254</v>
+        <v>0.09685117618232802</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1034953527524785</v>
+        <v>0.06709776180867111</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04537990021514369</v>
+        <v>0.09712886424237827</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03926253246025581</v>
+        <v>0.09663705744556411</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04722629316521505</v>
+        <v>0.09685117618232802</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03923102590345351</v>
+        <v>0.02888824319028752</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04805482462425391</v>
+        <v>0.09760652632383983</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07107856575240915</v>
+        <v>0.03637970017915317</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04645543938828469</v>
+        <v>0.09855031962412325</v>
       </c>
       <c r="L123" t="n">
-        <v>0.103996998477583</v>
+        <v>0.06607225102344608</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04617603881540936</v>
+        <v>0.09883287940452526</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03923102590345351</v>
+        <v>0.09562418791872068</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04805482462425391</v>
+        <v>0.09855031962412325</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03939363731938748</v>
+        <v>0.02765618798034406</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04888335608329277</v>
+        <v>0.09928939746735431</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07091556571158708</v>
+        <v>0.03604678556481421</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04725639523980683</v>
+        <v>0.1002494630659185</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1034675392896975</v>
+        <v>0.0656517171819882</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04697217741567504</v>
+        <v>0.1005368945666723</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03939363731938748</v>
+        <v>0.09571022436975657</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04888335608329277</v>
+        <v>0.1002494630659185</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03915046326952501</v>
+        <v>0.03039892978489107</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04971188754233163</v>
+        <v>0.1009722686108688</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07081941495129979</v>
+        <v>0.03588354672148786</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04805735109132898</v>
+        <v>0.1019486065077137</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1033079976661088</v>
+        <v>0.0651982784941269</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04776831601594073</v>
+        <v>0.1022409097288192</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03915046326952501</v>
+        <v>0.09431632607173623</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04971188754233163</v>
+        <v>0.1019486065077137</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03900160031533342</v>
+        <v>0.02712138261091632</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05054041900137049</v>
+        <v>0.1026551397543833</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07049192371885016</v>
+        <v>0.03558812496922074</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04885830694285114</v>
+        <v>0.1036477499495089</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1027193960841037</v>
+        <v>0.06528166872092936</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0485644546162064</v>
+        <v>0.1039449248909662</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03900160031533342</v>
+        <v>0.09343759353931064</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05054041900137049</v>
+        <v>0.1036477499495089</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03914714501828001</v>
+        <v>0.02882846046540758</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05136895046040935</v>
+        <v>0.1043380108978978</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07063490226154118</v>
+        <v>0.03536645763736308</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04965926279437329</v>
+        <v>0.1053468933913042</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1032027570209692</v>
+        <v>0.06401277504666553</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04936059321647208</v>
+        <v>0.1056489400531132</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03914714501828001</v>
+        <v>0.09258967758859349</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05136895046040935</v>
+        <v>0.1053468933913042</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03908719393983209</v>
+        <v>0.02852507735535263</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05219748191944821</v>
+        <v>0.1060208820414122</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06995016082667579</v>
+        <v>0.03492448205526519</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05046021864589544</v>
+        <v>0.1070460368330994</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1021591029539921</v>
+        <v>0.06350248465560543</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05015673181673776</v>
+        <v>0.1073529552152602</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03908719393983209</v>
+        <v>0.09218822903569873</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05219748191944821</v>
+        <v>0.1070460368330994</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.038921843641457</v>
+        <v>0.02821614728773921</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05302601337848707</v>
+        <v>0.1077037531849267</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06983950966155691</v>
+        <v>0.0344681355522773</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05126117449741759</v>
+        <v>0.1087451802748946</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1021894563604593</v>
+        <v>0.06296168473201896</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05095287041700344</v>
+        <v>0.1090569703774072</v>
       </c>
       <c r="N129" t="n">
-        <v>0.038921843641457</v>
+        <v>0.09094889869674028</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05302601337848707</v>
+        <v>0.1087451802748946</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.038751190684622</v>
+        <v>0.02890658426955512</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05385454483752593</v>
+        <v>0.1093866243284412</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06980475901348754</v>
+        <v>0.0341033554577497</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05206213034893974</v>
+        <v>0.1104443237166898</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1018948397176576</v>
+        <v>0.06260126246017617</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05174900901726912</v>
+        <v>0.1107609855395542</v>
       </c>
       <c r="N130" t="n">
-        <v>0.038751190684622</v>
+        <v>0.09008733738783198</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05385454483752593</v>
+        <v>0.1104443237166898</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03867533163079444</v>
+        <v>0.02560130230778811</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0546830762965648</v>
+        <v>0.1110694954719557</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06914771912977055</v>
+        <v>0.03403607910103264</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05286308620046189</v>
+        <v>0.1121434671584851</v>
       </c>
       <c r="L131" t="n">
-        <v>0.101176275502874</v>
+        <v>0.06183210502434702</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05254514761753479</v>
+        <v>0.1124650007017012</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03867533163079444</v>
+        <v>0.08961919592508777</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0546830762965648</v>
+        <v>0.1121434671584851</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03879436304144161</v>
+        <v>0.02730521540942598</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05551160775560365</v>
+        <v>0.1127523666154702</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06867020025770895</v>
+        <v>0.03337224381147637</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05366404205198404</v>
+        <v>0.1138426106002803</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1017347861933953</v>
+        <v>0.06116509960880154</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05334128621780047</v>
+        <v>0.1141690158638481</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03879436304144161</v>
+        <v>0.0883601251246216</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05551160775560365</v>
+        <v>0.1138426106002803</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03870838147803085</v>
+        <v>0.02602323243137802</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05634013921464252</v>
+        <v>0.1144352377589846</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06837401264460571</v>
+        <v>0.03321778691843119</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05446499790350619</v>
+        <v>0.1155417540420755</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1006713942665083</v>
+        <v>0.06031113339780964</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05413742481806615</v>
+        <v>0.1158730310259951</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03870838147803085</v>
+        <v>0.08752577580254717</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05634013921464252</v>
+        <v>0.1155417540420755</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03841748350202942</v>
+        <v>0.02773353049912296</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05716867067368138</v>
+        <v>0.1161181089024991</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06816096653776374</v>
+        <v>0.03277864575124732</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05526595375502834</v>
+        <v>0.1172408974838708</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1010871221994999</v>
+        <v>0.05968109357564136</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05493356341833183</v>
+        <v>0.1175770461881421</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03841748350202942</v>
+        <v>0.08663179877497862</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05716867067368138</v>
+        <v>0.1172408974838708</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03862176567490466</v>
+        <v>0.02541715892606055</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05799720213272024</v>
+        <v>0.1178009800460136</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06743287218448593</v>
+        <v>0.03264274617026498</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05606690960655049</v>
+        <v>0.118940040925666</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1003829924696572</v>
+        <v>0.0593772104495956</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05572970201859751</v>
+        <v>0.1192810613502891</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03862176567490466</v>
+        <v>0.08514636657734348</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05799720213272024</v>
+        <v>0.118940040925666</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0382213245581239</v>
+        <v>0.02608115211463332</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05882573359175909</v>
+        <v>0.1194838511895281</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06699153983207534</v>
+        <v>0.03217468458937733</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05686786545807263</v>
+        <v>0.1206391843674612</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1000600275542668</v>
+        <v>0.05852719304963433</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05652584061886319</v>
+        <v>0.1209850765124361</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0382213245581239</v>
+        <v>0.08477615526157661</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05882573359175909</v>
+        <v>0.1206391843674612</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03831625671315442</v>
+        <v>0.02473254446728384</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05965426505079795</v>
+        <v>0.1211667223330425</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06663877972783488</v>
+        <v>0.03168112525518664</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05766882130959478</v>
+        <v>0.1223383278092565</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09961924993061566</v>
+        <v>0.05822485120892662</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05732197921912886</v>
+        <v>0.1226890916745831</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03831625671315442</v>
+        <v>0.08353873179962068</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05965426505079795</v>
+        <v>0.1223383278092565</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03820665870146353</v>
+        <v>0.02637837038645467</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06048279650983682</v>
+        <v>0.122849593476557</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06627640211906743</v>
+        <v>0.03117056745639719</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05846977716111693</v>
+        <v>0.1240374712510517</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09916168207599063</v>
+        <v>0.05728576993494422</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05811811781939454</v>
+        <v>0.1243931068367301</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03820665870146353</v>
+        <v>0.08275650033932758</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06048279650983682</v>
+        <v>0.1240374712510517</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03799262708451855</v>
+        <v>0.02602566427458836</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06131132796887568</v>
+        <v>0.1245324646200715</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06540621725307602</v>
+        <v>0.03105151048171319</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05927073301263908</v>
+        <v>0.1257366146928469</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0986883464676786</v>
+        <v>0.05602553423515916</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05891425641966022</v>
+        <v>0.126097121998877</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03799262708451855</v>
+        <v>0.08185186502854908</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06131132796887568</v>
+        <v>0.1257366146928469</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03787425842378679</v>
+        <v>0.02268146053412747</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06213985942791454</v>
+        <v>0.126215335763586</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06513003537716353</v>
+        <v>0.03053245361983893</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06007168886416123</v>
+        <v>0.1274357581346421</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09770026558296652</v>
+        <v>0.05595972911704325</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0597103950199259</v>
+        <v>0.1278011371610241</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03787425842378679</v>
+        <v>0.08004723001513747</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06213985942791454</v>
+        <v>0.1274357581346421</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03775164928073556</v>
+        <v>0.02535279356751457</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0629683908869534</v>
+        <v>0.1278982069071005</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06464966673863298</v>
+        <v>0.03012189615947865</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06087264471568338</v>
+        <v>0.1291349015764374</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0977984618991411</v>
+        <v>0.05500393958806837</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06050653362019159</v>
+        <v>0.129505152323171</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03775164928073556</v>
+        <v>0.07886499944694447</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0629683908869534</v>
+        <v>0.1291349015764374</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03782489621683219</v>
+        <v>0.02404669777719218</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06379692234599225</v>
+        <v>0.1295810780506149</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0640669215847873</v>
+        <v>0.02962833738933658</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06167360056720553</v>
+        <v>0.1308340450182326</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09718395789348938</v>
+        <v>0.05437375065570649</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06130267222045725</v>
+        <v>0.131209167485318</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03782489621683219</v>
+        <v>0.07802757747182215</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06379692234599225</v>
+        <v>0.1308340450182326</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03739409579354395</v>
+        <v>0.02377020756560292</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06462545380503112</v>
+        <v>0.1312639491941294</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06378361016292938</v>
+        <v>0.02916027659811701</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06247455641872768</v>
+        <v>0.1325331884600278</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09645777604329803</v>
+        <v>0.05368474732742948</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06209881082072294</v>
+        <v>0.132913182647465</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03739409579354395</v>
+        <v>0.07675736823762253</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06462545380503112</v>
+        <v>0.1325331884600278</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03745934457233817</v>
+        <v>0.02153035733518927</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06545398526406998</v>
+        <v>0.1329468203376439</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06290154272036222</v>
+        <v>0.02892621307452416</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06327551227024984</v>
+        <v>0.134232331901823</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09542093882585412</v>
+        <v>0.05285251461070917</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06289494942098861</v>
+        <v>0.134617197809612</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03745934457233817</v>
+        <v>0.07647677589219742</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06545398526406998</v>
+        <v>0.134232331901823</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03712073911468218</v>
+        <v>0.02233418148839387</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06628251672310884</v>
+        <v>0.1346296914811584</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06292252950438876</v>
+        <v>0.02853464610726231</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06407646812177199</v>
+        <v>0.1359314753436183</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09557446871844449</v>
+        <v>0.0521926375130175</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0636910880212543</v>
+        <v>0.136321212971759</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03712073911468218</v>
+        <v>0.07530820458339904</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06628251672310884</v>
+        <v>0.1359314753436183</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03717837598204324</v>
+        <v>0.02118871442765923</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06711104818214771</v>
+        <v>0.1363125626246729</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06254838076231198</v>
+        <v>0.02839407498503568</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06487742397329414</v>
+        <v>0.1376306187854135</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0952193881983559</v>
+        <v>0.05212070104182639</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06448722662151998</v>
+        <v>0.138025228133906</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03717837598204324</v>
+        <v>0.07527405845907897</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06711104818214771</v>
+        <v>0.1376306187854135</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03683235173588872</v>
+        <v>0.02210099055542792</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06793957964118656</v>
+        <v>0.1379954337681873</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06208090674143477</v>
+        <v>0.02841299899654856</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06567837982481628</v>
+        <v>0.1393297622272087</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09365671974287532</v>
+        <v>0.05105229020460766</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06528336522178564</v>
+        <v>0.139729243296053</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03683235173588872</v>
+        <v>0.07389674166708948</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06793957964118656</v>
+        <v>0.1393297622272087</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03698276293768589</v>
+        <v>0.02107721229796671</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06876811110022543</v>
+        <v>0.1396783049117018</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06142191768906008</v>
+        <v>0.02819991743050516</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06647933567633843</v>
+        <v>0.1410289056690039</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09348748582928962</v>
+        <v>0.05110299000883331</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06607950382205133</v>
+        <v>0.1414332584582</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03698276293768589</v>
+        <v>0.07399865835528247</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06876811110022543</v>
+        <v>0.1410289056690039</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03682970614890207</v>
+        <v>0.02308393199960752</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06959664255926427</v>
+        <v>0.1413611760552163</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06067322385249085</v>
+        <v>0.02796322795077094</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06728029152786058</v>
+        <v>0.1427280491107992</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09271270893488553</v>
+        <v>0.05068838546197513</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06687564242231701</v>
+        <v>0.1431372736203469</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03682970614890207</v>
+        <v>0.07450194478816163</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06959664255926427</v>
+        <v>0.1427280491107992</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03647327793100458</v>
+        <v>0.02410035111969838</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07042517401830314</v>
+        <v>0.1430440471987308</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06033663547903009</v>
+        <v>0.02816992370984124</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06808124737938273</v>
+        <v>0.1444271925525944</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09193341153695017</v>
+        <v>0.05068839117227533</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06767178102258269</v>
+        <v>0.1448412887824939</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03647327793100458</v>
+        <v>0.07441959482705462</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07042517401830314</v>
+        <v>0.1444271925525944</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03621357484546071</v>
+        <v>0.02412595277291023</v>
       </c>
       <c r="G151" t="n">
-        <v>0.071253705477342</v>
+        <v>0.1447269183422453</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06021396281598071</v>
+        <v>0.02808828980160201</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06888220323090488</v>
+        <v>0.1461263359943897</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09205061611277021</v>
+        <v>0.05131507700099239</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06846791962284837</v>
+        <v>0.1465453039446409</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03621357484546071</v>
+        <v>0.07366800789426398</v>
       </c>
       <c r="O151" t="n">
-        <v>0.071253705477342</v>
+        <v>0.1461263359943897</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0363506934537378</v>
+        <v>0.02116022007391403</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07208223693638087</v>
+        <v>0.1464097894857598</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05970701611064566</v>
+        <v>0.02801770170141528</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06968315908242703</v>
+        <v>0.1478254794361849</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09176534513963264</v>
+        <v>0.05106232940693217</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06926405822311404</v>
+        <v>0.1482493191067879</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0363506934537378</v>
+        <v>0.07414553774116678</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07208223693638087</v>
+        <v>0.1478254794361849</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03608473031730312</v>
+        <v>0.02320263613738067</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07291076839541973</v>
+        <v>0.1480926606292742</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05891413808795257</v>
+        <v>0.02835753488464303</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07048411493394918</v>
+        <v>0.1495246228779801</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0904786210948243</v>
+        <v>0.05152900320942291</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07006019682337972</v>
+        <v>0.1499533342689349</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03608473031730312</v>
+        <v>0.07475053811913995</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07291076839541973</v>
+        <v>0.1495246228779801</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03601578199762404</v>
+        <v>0.0242526840779811</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07373929985445858</v>
+        <v>0.1497755317727887</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05882633911669294</v>
+        <v>0.02810716482664735</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07128507078547133</v>
+        <v>0.1512237663197753</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09029146645563196</v>
+        <v>0.05111395322779261</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0708563354236454</v>
+        <v>0.1516573494310819</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03601578199762404</v>
+        <v>0.07428136277956038</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07373929985445858</v>
+        <v>0.1512237663197753</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03584394505616781</v>
+        <v>0.02430984701038625</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07456783131349745</v>
+        <v>0.1514584029163032</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05874256608377909</v>
+        <v>0.02816596700279024</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07208602663699348</v>
+        <v>0.1529229097615706</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08920490369934259</v>
+        <v>0.05161603428136938</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07165247402391109</v>
+        <v>0.1533613645932289</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03584394505616781</v>
+        <v>0.07413636547380503</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07456783131349745</v>
+        <v>0.1529229097615706</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03546931605440176</v>
+        <v>0.02437360804926703</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07539636277253631</v>
+        <v>0.1531412740598176</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05786230426238667</v>
+        <v>0.02823331688843374</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07288698248851562</v>
+        <v>0.1546220532033658</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0888199553032431</v>
+        <v>0.05143410118948125</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07244861262417676</v>
+        <v>0.1550653797553758</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03546931605440176</v>
+        <v>0.07451389995325097</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07539636277253631</v>
+        <v>0.1546220532033658</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0353919915537932</v>
+        <v>0.02444345030929438</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07622489423157516</v>
+        <v>0.1548241452033322</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05738503892569125</v>
+        <v>0.02850858995893987</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07368793834003777</v>
+        <v>0.156321196645161</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08833764374462028</v>
+        <v>0.05176700877145637</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07324475122444243</v>
+        <v>0.1567693949175228</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0353919915537932</v>
+        <v>0.07501231996927499</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07622489423157516</v>
+        <v>0.156321196645161</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03521206811580947</v>
+        <v>0.02451885690513924</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07705342569061402</v>
+        <v>0.1565070163468466</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05701025534686852</v>
+        <v>0.02839116168967069</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07448889419155993</v>
+        <v>0.1580203400869563</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08795899150076103</v>
+        <v>0.05161361184662283</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07404088982470812</v>
+        <v>0.1584734100796698</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03521206811580947</v>
+        <v>0.07482997927325413</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07705342569061402</v>
+        <v>0.1580203400869563</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03492964230191783</v>
+        <v>0.02459931095147253</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07788195714965289</v>
+        <v>0.1581898874903611</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05723743879909413</v>
+        <v>0.0285804075559882</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07528985004308208</v>
+        <v>0.1597194835287515</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08668502104895226</v>
+        <v>0.05197276523430866</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07483702842497379</v>
+        <v>0.1601774252418168</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03492964230191783</v>
+        <v>0.07516523161656546</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07788195714965289</v>
+        <v>0.1597194835287515</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03484481067358565</v>
+        <v>0.02169443183523097</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07871048860869174</v>
+        <v>0.1598727586338756</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0563660745555436</v>
+        <v>0.02877570303325444</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07609080589460424</v>
+        <v>0.1614186269705467</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08671675486648073</v>
+        <v>0.05234332375384199</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07563316702523948</v>
+        <v>0.1618814404039638</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03484481067358565</v>
+        <v>0.07521643075058571</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07871048860869174</v>
+        <v>0.1614186269705467</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03475766979228019</v>
+        <v>0.02486359214178411</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07953902006773061</v>
+        <v>0.16155562977739</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05639564788939261</v>
+        <v>0.02898852042430905</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07689176174612639</v>
+        <v>0.1631177704123419</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0859552154306335</v>
+        <v>0.05192748504808242</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07642930562550515</v>
+        <v>0.1635854555661108</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03475766979228019</v>
+        <v>0.07621381769641283</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07953902006773061</v>
+        <v>0.1631177704123419</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03456831621946876</v>
+        <v>0.02410356838276406</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08036755152676947</v>
+        <v>0.1632385009209046</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05612564407381679</v>
+        <v>0.02888982434448252</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07769271759764854</v>
+        <v>0.1648169138541372</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08510142521869724</v>
+        <v>0.05234269225064925</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07722544422577082</v>
+        <v>0.1652894707282578</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03456831621946876</v>
+        <v>0.07674445537065611</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08036755152676947</v>
+        <v>0.1648169138541372</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03427684651661871</v>
+        <v>0.02239875703763337</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08119608298580833</v>
+        <v>0.164921372064419</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05515554838199174</v>
+        <v>0.029475615647354</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07849367344917069</v>
+        <v>0.1665160572959324</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08485640670795902</v>
+        <v>0.05332246085525549</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07802158282603651</v>
+        <v>0.1669934858904047</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03427684651661871</v>
+        <v>0.0773978020126091</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08119608298580833</v>
+        <v>0.1665160572959324</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0339833572451973</v>
+        <v>0.02573355458585466</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0820246144448472</v>
+        <v>0.1666042432079335</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05538484608709315</v>
+        <v>0.02952704144144719</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07929462930069282</v>
+        <v>0.1682152007377276</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08442118237570551</v>
+        <v>0.05343222062140829</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0788177214263022</v>
+        <v>0.1686975010525517</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0339833572451973</v>
+        <v>0.07782416134970499</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0820246144448472</v>
+        <v>0.1682152007377276</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03368794496667188</v>
+        <v>0.02609235750689048</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08285314590388605</v>
+        <v>0.168287114351448</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05491302246229657</v>
+        <v>0.03022524883528571</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08009558515221497</v>
+        <v>0.1699143441795228</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08339460330214732</v>
+        <v>0.05403740130861451</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07961386002656787</v>
+        <v>0.1704015162146987</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03368794496667188</v>
+        <v>0.07877383710937658</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08285314590388605</v>
+        <v>0.1699143441795228</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03369070624250975</v>
+        <v>0.02345956228020337</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08368167736292491</v>
+        <v>0.1699699854949625</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05423956278077766</v>
+        <v>0.0305513849373933</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08089654100373712</v>
+        <v>0.1716134876213181</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08325885290519314</v>
+        <v>0.05550343267638125</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08040999862683354</v>
+        <v>0.1721055313768457</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03369070624250975</v>
+        <v>0.07989713301905682</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08368167736292491</v>
+        <v>0.1716134876213181</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03329173763417823</v>
+        <v>0.02581956538525596</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08451020882196376</v>
+        <v>0.1716528566384769</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05426395231571207</v>
+        <v>0.03108659685629359</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08169749685525927</v>
+        <v>0.1733126310631133</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08231026981368478</v>
+        <v>0.05599574448421557</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08120613722709923</v>
+        <v>0.1738095465389927</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03329173763417823</v>
+        <v>0.08154435280617867</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08451020882196376</v>
+        <v>0.1733126310631133</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03308193935117915</v>
+        <v>0.0271567633015108</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08533874028100263</v>
+        <v>0.1733357277819914</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05348567634027537</v>
+        <v>0.03141203170051028</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08249845270678142</v>
+        <v>0.1750117745049085</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08264947416661483</v>
+        <v>0.05677976649162439</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0820022758273649</v>
+        <v>0.1755135617011397</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03308193935117915</v>
+        <v>0.08206580019817505</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08533874028100263</v>
+        <v>0.1750117745049085</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03282840489984387</v>
+        <v>0.02745555250843042</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0861672717400415</v>
+        <v>0.1750185989255059</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0534042201276432</v>
+        <v>0.03170883657856705</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08329940855830358</v>
+        <v>0.1767109179467038</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08127708610297596</v>
+        <v>0.05762092845811476</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08279841442763058</v>
+        <v>0.1772175768632867</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03282840489984387</v>
+        <v>0.08401177892247896</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0861672717400415</v>
+        <v>0.1767109179467038</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03273210179769297</v>
+        <v>0.02671583081627799</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08699580319908035</v>
+        <v>0.1767014700690204</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05271906895099121</v>
+        <v>0.03215815859898755</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08410036440982573</v>
+        <v>0.178410061388499</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08069372576176093</v>
+        <v>0.05778466014319378</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08359455302789627</v>
+        <v>0.1789215920254337</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03273210179769297</v>
+        <v>0.08463259270652335</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08699580319908035</v>
+        <v>0.178410061388499</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03239749059431883</v>
+        <v>0.02696788713658742</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08782433465811922</v>
+        <v>0.1783843412125349</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05262970808349499</v>
+        <v>0.03226477561172668</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08490132026134788</v>
+        <v>0.1801092048302942</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08010001328196231</v>
+        <v>0.05885597914706509</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08439069162816193</v>
+        <v>0.1806256071875806</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03239749059431883</v>
+        <v>0.0858408359756217</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08782433465811922</v>
+        <v>0.1801092048302942</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03182903183931388</v>
+        <v>0.0282137403148491</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08865286611715807</v>
+        <v>0.1800672123560493</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05233562279833023</v>
+        <v>0.03256271297241937</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08570227611287003</v>
+        <v>0.1818083482720894</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07979656880257308</v>
+        <v>0.05890292362855168</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08518683022842762</v>
+        <v>0.1823296223497276</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03182903183931388</v>
+        <v>0.08642619965861359</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08865286611715807</v>
+        <v>0.1818083482720894</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03163118608227042</v>
+        <v>0.02545388534169763</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08948139757619694</v>
+        <v>0.1817500834995638</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05163629836867248</v>
+        <v>0.03295329259404196</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08650323196439218</v>
+        <v>0.1835074917138847</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07898401246258563</v>
+        <v>0.05983612646408859</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0859829688286933</v>
+        <v>0.1840336375118746</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03163118608227042</v>
+        <v>0.08679216832165515</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08948139757619694</v>
+        <v>0.1835074917138847</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03120841387278091</v>
+        <v>0.02568881720776772</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09030992903523578</v>
+        <v>0.1834329546430783</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0509312200676974</v>
+        <v>0.03333711254705524</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08730418781591433</v>
+        <v>0.1852066351556799</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07896296440099293</v>
+        <v>0.06055668432575326</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08677910742895897</v>
+        <v>0.1857376526740216</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03120841387278091</v>
+        <v>0.08734031848008728</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09030992903523578</v>
+        <v>0.1852066351556799</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03056517576043774</v>
+        <v>0.02891903090369403</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09113846049427465</v>
+        <v>0.1851158257865928</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05121987316858068</v>
+        <v>0.03361477090191993</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08810514366743648</v>
+        <v>0.1869057785974751</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07823404475678736</v>
+        <v>0.06046569388562301</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08757524602922466</v>
+        <v>0.1874416678361686</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03056517576043774</v>
+        <v>0.08847222664925086</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09113846049427465</v>
+        <v>0.1869057785974751</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03010593229483326</v>
+        <v>0.02814502142011122</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09196699195331352</v>
+        <v>0.1867986969301073</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05020174294449781</v>
+        <v>0.0339868657290968</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08890609951895863</v>
+        <v>0.1886049220392704</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07749787366896194</v>
+        <v>0.06136425181577529</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08837138462949033</v>
+        <v>0.1891456829983156</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03010593229483326</v>
+        <v>0.08938946934448677</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09196699195331352</v>
+        <v>0.1886049220392704</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02993514402555987</v>
+        <v>0.02636728374765395</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09279552341235238</v>
+        <v>0.1884815680736217</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05027631466862448</v>
+        <v>0.03395399509904662</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08970705537048078</v>
+        <v>0.1903040654810656</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07705507127650918</v>
+        <v>0.06145345478828737</v>
       </c>
       <c r="M177" t="n">
-        <v>0.089167523229756</v>
+        <v>0.1908496981604626</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02993514402555987</v>
+        <v>0.08989362308113563</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09279552341235238</v>
+        <v>0.1903040654810656</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02945727150220996</v>
+        <v>0.02658631287695689</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09362405487139125</v>
+        <v>0.1901644392171362</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04974307361413632</v>
+        <v>0.0343167570822301</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09050801122200293</v>
+        <v>0.1920032089228608</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07580625771842175</v>
+        <v>0.06243439947523671</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08996366183002169</v>
+        <v>0.1925537133226095</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02945727150220996</v>
+        <v>0.09008626437453865</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09362405487139125</v>
+        <v>0.1920032089228608</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02877677527437596</v>
+        <v>0.02880260379865474</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09445258633043009</v>
+        <v>0.1918473103606507</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04930150505420894</v>
+        <v>0.03477574974910805</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09130896707352508</v>
+        <v>0.193702352364656</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07535205313369253</v>
+        <v>0.06310818254870074</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09075980043028738</v>
+        <v>0.1942577284847565</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02877677527437596</v>
+        <v>0.09096896974003649</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09445258633043009</v>
+        <v>0.193702352364656</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02819811589165021</v>
+        <v>0.02801665150338212</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09528111778946896</v>
+        <v>0.1935301815041652</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04885109426201803</v>
+        <v>0.03473157117014117</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09210992292504723</v>
+        <v>0.1954014958064513</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07439307766131398</v>
+        <v>0.0632759006807567</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09155593903055305</v>
+        <v>0.1959617436469035</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02819811589165021</v>
+        <v>0.09144331569296987</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09528111778946896</v>
+        <v>0.1954014958064513</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02782575390362509</v>
+        <v>0.02823494829410157</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09610964924850782</v>
+        <v>0.1952130526476797</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0481913265107391</v>
+        <v>0.03508481941579024</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09291087877656938</v>
+        <v>0.1971006392482465</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07362995144027912</v>
+        <v>0.06353865054348209</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09235207763081872</v>
+        <v>0.1976657588090505</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02782575390362509</v>
+        <v>0.09231087874867999</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09610964924850782</v>
+        <v>0.1971006392482465</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02726414985989305</v>
+        <v>0.02846589459018872</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09693818070754669</v>
+        <v>0.1968959237911941</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0480216870735479</v>
+        <v>0.03524693343827538</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09371183462809152</v>
+        <v>0.1987997826900418</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07396329460958029</v>
+        <v>0.06430942392779557</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09314821623108441</v>
+        <v>0.1993697739711975</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02726414985989305</v>
+        <v>0.0937018120159418</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09693818070754669</v>
+        <v>0.1987997826900418</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02711776431004642</v>
+        <v>0.02870146703228011</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09776671216658554</v>
+        <v>0.1985787949347086</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04714166122361999</v>
+        <v>0.03552264994657252</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09451279047961367</v>
+        <v>0.200498926131837</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07289372730821037</v>
+        <v>0.0649079909251313</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09394435483135008</v>
+        <v>0.2010737891333445</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02711776431004642</v>
+        <v>0.09342860147233784</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09776671216658554</v>
+        <v>0.200498926131837</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02639105780367761</v>
+        <v>0.02993316255430115</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0985952436256244</v>
+        <v>0.2002616660782231</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04705073423413098</v>
+        <v>0.03590169661012782</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09531374633113582</v>
+        <v>0.2021980695736322</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07182186967516213</v>
+        <v>0.0655170095548237</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09474049343161577</v>
+        <v>0.2027778042954915</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02639105780367761</v>
+        <v>0.09426416922693853</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0985952436256244</v>
+        <v>0.2021980695736322</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02598849089037902</v>
+        <v>0.02915247809017723</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09942377508466327</v>
+        <v>0.2019445372217376</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04614839137825649</v>
+        <v>0.03637379963325935</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09611470218265797</v>
+        <v>0.2038972130154274</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0715483418494281</v>
+        <v>0.06541764092481492</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09553663203188145</v>
+        <v>0.2044818194576385</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02598849089037902</v>
+        <v>0.09498143352673288</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09942377508466327</v>
+        <v>0.2038972130154274</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02591452411974303</v>
+        <v>0.02835091057383373</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1002523065437021</v>
+        <v>0.2036274083652521</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04553411792917217</v>
+        <v>0.03632868522028514</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09691565803418013</v>
+        <v>0.2055963564572227</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0709737639700011</v>
+        <v>0.06609104614304706</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09633277063214711</v>
+        <v>0.2061858346197855</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02591452411974303</v>
+        <v>0.0959533126187096</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1002523065437021</v>
+        <v>0.2055963564572227</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02527361804136201</v>
+        <v>0.02851995693919605</v>
       </c>
       <c r="G187" t="n">
-        <v>0.101080838002741</v>
+        <v>0.2053102795087665</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04560739916005366</v>
+        <v>0.03665607957552323</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09771661388570228</v>
+        <v>0.2072954998990179</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07039875617587388</v>
+        <v>0.06641838631746236</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0971289092324128</v>
+        <v>0.2078898497819325</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02527361804136201</v>
+        <v>0.09625272474985741</v>
       </c>
       <c r="O187" t="n">
-        <v>0.101080838002741</v>
+        <v>0.2072954998990179</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02526734879266344</v>
+        <v>0.02965111412018955</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1019093694617798</v>
+        <v>0.206993150652281</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04436772034407654</v>
+        <v>0.03684570890329171</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09851756973722443</v>
+        <v>0.2089946433408131</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06962343348002659</v>
+        <v>0.06658082255600292</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09792504783267848</v>
+        <v>0.2095938649440794</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02526734879266344</v>
+        <v>0.09735258816716519</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1019093694617798</v>
+        <v>0.2089946433408131</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02476704825226958</v>
+        <v>0.02874281442204089</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1027379009208187</v>
+        <v>0.2086760217957955</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04421456675441651</v>
+        <v>0.03708729940790861</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09931852558874658</v>
+        <v>0.2106937867826083</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06824340281102081</v>
+        <v>0.0674595159666109</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09872118643294416</v>
+        <v>0.2112978801062264</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02476704825226958</v>
+        <v>0.09762582111762186</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1027379009208187</v>
+        <v>0.2106937867826083</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02446473619533893</v>
+        <v>0.03182733098410171</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1035664323798576</v>
+        <v>0.21035889293931</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04394742366424914</v>
+        <v>0.03719020113595645</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1001194814402687</v>
+        <v>0.2123929302244036</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06835765291273349</v>
+        <v>0.06755471612921823</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09951732503320984</v>
+        <v>0.2130018952683734</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02446473619533893</v>
+        <v>0.09759707034913145</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1035664323798576</v>
+        <v>0.2123929302244036</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0242610172592049</v>
+        <v>0.03090992295482457</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1043949638388964</v>
+        <v>0.2120417640828244</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04306577634675005</v>
+        <v>0.03738971527375506</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1009204372917909</v>
+        <v>0.2140920736661988</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0668663690476779</v>
+        <v>0.06793703200017764</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1003134636334755</v>
+        <v>0.2147059104305204</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0242610172592049</v>
+        <v>0.09805938988364565</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1043949638388964</v>
+        <v>0.2140920736661988</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0237564960812009</v>
+        <v>0.02899055904177569</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1052234952979353</v>
+        <v>0.2137246352263389</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0425691100750949</v>
+        <v>0.03738691528687897</v>
       </c>
       <c r="K192" t="n">
-        <v>0.101721393143313</v>
+        <v>0.215791217107994</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06626973647836731</v>
+        <v>0.0680151310994245</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1011096022337412</v>
+        <v>0.2164099255926674</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0237564960812009</v>
+        <v>0.09791560937930194</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1052234952979353</v>
+        <v>0.215791217107994</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02365177729866037</v>
+        <v>0.03006920795252133</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1060520267569741</v>
+        <v>0.2154075063698534</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04194744905670897</v>
+        <v>0.03728176336636986</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1025223489948352</v>
+        <v>0.2174903605497892</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06616794046731522</v>
+        <v>0.06788894409728677</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1019057408340069</v>
+        <v>0.2181139407548144</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02365177729866037</v>
+        <v>0.09876562917158471</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1060520267569741</v>
+        <v>0.2174903605497892</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02324746554891673</v>
+        <v>0.03014583839462771</v>
       </c>
       <c r="G194" t="n">
-        <v>0.106880558216013</v>
+        <v>0.2170903775133679</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04142989737571195</v>
+        <v>0.03767422170326938</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1033233048463573</v>
+        <v>0.2191895039915845</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06526116627703482</v>
+        <v>0.06845840166409251</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1027018794342726</v>
+        <v>0.2198179559169614</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02324746554891673</v>
+        <v>0.09880934959597837</v>
       </c>
       <c r="O194" t="n">
-        <v>0.106880558216013</v>
+        <v>0.2191895039915845</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02314416546930338</v>
+        <v>0.03122041907566107</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1077090896750519</v>
+        <v>0.2187732486568824</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03991185783461226</v>
+        <v>0.03746425248861922</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1041242606978795</v>
+        <v>0.2208886474333797</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06444959917003945</v>
+        <v>0.06822343447016965</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1034980180345382</v>
+        <v>0.2215219710791083</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02314416546930338</v>
+        <v>0.09894667098796694</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1077090896750519</v>
+        <v>0.2208886474333797</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0225424816971538</v>
+        <v>0.02929291870318764</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1085376211340907</v>
+        <v>0.2204561198003968</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03910541553223751</v>
+        <v>0.03775181791346105</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1049252165494016</v>
+        <v>0.2225877908751749</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06403342440884241</v>
+        <v>0.06868397318584629</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1042941566348039</v>
+        <v>0.2232259862412553</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0225424816971538</v>
+        <v>0.098877493683035</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1085376211340907</v>
+        <v>0.2225877908751749</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02234301886980133</v>
+        <v>0.02936330598477368</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1093661525931296</v>
+        <v>0.2221389909439113</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03832265556741515</v>
+        <v>0.03773688016883654</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1057261724009238</v>
+        <v>0.2242869343169701</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06281282725595716</v>
+        <v>0.06873994848145032</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1050902952350696</v>
+        <v>0.2249300014034023</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02234301886980133</v>
+        <v>0.09960171801666656</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1093661525931296</v>
+        <v>0.2242869343169701</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0219463816245795</v>
+        <v>0.0304315496279854</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1101946840521685</v>
+        <v>0.2238218620874258</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03767566303897299</v>
+        <v>0.03801940144578736</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1065271282524459</v>
+        <v>0.2259860777587654</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06198799297389684</v>
+        <v>0.06879129102730983</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1058864338353352</v>
+        <v>0.2266340165655493</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0219463816245795</v>
+        <v>0.09951924432434628</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1101946840521685</v>
+        <v>0.2259860777587654</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02185317459882165</v>
+        <v>0.03049761834038905</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1110232155112073</v>
+        <v>0.2255047332309403</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03617652304573837</v>
+        <v>0.03799934393535517</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1073280841039681</v>
+        <v>0.2276852212005606</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06175910682517494</v>
+        <v>0.06923793149375276</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1066825724356009</v>
+        <v>0.2283380317276963</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02185317459882165</v>
+        <v>0.1002299729415581</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1110232155112073</v>
+        <v>0.2276852212005606</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02166400242986125</v>
+        <v>0.03156148082955084</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1118517469702462</v>
+        <v>0.2271876043744548</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03543732068653907</v>
+        <v>0.03817666982858164</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1081290399554902</v>
+        <v>0.2293843646423558</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06092635407230473</v>
+        <v>0.06907980055110718</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1074787110358666</v>
+        <v>0.2300420468898433</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02166400242986125</v>
+        <v>0.09973380420378652</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1118517469702462</v>
+        <v>0.2293843646423558</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02107946975503169</v>
+        <v>0.03162310580303705</v>
       </c>
       <c r="G201" t="n">
-        <v>0.112680278429285</v>
+        <v>0.2288704755179692</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03357014106020256</v>
+        <v>0.03795134131650847</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1089299958070124</v>
+        <v>0.231083508084151</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06018991997779949</v>
+        <v>0.06881682886970106</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1082748496361323</v>
+        <v>0.2317460620519902</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02107946975503169</v>
+        <v>0.09983063844651574</v>
       </c>
       <c r="O201" t="n">
-        <v>0.112680278429285</v>
+        <v>0.231083508084151</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0209001812116664</v>
+        <v>0.02968246196841386</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1135088098883239</v>
+        <v>0.2305533466614837</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03248706926555647</v>
+        <v>0.03802332059017731</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1097309516585345</v>
+        <v>0.2327826515259463</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05904998980417253</v>
+        <v>0.06944894711986241</v>
       </c>
       <c r="M202" t="n">
-        <v>0.109070988236398</v>
+        <v>0.2334500772141373</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0209001812116664</v>
+        <v>0.1008203760052302</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1135088098883239</v>
+        <v>0.2327826515259463</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02062674143709882</v>
+        <v>0.02973951803324756</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1143373413473628</v>
+        <v>0.2322362178049982</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03160019040142839</v>
+        <v>0.03809256984062985</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1105319075100567</v>
+        <v>0.2344817949677415</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05850674881393719</v>
+        <v>0.06937608597191924</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1098671268366637</v>
+        <v>0.2351540923762842</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02062674143709882</v>
+        <v>0.101002917215414</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1143373413473628</v>
+        <v>0.2344817949677415</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02045975506866238</v>
+        <v>0.03179424270510437</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1151658728064016</v>
+        <v>0.2339190889485127</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03002158956664588</v>
+        <v>0.03845905125890771</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1113328633615788</v>
+        <v>0.2361809384095367</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05756038226960691</v>
+        <v>0.06959817609619956</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1106632654369293</v>
+        <v>0.2368581075384312</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02045975506866238</v>
+        <v>0.1007781624125515</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1151658728064016</v>
+        <v>0.2361809384095367</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02019982674369047</v>
+        <v>0.0298466046915505</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1159944042654405</v>
+        <v>0.2356019600920272</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02936335186003652</v>
+        <v>0.0385227270360526</v>
       </c>
       <c r="K205" t="n">
-        <v>0.112133819213101</v>
+        <v>0.237880081851332</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05721107543369486</v>
+        <v>0.06991514816303132</v>
       </c>
       <c r="M205" t="n">
-        <v>0.111459404037195</v>
+        <v>0.2385621227005782</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02019982674369047</v>
+        <v>0.1014460119321271</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1159944042654405</v>
+        <v>0.237880081851332</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01974756109951656</v>
+        <v>0.03089657270015223</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1168229357244793</v>
+        <v>0.2372848312355416</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02833756238042792</v>
+        <v>0.0385835593631062</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1129347750646231</v>
+        <v>0.2395792252931272</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0561590135687145</v>
+        <v>0.06942693284274259</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1122555426374607</v>
+        <v>0.2402661378627252</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01974756109951656</v>
+        <v>0.100806366109625</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1168229357244793</v>
+        <v>0.2395792252931272</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01980356277347406</v>
+        <v>0.02994411543847574</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1176514671835182</v>
+        <v>0.2389677023790562</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02735630622664764</v>
+        <v>0.03854151043111015</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1137357309161453</v>
+        <v>0.2412783687349224</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0560043819371791</v>
+        <v>0.06973346080566137</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1130516812377264</v>
+        <v>0.2419701530248722</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01980356277347406</v>
+        <v>0.1016591252805296</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1176514671835182</v>
+        <v>0.2412783687349224</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01936843640289634</v>
+        <v>0.03098920161408731</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1184799986425571</v>
+        <v>0.2406505735225706</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02583166849752325</v>
+        <v>0.03839654243110614</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1145366867676674</v>
+        <v>0.2429775121767176</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05504736580160191</v>
+        <v>0.0699346627221156</v>
       </c>
       <c r="M208" t="n">
-        <v>0.113847819837992</v>
+        <v>0.2436741681870192</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01936843640289634</v>
+        <v>0.101104189780325</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1184799986425571</v>
+        <v>0.2429775121767176</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01904278662511691</v>
+        <v>0.03203179993455316</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1193085301015959</v>
+        <v>0.2423334446660851</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0250757342918824</v>
+        <v>0.03874861755413585</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1153376426191896</v>
+        <v>0.2446766556185129</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05388815042449629</v>
+        <v>0.07033046926243339</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1146439584382577</v>
+        <v>0.2453781833491661</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01904278662511691</v>
+        <v>0.1013414599444957</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1193085301015959</v>
+        <v>0.2446766556185129</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01882721807746914</v>
+        <v>0.03307187910743955</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1201370615606348</v>
+        <v>0.2440163158095996</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02440058870855266</v>
+        <v>0.03879769799124093</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1161385984707117</v>
+        <v>0.2463757990603082</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05362692106837569</v>
+        <v>0.0701208110969426</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1154400970385234</v>
+        <v>0.2470821985113132</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01882721807746914</v>
+        <v>0.1012708361085259</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1201370615606348</v>
+        <v>0.2463757990603082</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01862233539728646</v>
+        <v>0.03310940784031267</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1209655930196736</v>
+        <v>0.2456991869531141</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02301831684636152</v>
+        <v>0.03884374593346307</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1169395543222339</v>
+        <v>0.2480749425021034</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05266386299575332</v>
+        <v>0.07040561889597141</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1162362356387891</v>
+        <v>0.2487862136734601</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01862233539728646</v>
+        <v>0.1021922186078999</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1209655930196736</v>
+        <v>0.2480749425021034</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01872874322190229</v>
+        <v>0.03214435484073879</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1217941244787125</v>
+        <v>0.2473820580966286</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02254100380413665</v>
+        <v>0.03878672357184393</v>
       </c>
       <c r="K212" t="n">
-        <v>0.117740510173756</v>
+        <v>0.2497740859438986</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05149916146914246</v>
+        <v>0.07048482332984765</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1170323742390548</v>
+        <v>0.2504902288356071</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01872874322190229</v>
+        <v>0.101505507778102</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1217941244787125</v>
+        <v>0.2497740859438986</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01834704618865007</v>
+        <v>0.03317668881628413</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1226226559377514</v>
+        <v>0.249064929240143</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02248073468070561</v>
+        <v>0.03862659309742517</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1185414660252782</v>
+        <v>0.2514732293856938</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05103300175105663</v>
+        <v>0.07055835506889943</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1178285128393204</v>
+        <v>0.2521942439977541</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01834704618865007</v>
+        <v>0.1018106039546165</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1226226559377514</v>
+        <v>0.2514732293856938</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01827784893486324</v>
+        <v>0.03320637847451493</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1234511873967902</v>
+        <v>0.2507478003836575</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02194959457489601</v>
+        <v>0.03876331670124847</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1193424218768003</v>
+        <v>0.2531723728274891</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0504655691040089</v>
+        <v>0.07042614478345477</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1186246514395861</v>
+        <v>0.2538982591599011</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01827784893486324</v>
+        <v>0.1026074074729278</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1234511873967902</v>
+        <v>0.2531723728274891</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01812175609787518</v>
+        <v>0.03123339252299743</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1242797188558291</v>
+        <v>0.252430671527172</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02175327527420304</v>
+        <v>0.03869685657435552</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1201433777283225</v>
+        <v>0.2548715162692843</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04919704879051279</v>
+        <v>0.07068812314384162</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1194207900398518</v>
+        <v>0.2556022743220481</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01812175609787518</v>
+        <v>0.1019958186685199</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1242797188558291</v>
+        <v>0.2548715162692843</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01787937231501933</v>
+        <v>0.03325769966929786</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1251082503148679</v>
+        <v>0.2541135426706865</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02119692608550872</v>
+        <v>0.03872717490778797</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1209443335798446</v>
+        <v>0.2565706597110795</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0488276260730815</v>
+        <v>0.07044422082038798</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1202169286401175</v>
+        <v>0.2573062894841951</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01787937231501933</v>
+        <v>0.1023757378768775</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1251082503148679</v>
+        <v>0.2565706597110795</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01775130222362913</v>
+        <v>0.03227926862098247</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1259367817739068</v>
+        <v>0.2557964138142009</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0206453050309601</v>
+        <v>0.03895423389258748</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1217452894313668</v>
+        <v>0.2582698031528747</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04765748621422844</v>
+        <v>0.0705943684834219</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1210130672403832</v>
+        <v>0.2590103046463421</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01775130222362913</v>
+        <v>0.1029470654334846</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1259367817739068</v>
+        <v>0.2582698031528747</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01783815046103801</v>
+        <v>0.03329806808561748</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1267653132329457</v>
+        <v>0.2574792849577154</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02039843558155918</v>
+        <v>0.03907799571979576</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1225462452828889</v>
+        <v>0.25996894659467</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04718679174752211</v>
+        <v>0.07063849680327133</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1218092058406488</v>
+        <v>0.260714319808489</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01783815046103801</v>
+        <v>0.1026097016738255</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1267653132329457</v>
+        <v>0.25996894659467</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01744052166457938</v>
+        <v>0.03131406677076912</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1275938446919845</v>
+        <v>0.2591621561012299</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0201563412083082</v>
+        <v>0.03889842258045444</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1233472011344111</v>
+        <v>0.2616680900364652</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04701480704590144</v>
+        <v>0.07057653645026432</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1226053444409145</v>
+        <v>0.262418334970636</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01744052166457938</v>
+        <v>0.1028635469333847</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1275938446919845</v>
+        <v>0.2616680900364652</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01745902047158664</v>
+        <v>0.03232723338400365</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1284223761510234</v>
+        <v>0.2608450272447444</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02021904538220917</v>
+        <v>0.03901547666560523</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1241481569859332</v>
+        <v>0.2633672334782604</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04554109532454936</v>
+        <v>0.07090841809472886</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1234014830411802</v>
+        <v>0.264122350132783</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01745902047158664</v>
+        <v>0.1029085015476464</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1284223761510234</v>
+        <v>0.2633672334782604</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01749425151939324</v>
+        <v>0.03133753663288728</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1292509076100622</v>
+        <v>0.2625278983882589</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01988657157426438</v>
+        <v>0.03892912016628977</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1249491128374554</v>
+        <v>0.2650663769200556</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0454656468158316</v>
+        <v>0.07073407240699292</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1241976216414459</v>
+        <v>0.26582636529493</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01749425151939324</v>
+        <v>0.1026444658520947</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1292509076100622</v>
+        <v>0.2650663769200556</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0174467891352459</v>
+        <v>0.03234494522498627</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1300794390691011</v>
+        <v>0.2642107695317733</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0199589432554759</v>
+        <v>0.03883931527354975</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1257500686889775</v>
+        <v>0.2667655203618509</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04428845175211399</v>
+        <v>0.07075343005738452</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1249937602417115</v>
+        <v>0.267530380457077</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0174467891352459</v>
+        <v>0.1030713401822143</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1300794390691011</v>
+        <v>0.2667655203618509</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0175075929758199</v>
+        <v>0.03234942786786684</v>
       </c>
       <c r="G223" t="n">
-        <v>0.13090797052814</v>
+        <v>0.2658936406752878</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01983618389684583</v>
+        <v>0.03904602417842681</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1265510245404997</v>
+        <v>0.2684646638036461</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0433095003657622</v>
+        <v>0.07056642171623179</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1257898988419772</v>
+        <v>0.269234395619224</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0175075929758199</v>
+        <v>0.1025890248734891</v>
       </c>
       <c r="O223" t="n">
-        <v>0.13090797052814</v>
+        <v>0.2684646638036461</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01736917406899963</v>
+        <v>0.03035095326909524</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1317365019871788</v>
+        <v>0.2675765118188023</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01901831696937639</v>
+        <v>0.03884920907196265</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1273519803920218</v>
+        <v>0.2701638072454413</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04262878288914185</v>
+        <v>0.07107297805386253</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1265860374422429</v>
+        <v>0.270938410781371</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01736917406899963</v>
+        <v>0.1027974202614036</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1317365019871788</v>
+        <v>0.2701638072454413</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01713154067362242</v>
+        <v>0.03030637241670558</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1325650334462177</v>
+        <v>0.2692593829623167</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01890536594406972</v>
+        <v>0.03892921624402843</v>
       </c>
       <c r="K225" t="n">
-        <v>0.128152936243544</v>
+        <v>0.2718629506872365</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04154628955461886</v>
+        <v>0.07104923684136982</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1273821760425086</v>
+        <v>0.272642425943518</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01713154067362242</v>
+        <v>0.102944719113272</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1325650334462177</v>
+        <v>0.2718629506872365</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01729470104852554</v>
+        <v>0.03017685152916951</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1333935649052566</v>
+        <v>0.2709422541058312</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01889735429192788</v>
+        <v>0.03901184489899139</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1289538920950661</v>
+        <v>0.2735620941290318</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04146201059455895</v>
+        <v>0.07035553826210064</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1281783146427743</v>
+        <v>0.2743464411056649</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01729470104852554</v>
+        <v>0.102535327932516</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1333935649052566</v>
+        <v>0.2735620941290318</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01705866345254634</v>
+        <v>0.0299721390383681</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1342220963642954</v>
+        <v>0.2726251252493457</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0183943054839531</v>
+        <v>0.03860020426897752</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1297548479465883</v>
+        <v>0.275261237570827</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04037593624132763</v>
+        <v>0.06998712577066463</v>
       </c>
       <c r="M227" t="n">
-        <v>0.12897445324304</v>
+        <v>0.2760504562678119</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01705866345254634</v>
+        <v>0.102177442663371</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1342220963642954</v>
+        <v>0.275261237570827</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01712343614452209</v>
+        <v>0.03270199015344988</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1350506278233342</v>
+        <v>0.2743079963928602</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01869624299114747</v>
+        <v>0.03850608104654538</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1305558037981104</v>
+        <v>0.2769603810126223</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03968805672729081</v>
+        <v>0.06986561243351783</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1297705918433056</v>
+        <v>0.2777544714299589</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01712343614452209</v>
+        <v>0.1014021330590779</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1350506278233342</v>
+        <v>0.2769603810126223</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01708902738329017</v>
+        <v>0.02937616008356336</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1358791592823731</v>
+        <v>0.2759908675363747</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0186031902845131</v>
+        <v>0.03814126192425353</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1313567596496326</v>
+        <v>0.2786595244544174</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03889836228481425</v>
+        <v>0.06941261131711629</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1305667304435713</v>
+        <v>0.2794584865921059</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01708902738329017</v>
+        <v>0.09994046887287833</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1358791592823731</v>
+        <v>0.2786595244544174</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01715544542768783</v>
+        <v>0.03100440403785708</v>
       </c>
       <c r="G230" t="n">
-        <v>0.136707690741412</v>
+        <v>0.2776737386798891</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01831517083505221</v>
+        <v>0.03771753359466054</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1321577155011547</v>
+        <v>0.2803586678962127</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03780684314626359</v>
+        <v>0.06814973548791614</v>
       </c>
       <c r="M230" t="n">
-        <v>0.131362869043837</v>
+        <v>0.2811625017542529</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01715544542768783</v>
+        <v>0.0984235198580134</v>
       </c>
       <c r="O230" t="n">
-        <v>0.136707690741412</v>
+        <v>0.2803586678962127</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01702269853655243</v>
+        <v>0.02859647722547955</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1375362222004509</v>
+        <v>0.2793566098234037</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01773220811376683</v>
+        <v>0.03704668275032501</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1329586713526769</v>
+        <v>0.2820578113380079</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03741348954400453</v>
+        <v>0.06709859801237333</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1321590076441027</v>
+        <v>0.2828665169163999</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01702269853655243</v>
+        <v>0.0975823557677245</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1375362222004509</v>
+        <v>0.2820578113380079</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01689079496872126</v>
+        <v>0.03016213485557932</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1383647536594897</v>
+        <v>0.2810394809669181</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01795432559165927</v>
+        <v>0.03674049608380547</v>
       </c>
       <c r="K232" t="n">
-        <v>0.133759627204199</v>
+        <v>0.2837569547798032</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03641829171040278</v>
+        <v>0.066180811956944</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1329551462443683</v>
+        <v>0.2845705320785468</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01689079496872126</v>
+        <v>0.09614804635525293</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1383647536594897</v>
+        <v>0.2837569547798032</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01695974298303159</v>
+        <v>0.02871113213730487</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1391932851185285</v>
+        <v>0.2827223521104326</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01748154673973148</v>
+        <v>0.0360107602876605</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1345605830557212</v>
+        <v>0.2854560982215983</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03572123987782416</v>
+        <v>0.06561799038808416</v>
       </c>
       <c r="M233" t="n">
-        <v>0.133751284844634</v>
+        <v>0.2862745472406938</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01695974298303159</v>
+        <v>0.09505166137384008</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1391932851185285</v>
+        <v>0.2854560982215983</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01712955083832082</v>
+        <v>0.02925322427980476</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1400218165775674</v>
+        <v>0.2844052232539471</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01751389502898576</v>
+        <v>0.03546926205444867</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1353615389072433</v>
+        <v>0.2871552416633936</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03422232427863448</v>
+        <v>0.06443174637224985</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1345474234448997</v>
+        <v>0.2879785624028408</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01712955083832082</v>
+        <v>0.09312427057672712</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1400218165775674</v>
+        <v>0.2871552416633936</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01700022679342619</v>
+        <v>0.02679816649222753</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1408503480366063</v>
+        <v>0.2860880943974616</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01745139393042416</v>
+        <v>0.03512778807672855</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1361624947587655</v>
+        <v>0.2888543851051888</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03412153514519928</v>
+        <v>0.06344369297589714</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1353435620451654</v>
+        <v>0.2896825775649878</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01700022679342619</v>
+        <v>0.09179694371715547</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1408503480366063</v>
+        <v>0.2888543851051888</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01707177910718505</v>
+        <v>0.02635571398372166</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1416788794956451</v>
+        <v>0.287770965540976</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01709406691504881</v>
+        <v>0.03429812504705872</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1369634506102876</v>
+        <v>0.2905535285469841</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0326188627098844</v>
+        <v>0.06257544326548209</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1361397006454311</v>
+        <v>0.2913865927271349</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01707177910718505</v>
+        <v>0.09060075054836647</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1416788794956451</v>
+        <v>0.2905535285469841</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01674421603843471</v>
+        <v>0.02793562196343568</v>
       </c>
       <c r="G237" t="n">
-        <v>0.142507410954684</v>
+        <v>0.2894538366844905</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01674193745386193</v>
+        <v>0.0339920596579977</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1377644064618098</v>
+        <v>0.2922526719887793</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0320142972050555</v>
+        <v>0.06134861030746078</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1369358392456967</v>
+        <v>0.2930906078892818</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01674421603843471</v>
+        <v>0.0893667608236014</v>
       </c>
       <c r="O237" t="n">
-        <v>0.142507410954684</v>
+        <v>0.2922526719887793</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01691754584601245</v>
+        <v>0.02854764564051817</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1433359424137229</v>
+        <v>0.291136707828005</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01689502901786555</v>
+        <v>0.03352137860210412</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1385653623133319</v>
+        <v>0.2939518154305745</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03160782886307839</v>
+        <v>0.06108480716828921</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1377319778459624</v>
+        <v>0.2947946230514288</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01691754584601245</v>
+        <v>0.08782604429610147</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1433359424137229</v>
+        <v>0.2939518154305745</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01689177678875561</v>
+        <v>0.02718722793159347</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1441644738727617</v>
+        <v>0.2928195789715195</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01655336507806193</v>
+        <v>0.03309006902207372</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1393663181648541</v>
+        <v>0.2956509588723698</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03029944791631872</v>
+        <v>0.06029512437408702</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1385281164462281</v>
+        <v>0.2964986382135757</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01689177678875561</v>
+        <v>0.08648911108472174</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1441644738727617</v>
+        <v>0.2956509588723698</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01666691712550153</v>
+        <v>0.02482657498032446</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1449930053318006</v>
+        <v>0.294502450115034</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01651696910545311</v>
+        <v>0.03276301176806277</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1401672740163762</v>
+        <v>0.297350102314165</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02938914459714226</v>
+        <v>0.05891672214243843</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1393242550464938</v>
+        <v>0.2982026533757228</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01666691712550153</v>
+        <v>0.08566338701615012</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1449930053318006</v>
+        <v>0.297350102314165</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01684297511508745</v>
+        <v>0.02546450473830997</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1458215367908395</v>
+        <v>0.2961853212585485</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01618586457104129</v>
+        <v>0.03233426489567065</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1409682298678984</v>
+        <v>0.2990492457559602</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02957690913791472</v>
+        <v>0.05833523405600755</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1401203936467594</v>
+        <v>0.2999066685378697</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01684297511508745</v>
+        <v>0.08433320910898778</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1458215367908395</v>
+        <v>0.2990492457559602</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01681995901635074</v>
+        <v>0.02610099409509772</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1466500682498783</v>
+        <v>0.297868192402063</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01616007494582858</v>
+        <v>0.0318038004817856</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1417691857194205</v>
+        <v>0.3007483891977555</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0282627317710018</v>
+        <v>0.05785060891263841</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1409165322470251</v>
+        <v>0.3016106837000168</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01681995901635074</v>
+        <v>0.08349850375783707</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1466500682498783</v>
+        <v>0.3007483891977555</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01659787708812872</v>
+        <v>0.02373601994023552</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1474785997089172</v>
+        <v>0.2995510635455774</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01633962370081715</v>
+        <v>0.03147159060329588</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1425701415709427</v>
+        <v>0.3024475326395507</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02764660272876934</v>
+        <v>0.05696279551017513</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1417126708472908</v>
+        <v>0.3033146988621637</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01659787708812872</v>
+        <v>0.08255919735730038</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1474785997089172</v>
+        <v>0.3024475326395507</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01667673758925863</v>
+        <v>0.0263695591632711</v>
       </c>
       <c r="G244" t="n">
-        <v>0.148307131167956</v>
+        <v>0.3012339346890919</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01632453430700914</v>
+        <v>0.0307376073370897</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1433710974224648</v>
+        <v>0.3041466760813459</v>
       </c>
       <c r="L244" t="n">
-        <v>0.026428512243583</v>
+        <v>0.05587174264646175</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1425088094475565</v>
+        <v>0.3050187140243107</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01667673758925863</v>
+        <v>0.08141521630198018</v>
       </c>
       <c r="O244" t="n">
-        <v>0.148307131167956</v>
+        <v>0.3041466760813459</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01685654877857787</v>
+        <v>0.02500158865375224</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1491356626269949</v>
+        <v>0.3029168058326064</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01591483023540666</v>
+        <v>0.03050182276005529</v>
       </c>
       <c r="K245" t="n">
-        <v>0.144172053273987</v>
+        <v>0.3058458195231411</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02590845054780844</v>
+        <v>0.05527739911934237</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1433049480478222</v>
+        <v>0.3067227291864577</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01685654877857787</v>
+        <v>0.07976648698647881</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1491356626269949</v>
+        <v>0.3058458195231411</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0168373189149237</v>
+        <v>0.02263208530122676</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1499641940860338</v>
+        <v>0.3045996769761208</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01541053495701186</v>
+        <v>0.03006420894908091</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1449730091255091</v>
+        <v>0.3075449629649364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02448640787381151</v>
+        <v>0.05457971372666107</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1441010866480879</v>
+        <v>0.3084267443486047</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0168373189149237</v>
+        <v>0.07951293580539859</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1499641940860338</v>
+        <v>0.3075449629649364</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01671905625713342</v>
+        <v>0.02326102599524237</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1507927255450726</v>
+        <v>0.3062825481196353</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01551167194282688</v>
+        <v>0.0295247379810548</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1457739649770312</v>
+        <v>0.3092441064067316</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02456237445395787</v>
+        <v>0.05407863526626192</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1448972252483535</v>
+        <v>0.3101307595107516</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01671905625713342</v>
+        <v>0.07815448915334205</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1507927255450726</v>
+        <v>0.3092441064067316</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01650176906404441</v>
+        <v>0.02188838762534685</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1516212570041115</v>
+        <v>0.3079654192631498</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01531826466385386</v>
+        <v>0.02918338193286517</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1465749208285534</v>
+        <v>0.3109432498485268</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02373634052061324</v>
+        <v>0.05327411253598899</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1456933638486192</v>
+        <v>0.3118347746728987</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01650176906404441</v>
+        <v>0.07639107342491147</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1516212570041115</v>
+        <v>0.3109432498485268</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01678546559449393</v>
+        <v>0.02251414708108797</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1524497884631503</v>
+        <v>0.3096482904066643</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01573033659109499</v>
+        <v>0.02854011288140029</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1473758766800755</v>
+        <v>0.3126423932903221</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02280829630614334</v>
+        <v>0.05206609433368636</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1464895024488849</v>
+        <v>0.3135387898350456</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01678546559449393</v>
+        <v>0.07572261501470939</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1524497884631503</v>
+        <v>0.3126423932903221</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01667015410731928</v>
+        <v>0.02413828125201353</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1532783199221892</v>
+        <v>0.3113311615501788</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01554791119555229</v>
+        <v>0.02829490290354839</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1481768325315977</v>
+        <v>0.3143415367321173</v>
       </c>
       <c r="L250" t="n">
-        <v>0.021378232042914</v>
+        <v>0.05125452945719816</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1472856410491505</v>
+        <v>0.3152428049971926</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01667015410731928</v>
+        <v>0.07384904031733813</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1532783199221892</v>
+        <v>0.3143415367321173</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01655584286135781</v>
+        <v>0.02176076702767128</v>
       </c>
       <c r="G251" t="n">
-        <v>0.154106851381228</v>
+        <v>0.3130140326936932</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01537101194822801</v>
+        <v>0.02764772407619767</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1489777883831199</v>
+        <v>0.3160406801739125</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02074613796329083</v>
+        <v>0.05013936670436842</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1480817796494162</v>
+        <v>0.3169468201593396</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01655584286135781</v>
+        <v>0.07277027572739997</v>
       </c>
       <c r="O251" t="n">
-        <v>0.154106851381228</v>
+        <v>0.3160406801739125</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01654254011544684</v>
+        <v>0.02238158129760898</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1549353828402669</v>
+        <v>0.3146969038372077</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01559966232012427</v>
+        <v>0.02719854847623643</v>
       </c>
       <c r="K252" t="n">
-        <v>0.149778744234642</v>
+        <v>0.3177398236157077</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01991200429963963</v>
+        <v>0.05002055487304113</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1488779182496819</v>
+        <v>0.3186508353214866</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01654254011544684</v>
+        <v>0.07218624763949749</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1549353828402669</v>
+        <v>0.3177398236157077</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01663025412842363</v>
+        <v>0.02000070095137443</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1557639142993058</v>
+        <v>0.3163797749807222</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0154338857822432</v>
+        <v>0.02704734818055282</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1505797000861642</v>
+        <v>0.319438967057503</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0196758212843261</v>
+        <v>0.04859804276106056</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1496740568499476</v>
+        <v>0.3203548504836336</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01663025412842363</v>
+        <v>0.07109688244823303</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1557639142993058</v>
+        <v>0.319438967057503</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01641899315912554</v>
+        <v>0.02161810287851535</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1565924457583446</v>
+        <v>0.3180626461242367</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01487370580558692</v>
+        <v>0.02649409526603518</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1513806559376863</v>
+        <v>0.3211381104992982</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01793757914971594</v>
+        <v>0.04807177916627065</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1504701954502133</v>
+        <v>0.3220588656457806</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01641899315912554</v>
+        <v>0.07010210654820898</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1565924457583446</v>
+        <v>0.3211381104992982</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01640876546638986</v>
+        <v>0.02123376396857956</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1574209772173835</v>
+        <v>0.3197455172677511</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01521914586115758</v>
+        <v>0.02583876180957168</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1521816117892085</v>
+        <v>0.3228372539410934</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01739726812817488</v>
+        <v>0.04754171288651551</v>
       </c>
       <c r="M255" t="n">
-        <v>0.151266334050479</v>
+        <v>0.3237628808079275</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01640876546638986</v>
+        <v>0.06800184633402767</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1574209772173835</v>
+        <v>0.3228372539410934</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0166995793090539</v>
+        <v>0.0218476611111148</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1582495086764223</v>
+        <v>0.3214283884112656</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01517022941995733</v>
+        <v>0.02568131988805056</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1529825676407306</v>
+        <v>0.3245363973828886</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01705487845206871</v>
+        <v>0.04640779271963918</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1520624726507446</v>
+        <v>0.3254668959700746</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0166995793090539</v>
+        <v>0.06679602820029157</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1582495086764223</v>
+        <v>0.3245363973828886</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01659144294595498</v>
+        <v>0.02045977119566885</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1590780401354612</v>
+        <v>0.3231112595547801</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01462697995298834</v>
+        <v>0.02492174157836008</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1537835234922528</v>
+        <v>0.3262355408246839</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01581040035376324</v>
+        <v>0.04516996746348584</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1528586112510103</v>
+        <v>0.3271709111322215</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01659144294595498</v>
+        <v>0.06628457854160313</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1590780401354612</v>
+        <v>0.3262355408246839</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01638436463593043</v>
+        <v>0.02007007111178948</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1599065715945001</v>
+        <v>0.3247941306982946</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01498942093125272</v>
+        <v>0.02455999895738843</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1545844793437749</v>
+        <v>0.3279346842664791</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01446382406562391</v>
+        <v>0.04432818591589946</v>
       </c>
       <c r="M258" t="n">
-        <v>0.153654749851276</v>
+        <v>0.3288749262943685</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01638436463593043</v>
+        <v>0.06496742375256453</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1599065715945001</v>
+        <v>0.3279346842664791</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01637835263781753</v>
+        <v>0.01867853774902446</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1607351030535389</v>
+        <v>0.3264770018418091</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01495757582575258</v>
+        <v>0.02429606410202395</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1553854351952971</v>
+        <v>0.3296338277082743</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01411513982001666</v>
+        <v>0.04368239687472422</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1544508884515416</v>
+        <v>0.3305789414565156</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01637835263781753</v>
+        <v>0.06384449022777849</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1607351030535389</v>
+        <v>0.3296338277082743</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0163734152104536</v>
+        <v>0.01928514799692158</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1615636345125778</v>
+        <v>0.3281598729853236</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01523146810749007</v>
+        <v>0.02362990908915479</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1561863910468192</v>
+        <v>0.3313329711500696</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01346433784930723</v>
+        <v>0.04323254913780411</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1552470270518073</v>
+        <v>0.3322829566186625</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0163734152104536</v>
+        <v>0.06251570436184706</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1615636345125778</v>
+        <v>0.3313329711500696</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01646956061267597</v>
+        <v>0.01788987874502856</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1623921659716167</v>
+        <v>0.329842744128838</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01481112124746733</v>
+        <v>0.0231615059956692</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1569873468983414</v>
+        <v>0.3330321145918648</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01281140838586137</v>
+        <v>0.04217859150298325</v>
       </c>
       <c r="M261" t="n">
-        <v>0.156043165652073</v>
+        <v>0.3339869717808095</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01646956061267597</v>
+        <v>0.06078099254937291</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1623921659716167</v>
+        <v>0.3330321145918648</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01656679710332196</v>
+        <v>0.01749270688289321</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1632206974306555</v>
+        <v>0.3315256152723525</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0146965587166866</v>
+        <v>0.02289082689845544</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1577883027498635</v>
+        <v>0.3347312580336601</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01125634166204459</v>
+        <v>0.04162047276810571</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1568393042523387</v>
+        <v>0.3356909869429565</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01656679710332196</v>
+        <v>0.0596402811849584</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1632206974306555</v>
+        <v>0.3347312580336601</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01656513294122884</v>
+        <v>0.01609360930006328</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1640492288896944</v>
+        <v>0.333208486415867</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01458780398614989</v>
+        <v>0.02231784387440172</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1585892586013856</v>
+        <v>0.3364304014754552</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01079912791022286</v>
+        <v>0.04055814173101552</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1576354428526044</v>
+        <v>0.3373950021051035</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01656513294122884</v>
+        <v>0.05809349666320573</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1640492288896944</v>
+        <v>0.3364304014754552</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01656457638523397</v>
+        <v>0.01869256288608658</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1648777603487332</v>
+        <v>0.3348913575593815</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01498488052685945</v>
+        <v>0.02184252900039629</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1593902144529078</v>
+        <v>0.3381295449172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.009439757362761758</v>
+        <v>0.03929154718955688</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1584315814528701</v>
+        <v>0.3390990172672504</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01656457638523397</v>
+        <v>0.05704056537871743</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1648777603487332</v>
+        <v>0.3381295449172505</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1310.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06235967788949132</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06235967788949132</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09977548462318613</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08927871303016266</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01683711303016266</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="B65" t="n">
-        <v>0.020029149042131</v>
+        <v>0.02351149954067264</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0007993846907562926</v>
+        <v>0.001242893461060129</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00168287114351448</v>
+        <v>0.0007421616115219458</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002825464697121971</v>
+        <v>0.001242893461060129</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001699143441795228</v>
+        <v>0.0007421616115219458</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006009815684305253</v>
+        <v>0.003649503231432705</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001704015162146987</v>
+        <v>0.001050728294809064</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009990526832577284</v>
+        <v>0.005516521353849335</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001699143441795228</v>
+        <v>0.001054646443307741</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005419004344538327</v>
+        <v>0.002474890951729702</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00336574228702896</v>
+        <v>0.001484323223043892</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005514876789829787</v>
+        <v>0.002474890951729702</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003398286883590457</v>
+        <v>0.001484323223043892</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01246582629477169</v>
+        <v>0.00794674537046397</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003408030324293974</v>
+        <v>0.002101456589618128</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02075994912427481</v>
+        <v>0.01184387427685057</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003398286883590457</v>
+        <v>0.002109292886615483</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006679093924371778</v>
+        <v>0.00368460193586484</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.005048613430543439</v>
+        <v>0.002226484834565837</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007735390519514287</v>
+        <v>0.00368460193586484</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005097430325385685</v>
+        <v>0.002226484834565837</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01760198052040315</v>
+        <v>0.01145728712523905</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005112045486440961</v>
+        <v>0.003152184884427192</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02917556891738582</v>
+        <v>0.01703555302511855</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00553707066976066</v>
+        <v>0.003163939329923224</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009353951683423699</v>
+        <v>0.004860635877321648</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006676383014043666</v>
+        <v>0.002968646446087783</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009954160127566225</v>
+        <v>0.004860635877321648</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006796573767180914</v>
+        <v>0.002968646446087783</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0208404768239443</v>
+        <v>0.01581001690092326</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006509213696317998</v>
+        <v>0.004472172845355762</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0315018007592896</v>
+        <v>0.02184505185476782</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006796573767180914</v>
+        <v>0.004218585773230966</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.006676383014043666</v>
+        <v>0.0077557788</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009353951683423699</v>
+        <v>0.01086624</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01069063161830774</v>
+        <v>0.005991602239956303</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008414355717572397</v>
+        <v>0.003710808057609729</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01086624</v>
+        <v>0.005991602239956303</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.0077557788</v>
+        <v>0.003710808057609729</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02280439357066832</v>
+        <v>0.01698442483024704</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008520075810734936</v>
+        <v>0.00525364147404532</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0340111665552158</v>
+        <v>0.02552862280271262</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008495717208976142</v>
+        <v>0.005209609501118906</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008782205693492438</v>
+        <v>0.007066110487624899</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01009722686108688</v>
+        <v>0.004452969669131675</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01272881613775344</v>
+        <v>0.007066110487624899</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01019486065077137</v>
+        <v>0.004452969669131675</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02504268710433272</v>
+        <v>0.01967842313162785</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01022409097288192</v>
+        <v>0.006304369768854384</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03667711727853545</v>
+        <v>0.02874421910396441</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01019486065077137</v>
+        <v>0.006327878659846449</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01172452050496319</v>
+        <v>0.008072770084183584</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01178009800460136</v>
+        <v>0.005195131280653621</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01370859265837948</v>
+        <v>0.008072770084183584</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.0118940040925666</v>
+        <v>0.005195131280653621</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02647751468240667</v>
+        <v>0.02117843729132624</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01192810613502891</v>
+        <v>0.007355098063663449</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03921953109209825</v>
+        <v>0.03085633386899839</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0118940040925666</v>
+        <v>0.007382525103154191</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01156723642780803</v>
+        <v>0.009000190493488477</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01346296914811584</v>
+        <v>0.005937292892175566</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01455825852246843</v>
+        <v>0.009000190493488477</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01359314753436183</v>
+        <v>0.005937292892175566</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02778532570486705</v>
+        <v>0.02311288922387195</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0136321212971759</v>
+        <v>0.008405826358472512</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04065828615875394</v>
+        <v>0.0338069707231623</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01359314753436183</v>
+        <v>0.008437171546461932</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01236001383711496</v>
+        <v>0.009836981179395701</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01514584029163032</v>
+        <v>0.006679454503697512</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01562034753850874</v>
+        <v>0.009836981179395701</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01529229097615706</v>
+        <v>0.006679454503697512</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02884256957169076</v>
+        <v>0.02471020084379474</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01533613645932288</v>
+        <v>0.009456554653281577</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04251326064135219</v>
+        <v>0.0362394071651837</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01529229097615706</v>
+        <v>0.009491817989769674</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01315251310797203</v>
+        <v>0.01086624</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01682871143514479</v>
+        <v>0.0077557788</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01613739351498883</v>
+        <v>0.01086624</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01699143441795228</v>
+        <v>0.0077557788</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03042569568285453</v>
+        <v>0.02689879406562437</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01704015162146987</v>
+        <v>0.01050728294809064</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0438043327027427</v>
+        <v>0.0382969206937902</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01699143441795228</v>
+        <v>0.01054646443307741</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01599439461546726</v>
+        <v>0.01120799920770808</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01851158257865928</v>
+        <v>0.008163777726741404</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01695193026039714</v>
+        <v>0.01120799920770808</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01869057785974751</v>
+        <v>0.008163777726741404</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0311111534383352</v>
+        <v>0.02830709080389057</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01874416678361686</v>
+        <v>0.0115580112428997</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0460513805057754</v>
+        <v>0.04042278880770939</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01869057785974751</v>
+        <v>0.01160111087638516</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01683711303016266</v>
+        <v>0.01181268480576408</v>
       </c>
       <c r="G77" t="n">
-        <v>0.020029149042131</v>
+        <v>0.008905939338263349</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0180064915832221</v>
+        <v>0.01181268480576408</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02038972130154274</v>
+        <v>0.008905939338263349</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0326753922381097</v>
+        <v>0.0297635129731231</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02044818194576385</v>
+        <v>0.01260873953770877</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0473742822132997</v>
+        <v>0.04196028900566889</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02038972130154274</v>
+        <v>0.0126557573196929</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01699536164038774</v>
+        <v>0.01239575394935186</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02187732486568824</v>
+        <v>0.009648100949785295</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01884361129195217</v>
+        <v>0.01239575394935186</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02208886474333797</v>
+        <v>0.009648100949785295</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03329486148215474</v>
+        <v>0.03059648248785171</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02215219710791083</v>
+        <v>0.01365946783251783</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04959291598816551</v>
+        <v>0.04445269878639618</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02208886474333797</v>
+        <v>0.01371040376300064</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01914868818198961</v>
+        <v>0.01295756210488985</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02356019600920272</v>
+        <v>0.01039026256130724</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01976448297639731</v>
+        <v>0.01295756210488985</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02326733639999999</v>
+        <v>0.01039026256130724</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03593185659300743</v>
+        <v>0.03233442126260613</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02423680874999998</v>
+        <v>0.0147101961273269</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05209923020961754</v>
+        <v>0.04644329564861899</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02326733639999999</v>
+        <v>0.01476505020630838</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01936817322536872</v>
+        <v>0.01349846473879657</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0252430671527172</v>
+        <v>0.01113242417282919</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02112394577863709</v>
+        <v>0.01349846473879657</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02548715162692843</v>
+        <v>0.01113242417282919</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03691376906520932</v>
+        <v>0.03380575121191617</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02556022743220481</v>
+        <v>0.01576092442213596</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05575018726133396</v>
+        <v>0.04757535709106486</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02548715162692843</v>
+        <v>0.01581969664961612</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01862680500891675</v>
+        <v>0.01401881731749048</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02692593829623168</v>
+        <v>0.01187458578435113</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02236948008751501</v>
+        <v>0.01401881731749048</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02718629506872365</v>
+        <v>0.01187458578435113</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03961391013250198</v>
+        <v>0.03593185659300743</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02726424259435179</v>
+        <v>0.01694004865665063</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05897727590208346</v>
+        <v>0.04939216061246132</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02718629506872365</v>
+        <v>0.01687434309292386</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02289757177102537</v>
+        <v>0.01451897530739002</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02860880943974616</v>
+        <v>0.01261674739587308</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02390697059452949</v>
+        <v>0.01451897530739002</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02888543851051888</v>
+        <v>0.01261674739587308</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04137351033514267</v>
+        <v>0.03705981054143495</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02896825775649878</v>
+        <v>0.01786238101175409</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06270463410730653</v>
+        <v>0.05209923020961754</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02888543851051888</v>
+        <v>0.01771976020788742</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02315346175008625</v>
+        <v>0.01499929417491368</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03029168058326064</v>
+        <v>0.01335890900739502</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02540037661306176</v>
+        <v>0.01499929417491368</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03058458195231411</v>
+        <v>0.01335890900739502</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04441768663916507</v>
+        <v>0.03876848070022332</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03067227291864577</v>
+        <v>0.01891310930656315</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06672752437572377</v>
+        <v>0.054035967339568</v>
       </c>
       <c r="O83" t="n">
-        <v>0.03058458195231411</v>
+        <v>0.01898363597953935</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02536746318449109</v>
+        <v>0.01546012938647992</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03197455172677512</v>
+        <v>0.01410107061891697</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02711365745649297</v>
+        <v>0.01546012938647992</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03228372539410934</v>
+        <v>0.01410107061891697</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04697155601060299</v>
+        <v>0.04085159044098247</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03237628808079276</v>
+        <v>0.01996383760137222</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07034120920605585</v>
+        <v>0.05707454056338807</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03228372539410934</v>
+        <v>0.02003828242284709</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02551256431263154</v>
+        <v>0.0159018364085072</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03365742287028959</v>
+        <v>0.01484323223043892</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02831077243820432</v>
+        <v>0.0159018364085072</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03398286883590457</v>
+        <v>0.01484323223043892</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04986023541549012</v>
+        <v>0.04199576917537995</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03408030324293974</v>
+        <v>0.02101456589618128</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07424095109702361</v>
+        <v>0.05903188328405934</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03398286883590457</v>
+        <v>0.02109292886615483</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02456175337289928</v>
+        <v>0.01632477070741402</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03534029401380408</v>
+        <v>0.01558539384196086</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02995568087157699</v>
+        <v>0.01632477070741402</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03568201227769979</v>
+        <v>0.01558539384196086</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05240884181986036</v>
+        <v>0.04448764631508337</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03578431840508673</v>
+        <v>0.02206529419099034</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0780220125473477</v>
+        <v>0.06218722490426704</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03568201227769979</v>
+        <v>0.02214757530946257</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.025488018603686</v>
+        <v>0.01672928774961882</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03702316515731856</v>
+        <v>0.01632755545348281</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03131234206999216</v>
+        <v>0.01672928774961882</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03738115571949503</v>
+        <v>0.01632755545348281</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05514249218974734</v>
+        <v>0.04611385127176024</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03748833356723372</v>
+        <v>0.02311602248579941</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08207965605574902</v>
+        <v>0.06481979482669653</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03738115571949503</v>
+        <v>0.02320222175277031</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02926434824338336</v>
+        <v>0.01711574300154009</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03870603630083304</v>
+        <v>0.01706971706500475</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03234471534683105</v>
+        <v>0.01711574300154009</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03908029916129026</v>
+        <v>0.01706971706500475</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05758630349118485</v>
+        <v>0.04846101345707821</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0391923487293807</v>
+        <v>0.02416675078060847</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08560914412094806</v>
+        <v>0.0678088224540328</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03908029916129026</v>
+        <v>0.02425686819607805</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02986373053038305</v>
+        <v>0.01748449192959629</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04038890744434751</v>
+        <v>0.0178118786765267</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0337167600154748</v>
+        <v>0.01748449192959629</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04077944260308548</v>
+        <v>0.0178118786765267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05956539269020669</v>
+        <v>0.05021576228270475</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04089636389152769</v>
+        <v>0.02521747907541754</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08790573924166573</v>
+        <v>0.07073353718896103</v>
       </c>
       <c r="O89" t="n">
-        <v>0.04077944260308548</v>
+        <v>0.02531151463938579</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02729709769738872</v>
+        <v>0.01783589000020587</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04207177858786199</v>
+        <v>0.01855404028804864</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03459243538930463</v>
+        <v>0.01783589000020587</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04247858604488071</v>
+        <v>0.01855404028804864</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06210487675284659</v>
+        <v>0.05186472716030754</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04260037905367468</v>
+        <v>0.0262682073702266</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09066470391662274</v>
+        <v>0.07327316843416659</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04247858604488071</v>
+        <v>0.02636616108269354</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02870324166309179</v>
+        <v>0.01817029267978731</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04375464973137647</v>
+        <v>0.01929620189957059</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03493570078170175</v>
+        <v>0.01817029267978731</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04417772948667594</v>
+        <v>0.01929620189957059</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0628298726451384</v>
+        <v>0.05409453750155413</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04430439421582167</v>
+        <v>0.02731893566503567</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09288130064453975</v>
+        <v>0.07570694559233443</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04417772948667594</v>
+        <v>0.02742080752600128</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03109539775653396</v>
+        <v>0.01848805543475911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04543752087489095</v>
+        <v>0.02003836351109254</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03542690700327798</v>
+        <v>0.01848805543475911</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04587687292847117</v>
+        <v>0.02003836351109254</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06381465852042226</v>
+        <v>0.05589182271811202</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04600840937796866</v>
+        <v>0.02836966395984473</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09377622281666509</v>
+        <v>0.07861409806615011</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04587687292847117</v>
+        <v>0.02847545396930902</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03147070421002632</v>
+        <v>0.0187895337315397</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04712039201840543</v>
+        <v>0.02078052512261448</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0361029885373839</v>
+        <v>0.0187895337315397</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0475760163702664</v>
+        <v>0.02078052512261448</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06529641391213628</v>
+        <v>0.05754321222164885</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04771242454011564</v>
+        <v>0.02942039225465379</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09533117501923738</v>
+        <v>0.08177385525829833</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0475760163702664</v>
+        <v>0.02953010041261676</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03082629925587991</v>
+        <v>0.01907508303654755</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04880326316191991</v>
+        <v>0.02152268673413643</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03636114437854811</v>
+        <v>0.01907508303654755</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04927515981206163</v>
+        <v>0.02152268673413643</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06564849292316574</v>
+        <v>0.05983533542383218</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04941643970226263</v>
+        <v>0.03047112054946286</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09653887504707009</v>
+        <v>0.08396544657146476</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04927515981206163</v>
+        <v>0.0305847468559245</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03015932112640578</v>
+        <v>0.01934505881620116</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0504861343054344</v>
+        <v>0.02226484834565837</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03699791680737061</v>
+        <v>0.01934505881620116</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05097430325385686</v>
+        <v>0.02226484834565837</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06666455518968031</v>
+        <v>0.06115482173632961</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05112045486440962</v>
+        <v>0.03152184884427192</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09769020834253822</v>
+        <v>0.08686810140833434</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05097430325385686</v>
+        <v>0.03163939329923224</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03246690805391498</v>
+        <v>0.01959981653691896</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05216900544894888</v>
+        <v>0.02300700995718032</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03720984810445145</v>
+        <v>0.01959981653691896</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05267344669565208</v>
+        <v>0.02300700995718032</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06743826034784958</v>
+        <v>0.06298830057080862</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0528244700265566</v>
+        <v>0.03257257713908099</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09827606034801639</v>
+        <v>0.0890610491715923</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05267344669565208</v>
+        <v>0.03269403974253998</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03274619827071856</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05385187659246336</v>
+        <v>0.02351149954067264</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03789348055039062</v>
+        <v>0.01976448297639731</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05437259013744731</v>
+        <v>0.02351149954067264</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06846326803384326</v>
+        <v>0.06472240133893692</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05452848518870359</v>
+        <v>0.03362330543389005</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09908731650587954</v>
+        <v>0.09152351926392394</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05437259013744731</v>
+        <v>0.03374868618584773</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03099433000912758</v>
+        <v>0.02007679404541428</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05553474773597783</v>
+        <v>0.02449133318022421</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03824535642578818</v>
+        <v>0.02007679404541428</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05607173357924253</v>
+        <v>0.02449133318022421</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06883323788383083</v>
+        <v>0.06554375345238198</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05623250035085058</v>
+        <v>0.03467403372869911</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1006148622585026</v>
+        <v>0.09413474108801423</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05607173357924253</v>
+        <v>0.03480333262915547</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03220844150145307</v>
+        <v>0.02031206918895831</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05721761887949231</v>
+        <v>0.02523349479174616</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03856201801124412</v>
+        <v>0.02031206918895831</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05777087702103776</v>
+        <v>0.02523349479174616</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06924182953398203</v>
+        <v>0.06703898632281136</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05793651551299756</v>
+        <v>0.03572476202350818</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1011495830482604</v>
+        <v>0.09547394404654863</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05777087702103776</v>
+        <v>0.03585797907246321</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03038567098000609</v>
+        <v>0.02054615791734178</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05890049002300679</v>
+        <v>0.0259756564032681</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03864000758735849</v>
+        <v>0.02054615791734178</v>
       </c>
       <c r="K100" t="n">
-        <v>0.059470020462833</v>
+        <v>0.0259756564032681</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06978270262046649</v>
+        <v>0.06849472936189271</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05964053067514455</v>
+        <v>0.03677549031831724</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1016823643175277</v>
+        <v>0.09802035754221206</v>
       </c>
       <c r="O100" t="n">
-        <v>0.059470020462833</v>
+        <v>0.03691262551577095</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03252315667709769</v>
+        <v>0.02077898563772088</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06058336116652127</v>
+        <v>0.02671781801479005</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03877586743473131</v>
+        <v>0.02077898563772088</v>
       </c>
       <c r="K101" t="n">
-        <v>0.06116916390462823</v>
+        <v>0.02671781801479005</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07064951677945377</v>
+        <v>0.06919761198129357</v>
       </c>
       <c r="M101" t="n">
-        <v>0.06134454583729154</v>
+        <v>0.03782621861312631</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1022040915086794</v>
+        <v>0.09965321097768998</v>
       </c>
       <c r="O101" t="n">
-        <v>0.06116916390462823</v>
+        <v>0.0379672719590787</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03261803682503894</v>
+        <v>0.02101047775725165</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06226623231003575</v>
+        <v>0.02745997962631199</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03906613983396258</v>
+        <v>0.02101047775725165</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06286830734642346</v>
+        <v>0.02745997962631199</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07063593164711351</v>
+        <v>0.07033426359268155</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06304856099943852</v>
+        <v>0.03887694690793537</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1029056500640904</v>
+        <v>0.1013517337556674</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06286830734642346</v>
+        <v>0.03902191840238643</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03367422606032532</v>
+        <v>0.0212405596830903</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06394910345355023</v>
+        <v>0.02820214123783394</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03920736706565234</v>
+        <v>0.0212405596830903</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06456745078821868</v>
+        <v>0.02820214123783394</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07083560685961535</v>
+        <v>0.07049131360772418</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06475257616158551</v>
+        <v>0.03992767520274444</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1035779254261354</v>
+        <v>0.1023951552788296</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06456745078821868</v>
+        <v>0.04007656484569418</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03367148817567311</v>
+        <v>0.02146915682239292</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06563197459706471</v>
+        <v>0.02894430284935589</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03952896595279462</v>
+        <v>0.02146915682239292</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06626659423001391</v>
+        <v>0.02894430284935589</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07154220205312894</v>
+        <v>0.07095539143808907</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06645659132373251</v>
+        <v>0.04097840349755349</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1041984604192351</v>
+        <v>0.1029627049498618</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06626659423001391</v>
+        <v>0.04113121128900192</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03164843631633518</v>
+        <v>0.02169619458231566</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06731484574057918</v>
+        <v>0.02968646446087783</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03932885514880742</v>
+        <v>0.02169619458231566</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06796573767180913</v>
+        <v>0.02968646446087783</v>
       </c>
       <c r="L105" t="n">
         <v>0.07186371318601487</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06816060648587949</v>
+        <v>0.04202913179236256</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1033981683396273</v>
+        <v>0.1039336121714491</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06796573767180913</v>
+        <v>0.04218585773230966</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03360318751646118</v>
+        <v>0.02192159837001464</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06899771688409367</v>
+        <v>0.03042862607239978</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03931633268877971</v>
+        <v>0.02192159837001464</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06966488111360436</v>
+        <v>0.03042862607239978</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07165750189174183</v>
+        <v>0.07186224689037718</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06986462164802648</v>
+        <v>0.04307986008717163</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1034651591013612</v>
+        <v>0.1041984604192351</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06966488111360436</v>
+        <v>0.0432405041756174</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03053725001015196</v>
+        <v>0.02214529359264601</v>
       </c>
       <c r="G107" t="n">
-        <v>0.07068058802760815</v>
+        <v>0.03117078768392172</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03917623880834041</v>
+        <v>0.02214529359264601</v>
       </c>
       <c r="K107" t="n">
-        <v>0.07136402455539959</v>
+        <v>0.03117078768392172</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07120664534643223</v>
+        <v>0.07174050186604936</v>
       </c>
       <c r="M107" t="n">
-        <v>0.07156863681017346</v>
+        <v>0.04413058838198069</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1033594715248383</v>
+        <v>0.1034889773265739</v>
       </c>
       <c r="O107" t="n">
-        <v>0.07136402455539959</v>
+        <v>0.04429515061892514</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03045213203150842</v>
+        <v>0.02236720565736591</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07236345917112263</v>
+        <v>0.03191294929544367</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03911045218766138</v>
+        <v>0.02236720565736591</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07306316799719483</v>
+        <v>0.03191294929544367</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07130731125174367</v>
+        <v>0.0711942077620569</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07327265197232045</v>
+        <v>0.04518131667678976</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1028860578160373</v>
+        <v>0.1036472790369604</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07306316799719483</v>
+        <v>0.04534979706223288</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03334934181463144</v>
+        <v>0.02258725997133045</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07404633031463712</v>
+        <v>0.03265511090696561</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0392207951445815</v>
+        <v>0.02258725997133045</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07476231143899005</v>
+        <v>0.03265511090696561</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07136284116226077</v>
+        <v>0.07142525539337927</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07497666713446743</v>
+        <v>0.04623204497159882</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1036497216096761</v>
+        <v>0.1032743103771292</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07476231143899005</v>
+        <v>0.04640444350554063</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03123038759362189</v>
+        <v>0.02280538194169576</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0757292014581516</v>
+        <v>0.03339727251848756</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0391090899969397</v>
+        <v>0.02280538194169576</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07646145488078528</v>
+        <v>0.03339727251848756</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07137657663256805</v>
+        <v>0.07153553557499601</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07668068229661443</v>
+        <v>0.04728277326640788</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1033552665404725</v>
+        <v>0.1030721833464859</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07646145488078528</v>
+        <v>0.04745908994884837</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03009677760258066</v>
+        <v>0.02302149697561799</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07741207260166608</v>
+        <v>0.03413943413000951</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03907715906257485</v>
+        <v>0.02302149697561799</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07816059832258052</v>
+        <v>0.03413943413000951</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0708518592172501</v>
+        <v>0.07092693912188647</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07838469745876141</v>
+        <v>0.04833350156121694</v>
       </c>
       <c r="N111" t="n">
-        <v>0.102607496243144</v>
+        <v>0.1036430099444355</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07816059832258052</v>
+        <v>0.04851373639215611</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03295002007560863</v>
+        <v>0.02323553048025329</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07909494374518056</v>
+        <v>0.03488159574153145</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03892682465932581</v>
+        <v>0.02323553048025329</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07985974176437574</v>
+        <v>0.03488159574153145</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07069203047089143</v>
+        <v>0.07140135684903018</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0800887126209084</v>
+        <v>0.04938422985602601</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1020112143524085</v>
+        <v>0.1030889021703835</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07985974176437574</v>
+        <v>0.04956838283546385</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03079162324680667</v>
+        <v>0.02344740786275774</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08077781488869502</v>
+        <v>0.0356237573530534</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03865990910503152</v>
+        <v>0.02344740786275774</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08155888520617097</v>
+        <v>0.0356237573530534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07060043194807666</v>
+        <v>0.07066067957140662</v>
       </c>
       <c r="M113" t="n">
-        <v>0.08179272778305538</v>
+        <v>0.05043495815083508</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1020712245029837</v>
+        <v>0.102911972023735</v>
       </c>
       <c r="O113" t="n">
-        <v>0.08155888520617097</v>
+        <v>0.05062302927877159</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03262309535027568</v>
+        <v>0.02365705453028755</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0824606860322095</v>
+        <v>0.03636591896457535</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03847823471753083</v>
+        <v>0.02365705453028755</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08325802864796619</v>
+        <v>0.03636591896457535</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07018040520339036</v>
+        <v>0.07090679810399522</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08349674294520237</v>
+        <v>0.05148568644564414</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1012923303295872</v>
+        <v>0.1023143315038954</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08325802864796619</v>
+        <v>0.05167767572207933</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03244594462011652</v>
+        <v>0.02386439588999877</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08414355717572398</v>
+        <v>0.03710808057609729</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03818362381466262</v>
+        <v>0.02386439588999877</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08495717208976142</v>
+        <v>0.03710808057609729</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06973529179141699</v>
+        <v>0.07074160326177556</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08520075810734937</v>
+        <v>0.05253641474045321</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1008793354669369</v>
+        <v>0.10269809261027</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08495717208976142</v>
+        <v>0.05273232216538707</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02926167929043007</v>
+        <v>0.02406935734904758</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08582642831923847</v>
+        <v>0.03785024218761924</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03787789871426581</v>
+        <v>0.02406935734904758</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08665631553155666</v>
+        <v>0.03785024218761924</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06956843326674128</v>
+        <v>0.070366985859727</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08690477326949635</v>
+        <v>0.05358714303526227</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09963704354975034</v>
+        <v>0.101965367342264</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08665631553155666</v>
+        <v>0.05378696860869481</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03007180759531724</v>
+        <v>0.02427186431459009</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08750929946275295</v>
+        <v>0.03859240379914118</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03786288173417925</v>
+        <v>0.02427186431459009</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08835545897335188</v>
+        <v>0.03859240379914118</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06878317118394761</v>
+        <v>0.07038483671282905</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08860878843164334</v>
+        <v>0.05463787133007134</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09987025821274542</v>
+        <v>0.1020182676992828</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08835545897335188</v>
+        <v>0.05484161505200256</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03087783776887889</v>
+        <v>0.02447184219378248</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08919217060626743</v>
+        <v>0.03933456541066313</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03744039519224183</v>
+        <v>0.02447184219378248</v>
       </c>
       <c r="K118" t="n">
-        <v>0.09005460241514711</v>
+        <v>0.03933456541066313</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06838284709762069</v>
+        <v>0.07029704663606121</v>
       </c>
       <c r="M118" t="n">
-        <v>0.09031280359379032</v>
+        <v>0.0556885996248804</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09898378309063977</v>
+        <v>0.1016589056807317</v>
       </c>
       <c r="O118" t="n">
-        <v>0.09005460241514711</v>
+        <v>0.0558962614953103</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03168127804521589</v>
+        <v>0.02466921639378084</v>
       </c>
       <c r="G119" t="n">
-        <v>0.09087504174978191</v>
+        <v>0.04007672702218507</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03751226140629249</v>
+        <v>0.02466921639378084</v>
       </c>
       <c r="K119" t="n">
-        <v>0.09175374585694235</v>
+        <v>0.04007672702218507</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06827080256234502</v>
+        <v>0.07020550644440288</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09201681875593731</v>
+        <v>0.05673932791968946</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09848242181815103</v>
+        <v>0.1017893932860159</v>
       </c>
       <c r="O119" t="n">
-        <v>0.09175374585694235</v>
+        <v>0.05695090793861804</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02848363665842913</v>
+        <v>0.0248639123217413</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09255791289329639</v>
+        <v>0.04081888863370702</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03728030269417004</v>
+        <v>0.0248639123217413</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09345288929873757</v>
+        <v>0.04081888863370702</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06775037913270515</v>
+        <v>0.0696121069528336</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09372083391808429</v>
+        <v>0.05779005621449853</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09817097802999708</v>
+        <v>0.1012118425145409</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09345288929873757</v>
+        <v>0.05800555438192578</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03028642184261949</v>
+        <v>0.02505585538482001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09424078403681087</v>
+        <v>0.04156105024522896</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03684634137371341</v>
+        <v>0.02505585538482001</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0951520327405328</v>
+        <v>0.04156105024522896</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06682491836328566</v>
+        <v>0.06921873897633285</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09542484908023129</v>
+        <v>0.05884078450930759</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09665425536089556</v>
+        <v>0.1006283653657117</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0951520327405328</v>
+        <v>0.05906020082523353</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03109114183188787</v>
+        <v>0.0252449709901731</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09592365518032535</v>
+        <v>0.04230321185675091</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0366121997627615</v>
+        <v>0.0252449709901731</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09685117618232802</v>
+        <v>0.04230321185675091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06709776180867111</v>
+        <v>0.06952729332988003</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09712886424237827</v>
+        <v>0.05989151280411666</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09663705744556411</v>
+        <v>0.1012410738389337</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09685117618232802</v>
+        <v>0.06011484726854127</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02888824319028752</v>
+        <v>0.02543118454495671</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09760652632383983</v>
+        <v>0.04304537346827286</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03637970017915317</v>
+        <v>0.02543118454495671</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09855031962412325</v>
+        <v>0.04304537346827286</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06607225102344608</v>
+        <v>0.06893966082845462</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09883287940452526</v>
+        <v>0.06094224109892572</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09562418791872068</v>
+        <v>0.1008520799336124</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09855031962412325</v>
+        <v>0.06116949371184901</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02765618798034406</v>
+        <v>0.02561442145632697</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09928939746735431</v>
+        <v>0.04378753507979481</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03604678556481421</v>
+        <v>0.02561442145632697</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1002494630659185</v>
+        <v>0.04378753507979481</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0656517171819882</v>
+        <v>0.06895773228703617</v>
       </c>
       <c r="M124" t="n">
-        <v>0.1005368945666723</v>
+        <v>0.06199296939373478</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09571022436975657</v>
+        <v>0.09976349564915277</v>
       </c>
       <c r="O124" t="n">
-        <v>0.1002494630659185</v>
+        <v>0.06222414015515674</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03039892978489107</v>
+        <v>0.02579460713144001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1009722686108688</v>
+        <v>0.04452969669131675</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03588354672148786</v>
+        <v>0.02579460713144001</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1019486065077137</v>
+        <v>0.04452969669131675</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0651982784941269</v>
+        <v>0.06898339852060412</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1022409097288192</v>
+        <v>0.06304369768854384</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09431632607173623</v>
+        <v>0.1003774329849604</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1019486065077137</v>
+        <v>0.06327878659846449</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02712138261091632</v>
+        <v>0.02597166697745196</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1026551397543833</v>
+        <v>0.0452718583028387</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03558812496922074</v>
+        <v>0.02597166697745196</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1036477499495089</v>
+        <v>0.0452718583028387</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06528166872092936</v>
+        <v>0.06881855034413792</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1039449248909662</v>
+        <v>0.06409442598335291</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09343759353931064</v>
+        <v>0.0992960039404403</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1036477499495089</v>
+        <v>0.06433343304177223</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02882846046540758</v>
+        <v>0.02614552640151895</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1043380108978978</v>
+        <v>0.04601401991436064</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03536645763736308</v>
+        <v>0.02614552640151895</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1053468933913042</v>
+        <v>0.04601401991436064</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06401277504666553</v>
+        <v>0.06876507857261699</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1056489400531132</v>
+        <v>0.06514515427816198</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09258967758859349</v>
+        <v>0.09982132051499798</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1053468933913042</v>
+        <v>0.06538807948507996</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02852507735535263</v>
+        <v>0.02631611081079713</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1060208820414122</v>
+        <v>0.04675618152588259</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03492448205526519</v>
+        <v>0.02631611081079713</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1070460368330994</v>
+        <v>0.04675618152588259</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06350248465560543</v>
+        <v>0.06812487402102094</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1073529552152602</v>
+        <v>0.06619588257297104</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09218822903569873</v>
+        <v>0.09915549470803869</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1070460368330994</v>
+        <v>0.06644272592838771</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02821614728773921</v>
+        <v>0.02648334561244262</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1077037531849267</v>
+        <v>0.04749834313740453</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0344681355522773</v>
+        <v>0.02648334561244262</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1087451802748946</v>
+        <v>0.04749834313740453</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06296168473201896</v>
+        <v>0.06809982750432908</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1090569703774072</v>
+        <v>0.0672466108677801</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09094889869674028</v>
+        <v>0.0988006385189677</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1087451802748946</v>
+        <v>0.06749737237169545</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02890658426955512</v>
+        <v>0.02664715621361154</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1093866243284412</v>
+        <v>0.04824050474892647</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0341033554577497</v>
+        <v>0.02664715621361154</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1104443237166898</v>
+        <v>0.04824050474892647</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06260126246017617</v>
+        <v>0.06799182983752103</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1107609855395542</v>
+        <v>0.06829733916258916</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09008733738783198</v>
+        <v>0.09895886394719022</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1104443237166898</v>
+        <v>0.0685520188150032</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02560130230778811</v>
+        <v>0.02680746802146006</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1110694954719557</v>
+        <v>0.04898266636044842</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03403607910103264</v>
+        <v>0.02680746802146006</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1121434671584851</v>
+        <v>0.04898266636044842</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06183210502434702</v>
+        <v>0.06800277183557618</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1124650007017012</v>
+        <v>0.06934806745739823</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08961919592508777</v>
+        <v>0.09803228299211164</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1121434671584851</v>
+        <v>0.06960666525831094</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02730521540942598</v>
+        <v>0.02696420644314428</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1127523666154702</v>
+        <v>0.04972482797197036</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03337224381147637</v>
+        <v>0.02696420644314428</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1138426106002803</v>
+        <v>0.04972482797197036</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06116509960880154</v>
+        <v>0.06753439032086525</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1141690158638481</v>
+        <v>0.0703987957522073</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0883601251246216</v>
+        <v>0.09862300765313736</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1138426106002803</v>
+        <v>0.07066131170161868</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02602323243137802</v>
+        <v>0.02711729688582035</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1144352377589846</v>
+        <v>0.05046698958349231</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03321778691843119</v>
+        <v>0.02711729688582035</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1155417540420755</v>
+        <v>0.05046698958349231</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06031113339780964</v>
+        <v>0.06777588959468234</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1158730310259951</v>
+        <v>0.07144952404701636</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08752577580254717</v>
+        <v>0.09842674301071203</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1155417540420755</v>
+        <v>0.07171595814492643</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02773353049912296</v>
+        <v>0.02726666475664438</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1161181089024991</v>
+        <v>0.05120915119501426</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03277864575124732</v>
+        <v>0.02726666475664438</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1172408974838708</v>
+        <v>0.05120915119501426</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05968109357564136</v>
+        <v>0.06791969667729292</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1175770461881421</v>
+        <v>0.07250025234182542</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08663179877497862</v>
+        <v>0.0974219748471078</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1172408974838708</v>
+        <v>0.07277060458823417</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02541715892606055</v>
+        <v>0.02741223546277255</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1178009800460136</v>
+        <v>0.05195131280653621</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03264274617026498</v>
+        <v>0.02741223546277255</v>
       </c>
       <c r="K135" t="n">
-        <v>0.118940040925666</v>
+        <v>0.05195131280653621</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0593772104495956</v>
+        <v>0.0678657360964641</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1192810613502891</v>
+        <v>0.07355098063663448</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08514636657734348</v>
+        <v>0.09770825521557996</v>
       </c>
       <c r="O135" t="n">
-        <v>0.118940040925666</v>
+        <v>0.0738252510315419</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02608115211463332</v>
+        <v>0.02755393441136093</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1194838511895281</v>
+        <v>0.05269347441805815</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03217468458937733</v>
+        <v>0.02755393441136093</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1206391843674612</v>
+        <v>0.05269347441805815</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05852719304963433</v>
+        <v>0.06801393237996292</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1209850765124361</v>
+        <v>0.07460170893144355</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08477615526157661</v>
+        <v>0.09748728625910358</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1206391843674612</v>
+        <v>0.07487989747484965</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02473254446728384</v>
+        <v>0.02769168700956572</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1211667223330425</v>
+        <v>0.0534356360295801</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03168112525518664</v>
+        <v>0.02769168700956572</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1223383278092565</v>
+        <v>0.0534356360295801</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05822485120892662</v>
+        <v>0.06756421005555643</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1226890916745831</v>
+        <v>0.07565243722625262</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08353873179962068</v>
+        <v>0.09716077012065355</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1223383278092565</v>
+        <v>0.07593454391815739</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02637837038645467</v>
+        <v>0.02782541866454299</v>
       </c>
       <c r="G138" t="n">
-        <v>0.122849593476557</v>
+        <v>0.05417779764110205</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03117056745639719</v>
+        <v>0.02782541866454299</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1240374712510517</v>
+        <v>0.05417779764110205</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05728576993494422</v>
+        <v>0.06751649365101187</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1243931068367301</v>
+        <v>0.07670316552106167</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08275650033932758</v>
+        <v>0.09733040894320483</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1240374712510517</v>
+        <v>0.07698919036146512</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02602566427458836</v>
+        <v>0.02795505478344894</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1245324646200715</v>
+        <v>0.05491995925262399</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03105151048171319</v>
+        <v>0.02795505478344894</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1257366146928469</v>
+        <v>0.05491995925262399</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05602553423515916</v>
+        <v>0.06757070769409612</v>
       </c>
       <c r="M139" t="n">
-        <v>0.126097121998877</v>
+        <v>0.07775389381587074</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08185186502854908</v>
+        <v>0.09659790486973235</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1257366146928469</v>
+        <v>0.07804383680477286</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02268146053412747</v>
+        <v>0.02808052077343963</v>
       </c>
       <c r="G140" t="n">
-        <v>0.126215335763586</v>
+        <v>0.05566212086414594</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03053245361983893</v>
+        <v>0.02808052077343963</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1274357581346421</v>
+        <v>0.05566212086414594</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05595972911704325</v>
+        <v>0.06782677671257634</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1278011371610241</v>
+        <v>0.0788046221106798</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08004723001513747</v>
+        <v>0.09666496004321118</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1274357581346421</v>
+        <v>0.07909848324808061</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02535279356751457</v>
+        <v>0.02820174204167127</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1278982069071005</v>
+        <v>0.05640428247566788</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03012189615947865</v>
+        <v>0.02820174204167127</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1291349015764374</v>
+        <v>0.05640428247566788</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05500393958806837</v>
+        <v>0.06758462523421963</v>
       </c>
       <c r="M141" t="n">
-        <v>0.129505152323171</v>
+        <v>0.07985535040548887</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07886499944694447</v>
+        <v>0.09613327660661614</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1291349015764374</v>
+        <v>0.08015312969138835</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02404669777719218</v>
+        <v>0.02831864399529992</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1295810780506149</v>
+        <v>0.05714644408718983</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02962833738933658</v>
+        <v>0.02831864399529992</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1308340450182326</v>
+        <v>0.05714644408718983</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05437375065570649</v>
+        <v>0.06744417778679301</v>
       </c>
       <c r="M142" t="n">
-        <v>0.131209167485318</v>
+        <v>0.08090607870029794</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07802757747182215</v>
+        <v>0.09580455670292232</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1308340450182326</v>
+        <v>0.0812077761346961</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02377020756560292</v>
+        <v>0.02843115204148176</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1312639491941294</v>
+        <v>0.05788860569871177</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02916027659811701</v>
+        <v>0.02843115204148176</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1325331884600278</v>
+        <v>0.05788860569871177</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05368474732742948</v>
+        <v>0.06760535889806366</v>
       </c>
       <c r="M143" t="n">
-        <v>0.132913182647465</v>
+        <v>0.08195680699510699</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07675736823762253</v>
+        <v>0.09548050247510453</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1325331884600278</v>
+        <v>0.08226242257800384</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02153035733518927</v>
+        <v>0.02853919158737291</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1329468203376439</v>
+        <v>0.05863076731023372</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02892621307452416</v>
+        <v>0.02853919158737291</v>
       </c>
       <c r="K144" t="n">
-        <v>0.134232331901823</v>
+        <v>0.05863076731023372</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05285251461070917</v>
+        <v>0.06716809309579855</v>
       </c>
       <c r="M144" t="n">
-        <v>0.134617197809612</v>
+        <v>0.08300753528991606</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07647677589219742</v>
+        <v>0.0951628160661378</v>
       </c>
       <c r="O144" t="n">
-        <v>0.134232331901823</v>
+        <v>0.08331706902131158</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02233418148839387</v>
+        <v>0.02864268804012951</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1346296914811584</v>
+        <v>0.05937292892175566</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02853464610726231</v>
+        <v>0.02864268804012951</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1359314753436183</v>
+        <v>0.05937292892175566</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0521926375130175</v>
+        <v>0.06753230490776485</v>
       </c>
       <c r="M145" t="n">
-        <v>0.136321212971759</v>
+        <v>0.08405826358472512</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07530820458339904</v>
+        <v>0.09485319961899719</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1359314753436183</v>
+        <v>0.08437171546461932</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02118871442765923</v>
+        <v>0.02874156680690769</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1363125626246729</v>
+        <v>0.06011509053327761</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02839407498503568</v>
+        <v>0.02874156680690769</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1376306187854135</v>
+        <v>0.06011509053327761</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05212070104182639</v>
+        <v>0.06759791886172956</v>
       </c>
       <c r="M146" t="n">
-        <v>0.138025228133906</v>
+        <v>0.08510899187953419</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07527405845907897</v>
+        <v>0.09555335527665748</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1376306187854135</v>
+        <v>0.08542636190792706</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02210099055542792</v>
+        <v>0.02883575329486354</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1379954337681873</v>
+        <v>0.06085725214479955</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02841299899654856</v>
+        <v>0.02883575329486354</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1393297622272087</v>
+        <v>0.06085725214479955</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05105229020460766</v>
+        <v>0.06736485948545981</v>
       </c>
       <c r="M147" t="n">
-        <v>0.139729243296053</v>
+        <v>0.08615972017434326</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07389674166708948</v>
+        <v>0.0943649851820938</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1393297622272087</v>
+        <v>0.0864810083512348</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02107721229796671</v>
+        <v>0.02892517291115328</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1396783049117018</v>
+        <v>0.0615994137563215</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02819991743050516</v>
+        <v>0.02892517291115328</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1410289056690039</v>
+        <v>0.0615994137563215</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05110299000883331</v>
+        <v>0.06723305130672266</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1414332584582</v>
+        <v>0.08721044846915231</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07399865835528247</v>
+        <v>0.09478979147828098</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1410289056690039</v>
+        <v>0.08753565479454255</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02308393199960752</v>
+        <v>0.02900975106293295</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1413611760552163</v>
+        <v>0.06234157536784344</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02796322795077094</v>
+        <v>0.02900975106293295</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1427280491107992</v>
+        <v>0.06234157536784344</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05068838546197513</v>
+        <v>0.06690241885328521</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1431372736203469</v>
+        <v>0.08826117676396138</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07450194478816163</v>
+        <v>0.09412947630819396</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1427280491107992</v>
+        <v>0.08859030123785028</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02410035111969838</v>
+        <v>0.02908941315735877</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1430440471987308</v>
+        <v>0.0630837369793654</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02816992370984124</v>
+        <v>0.02908941315735877</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1444271925525944</v>
+        <v>0.0630837369793654</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05068839117227533</v>
+        <v>0.06717288665291449</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1448412887824939</v>
+        <v>0.08931190505877044</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07441959482705462</v>
+        <v>0.09418574181480793</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1444271925525944</v>
+        <v>0.08964494768115802</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02412595277291023</v>
+        <v>0.02916408460158681</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1447269183422453</v>
+        <v>0.06382589859088733</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02808828980160201</v>
+        <v>0.02916408460158681</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1461263359943897</v>
+        <v>0.06382589859088733</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05131507700099239</v>
+        <v>0.06684437923337763</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1465453039446409</v>
+        <v>0.09036263335357951</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07366800789426398</v>
+        <v>0.09396029014109758</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1461263359943897</v>
+        <v>0.09069959412446577</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02116022007391403</v>
+        <v>0.02923369080277323</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1464097894857598</v>
+        <v>0.06456806020240928</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02801770170141528</v>
+        <v>0.02923369080277323</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1478254794361849</v>
+        <v>0.06456806020240928</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05106232940693217</v>
+        <v>0.06721682112244171</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1482493191067879</v>
+        <v>0.09141336164838858</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07414553774116678</v>
+        <v>0.09445482343003803</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1478254794361849</v>
+        <v>0.09175424056777351</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02320263613738067</v>
+        <v>0.02929815716807416</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1480926606292742</v>
+        <v>0.06531022181393123</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02835753488464303</v>
+        <v>0.02929815716807416</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1495246228779801</v>
+        <v>0.06531022181393123</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05152900320942291</v>
+        <v>0.06689013684787376</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1499533342689349</v>
+        <v>0.09246408994319763</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07475053811913995</v>
+        <v>0.09357104382460418</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1495246228779801</v>
+        <v>0.09280888701108125</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0242526840779811</v>
+        <v>0.02935740910464572</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1497755317727887</v>
+        <v>0.06605238342545318</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02810716482664735</v>
+        <v>0.02935740910464572</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1512237663197753</v>
+        <v>0.06605238342545318</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05111395322779261</v>
+        <v>0.06686425093744089</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1516573494310819</v>
+        <v>0.0935148182380067</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07428136277956038</v>
+        <v>0.09431065346777096</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1512237663197753</v>
+        <v>0.093863533454389</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02430984701038625</v>
+        <v>0.02941137201964407</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1514584029163032</v>
+        <v>0.06679454503697511</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02816596700279024</v>
+        <v>0.02941137201964407</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1529229097615706</v>
+        <v>0.06679454503697511</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05161603428136938</v>
+        <v>0.06663908791891018</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1533613645932289</v>
+        <v>0.09456554653281576</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07413636547380503</v>
+        <v>0.09357535450251336</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1529229097615706</v>
+        <v>0.09491817989769674</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02437360804926703</v>
+        <v>0.02945997132022531</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1531412740598176</v>
+        <v>0.06753670664849706</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02823331688843374</v>
+        <v>0.02945997132022531</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1546220532033658</v>
+        <v>0.06753670664849706</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05143410118948125</v>
+        <v>0.06671475641325084</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1550653797553758</v>
+        <v>0.09561627482762483</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07451389995325097</v>
+        <v>0.0934664291378835</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1546220532033658</v>
+        <v>0.09597282634100447</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02444345030929438</v>
+        <v>0.0295031324135456</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1548241452033322</v>
+        <v>0.06827886826001901</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02850858995893987</v>
+        <v>0.0295031324135456</v>
       </c>
       <c r="K157" t="n">
-        <v>0.156321196645161</v>
+        <v>0.06827886826001901</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05176700877145637</v>
+        <v>0.06699193587076821</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1567693949175228</v>
+        <v>0.09666700312243388</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07501231996927499</v>
+        <v>0.09427026907482289</v>
       </c>
       <c r="O157" t="n">
-        <v>0.156321196645161</v>
+        <v>0.09702747278431222</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02451885690513924</v>
+        <v>0.02954078070676107</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1565070163468466</v>
+        <v>0.06902102987154096</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02839116168967069</v>
+        <v>0.02954078070676107</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1580203400869563</v>
+        <v>0.06902102987154096</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05161361184662283</v>
+        <v>0.06677060650834157</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1584734100796698</v>
+        <v>0.09771773141724295</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07482997927325413</v>
+        <v>0.09377940209460012</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1580203400869563</v>
+        <v>0.09808211922761996</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02459931095147253</v>
+        <v>0.02957284160702785</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1581898874903611</v>
+        <v>0.0697631914830629</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0285804075559882</v>
+        <v>0.02957284160702785</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1597194835287515</v>
+        <v>0.0697631914830629</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05197276523430866</v>
+        <v>0.0670506632343246</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1601774252418168</v>
+        <v>0.09876845971205202</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07516523161656546</v>
+        <v>0.0939935094699485</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1597194835287515</v>
+        <v>0.0991367656709277</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02169443183523097</v>
+        <v>0.02959924052150205</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1598727586338756</v>
+        <v>0.07050535309458485</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02877570303325444</v>
+        <v>0.02959924052150205</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1614186269705467</v>
+        <v>0.07050535309458485</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05234332375384199</v>
+        <v>0.06653200095707104</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1618814404039638</v>
+        <v>0.09981918800686108</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07521643075058571</v>
+        <v>0.09361227247360132</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1614186269705467</v>
+        <v>0.1001914121142354</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02486359214178411</v>
+        <v>0.02961990285733983</v>
       </c>
       <c r="G161" t="n">
-        <v>0.16155562977739</v>
+        <v>0.0712475147061068</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02898852042430905</v>
+        <v>0.02961990285733983</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1631177704123419</v>
+        <v>0.0712475147061068</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05192748504808242</v>
+        <v>0.06711451458493456</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1635854555661108</v>
+        <v>0.1008699163016702</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07621381769641283</v>
+        <v>0.09443537237829186</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1631177704123419</v>
+        <v>0.1012460585575432</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02410356838276406</v>
+        <v>0.02963475402169732</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1632385009209046</v>
+        <v>0.07198967631762875</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02888982434448252</v>
+        <v>0.02963475402169732</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1648169138541372</v>
+        <v>0.07198967631762875</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05234269225064925</v>
+        <v>0.06649809902626883</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1652894707282578</v>
+        <v>0.1019206445964792</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07674445537065611</v>
+        <v>0.09446249045675326</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1648169138541372</v>
+        <v>0.1023007050008509</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02239875703763337</v>
+        <v>0.02964371942173066</v>
       </c>
       <c r="G163" t="n">
-        <v>0.164921372064419</v>
+        <v>0.07273183792915069</v>
       </c>
       <c r="J163" t="n">
-        <v>0.029475615647354</v>
+        <v>0.02964371942173066</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1665160572959324</v>
+        <v>0.07273183792915069</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05332246085525549</v>
+        <v>0.0671826491894276</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1669934858904047</v>
+        <v>0.1029713728912883</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0773978020126091</v>
+        <v>0.09389330798171897</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1665160572959324</v>
+        <v>0.1033553514441587</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02573355458585466</v>
+        <v>0.02964672446459596</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1666042432079335</v>
+        <v>0.07347399954067263</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02952704144144719</v>
+        <v>0.02964672446459596</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1682152007377276</v>
+        <v>0.07347399954067263</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05343222062140829</v>
+        <v>0.06696805998276451</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1686975010525517</v>
+        <v>0.1040221011860974</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07782416134970499</v>
+        <v>0.09462750622592198</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1682152007377276</v>
+        <v>0.1044099978874664</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02609235750689048</v>
+        <v>0.02964672446459596</v>
       </c>
       <c r="G165" t="n">
-        <v>0.168287114351448</v>
+        <v>0.07347399954067263</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03022524883528571</v>
+        <v>0.02964672446459596</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1699143441795228</v>
+        <v>0.07347399954067263</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05403740130861451</v>
+        <v>0.06665422631463325</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1704015162146987</v>
+        <v>0.1050728294809064</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07877383710937658</v>
+        <v>0.09426476646209586</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1699143441795228</v>
+        <v>0.1054646443307741</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02345956228020337</v>
+        <v>0.02893372628074892</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1699699854949625</v>
+        <v>0.07347373101220862</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0305513849373933</v>
+        <v>0.02893372628074892</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1716134876213181</v>
+        <v>0.07347373101220862</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05550343267638125</v>
+        <v>0.06674104309338755</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1721055313768457</v>
+        <v>0.1061235577757155</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07989713301905682</v>
+        <v>0.09400476996297369</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1716134876213181</v>
+        <v>0.1065192907740819</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02581956538525596</v>
+        <v>0.02822847454207791</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1716528566384769</v>
+        <v>0.0734734624837446</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03108659685629359</v>
+        <v>0.02822847454207791</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1733126310631133</v>
+        <v>0.0734734624837446</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05599574448421557</v>
+        <v>0.06702840522738115</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1738095465389927</v>
+        <v>0.1071742860705245</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08154435280617867</v>
+        <v>0.09374719800128867</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1733126310631133</v>
+        <v>0.1075739372173896</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0271567633015108</v>
+        <v>0.02753207178000612</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1733357277819914</v>
+        <v>0.07347319395528058</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03141203170051028</v>
+        <v>0.02753207178000612</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1750117745049085</v>
+        <v>0.07347319395528058</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05677976649162439</v>
+        <v>0.06681620762496762</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1755135617011397</v>
+        <v>0.1082250143653336</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08206580019817505</v>
+        <v>0.09429173184977424</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1750117745049085</v>
+        <v>0.1086285836606974</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02745555250843042</v>
+        <v>0.02684562052604737</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1750185989255059</v>
+        <v>0.07347292542681656</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03170883657856705</v>
+        <v>0.02684562052604737</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1767109179467038</v>
+        <v>0.07347292542681656</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05762092845811476</v>
+        <v>0.06670434519450075</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1772175768632867</v>
+        <v>0.1092757426601427</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08401177892247896</v>
+        <v>0.09433805278116358</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1767109179467038</v>
+        <v>0.1096832301040051</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02671583081627799</v>
+        <v>0.02617022331162436</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1767014700690204</v>
+        <v>0.07347265689835254</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03215815859898755</v>
+        <v>0.02617022331162436</v>
       </c>
       <c r="K170" t="n">
-        <v>0.178410061388499</v>
+        <v>0.07347265689835254</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05778466014319378</v>
+        <v>0.06679271284433425</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1789215920254337</v>
+        <v>0.1103264709549517</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08463259270652335</v>
+        <v>0.09428584206819002</v>
       </c>
       <c r="O170" t="n">
-        <v>0.178410061388499</v>
+        <v>0.1107378765473129</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02696788713658742</v>
+        <v>0.02550698266819028</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1783843412125349</v>
+        <v>0.07347238836988854</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03226477561172668</v>
+        <v>0.02550698266819028</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1801092048302942</v>
+        <v>0.07347238836988854</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05885597914706509</v>
+        <v>0.06658120548282168</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1806256071875806</v>
+        <v>0.1113771992497608</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0858408359756217</v>
+        <v>0.09473478098358673</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1801092048302942</v>
+        <v>0.1117925229906206</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0282137403148491</v>
+        <v>0.02485700112717036</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1800672123560493</v>
+        <v>0.0734721198414245</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03256271297241937</v>
+        <v>0.02485700112717036</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1818083482720894</v>
+        <v>0.0734721198414245</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05890292362855168</v>
+        <v>0.0665697180183169</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1823296223497276</v>
+        <v>0.1124279275445698</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08642619965861359</v>
+        <v>0.0948845508000869</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1818083482720894</v>
+        <v>0.1128471694339283</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02545388534169763</v>
+        <v>0.0242213812200744</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1817500834995638</v>
+        <v>0.0734718513129605</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03295329259404196</v>
+        <v>0.0242213812200744</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1835074917138847</v>
+        <v>0.0734718513129605</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05983612646408859</v>
+        <v>0.0663581453591735</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1840336375118746</v>
+        <v>0.1134786558393789</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08679216832165515</v>
+        <v>0.09503483279042396</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1835074917138847</v>
+        <v>0.1139018158772361</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02568881720776772</v>
+        <v>0.02360122547832706</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1834329546430783</v>
+        <v>0.07347158278449648</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03333711254705524</v>
+        <v>0.02360122547832706</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1852066351556799</v>
+        <v>0.07347158278449648</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06055668432575326</v>
+        <v>0.06654638241374522</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1857376526740216</v>
+        <v>0.114529384134188</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08734031848008728</v>
+        <v>0.09498530822733109</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1852066351556799</v>
+        <v>0.1149564623205438</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02891903090369403</v>
+        <v>0.02299763643338153</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1851158257865928</v>
+        <v>0.07347131425603247</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03361477090191993</v>
+        <v>0.02299763643338153</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1869057785974751</v>
+        <v>0.07347131425603247</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06046569388562301</v>
+        <v>0.06693432409038574</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1874416678361686</v>
+        <v>0.1155801124289971</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08847222664925086</v>
+        <v>0.09483565838354152</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1869057785974751</v>
+        <v>0.1160111087638516</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02814502142011122</v>
+        <v>0.02241171661666587</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1867986969301073</v>
+        <v>0.07347104572756843</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0339868657290968</v>
+        <v>0.02241171661666587</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1886049220392704</v>
+        <v>0.07347104572756843</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06136425181577529</v>
+        <v>0.06652186529744872</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1891456829983156</v>
+        <v>0.1166308407238061</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08938946934448677</v>
+        <v>0.0942855645317886</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1886049220392704</v>
+        <v>0.1170657552071593</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02636728374765395</v>
+        <v>0.02184456855968436</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1884815680736217</v>
+        <v>0.07347077719910443</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03395399509904662</v>
+        <v>0.02184456855968436</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1903040654810656</v>
+        <v>0.07347077719910443</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06145345478828737</v>
+        <v>0.06680890094328792</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1908496981604626</v>
+        <v>0.1176815690186152</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08989362308113563</v>
+        <v>0.09503470794480556</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1903040654810656</v>
+        <v>0.1181204016504671</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02658631287695689</v>
+        <v>0.02129729479386432</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1901644392171362</v>
+        <v>0.07347050867064041</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0343167570822301</v>
+        <v>0.02129729479386432</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1920032089228608</v>
+        <v>0.07347050867064041</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06243439947523671</v>
+        <v>0.06629532593625703</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1925537133226095</v>
+        <v>0.1187322973134242</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09008626437453865</v>
+        <v>0.09508276989532566</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1920032089228608</v>
+        <v>0.1191750480937748</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02880260379865474</v>
+        <v>0.02077099785065893</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1918473103606507</v>
+        <v>0.0734702401421764</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03477574974910805</v>
+        <v>0.02077099785065893</v>
       </c>
       <c r="K179" t="n">
-        <v>0.193702352364656</v>
+        <v>0.0734702401421764</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06310818254870074</v>
+        <v>0.06648103518470969</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1942577284847565</v>
+        <v>0.1197830256082333</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09096896974003649</v>
+        <v>0.09442943165608209</v>
       </c>
       <c r="O179" t="n">
-        <v>0.193702352364656</v>
+        <v>0.1202296945370825</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02801665150338212</v>
+        <v>0.02026678026149994</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1935301815041652</v>
+        <v>0.07346997161371237</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03473157117014117</v>
+        <v>0.02026678026149994</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1954014958064513</v>
+        <v>0.07346997161371237</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0632759006807567</v>
+        <v>0.06626592359699962</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1959617436469035</v>
+        <v>0.1208337539030424</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09144331569296987</v>
+        <v>0.0951743744998082</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1954014958064513</v>
+        <v>0.1212843409803903</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02823494829410157</v>
+        <v>0.01978574455788451</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1952130526476797</v>
+        <v>0.07346970308524836</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03508481941579024</v>
+        <v>0.01978574455788451</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1971006392482465</v>
+        <v>0.07346970308524836</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06353865054348209</v>
+        <v>0.06624988608148052</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1976657588090505</v>
+        <v>0.1218844821978514</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09231087874867999</v>
+        <v>0.09451727969923718</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1971006392482465</v>
+        <v>0.122338987423698</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02846589459018872</v>
+        <v>0.01932899327124339</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1968959237911941</v>
+        <v>0.07346943455678434</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03524693343827538</v>
+        <v>0.01932899327124339</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1987997826900418</v>
+        <v>0.07346943455678434</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06430942392779557</v>
+        <v>0.06633281754650608</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1993697739711975</v>
+        <v>0.1229352104926605</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0937018120159418</v>
+        <v>0.0953578285271024</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1987997826900418</v>
+        <v>0.1233936338670057</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02870146703228011</v>
+        <v>0.01889762893302978</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1985787949347086</v>
+        <v>0.07346916602832032</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03552264994657252</v>
+        <v>0.01889762893302978</v>
       </c>
       <c r="K183" t="n">
-        <v>0.200498926131837</v>
+        <v>0.07346916602832032</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0649079909251313</v>
+        <v>0.06631461290043</v>
       </c>
       <c r="M183" t="n">
-        <v>0.2010737891333445</v>
+        <v>0.1239859387874696</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09342860147233784</v>
+        <v>0.09479570225613704</v>
       </c>
       <c r="O183" t="n">
-        <v>0.200498926131837</v>
+        <v>0.1244482803103135</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02993316255430115</v>
+        <v>0.01849275407467986</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2002616660782231</v>
+        <v>0.0734688974998563</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03590169661012782</v>
+        <v>0.01849275407467986</v>
       </c>
       <c r="K184" t="n">
-        <v>0.2021980695736322</v>
+        <v>0.0734688974998563</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0655170095548237</v>
+        <v>0.06689516705160597</v>
       </c>
       <c r="M184" t="n">
-        <v>0.2027778042954915</v>
+        <v>0.1250366670822786</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09426416922693853</v>
+        <v>0.09513058215907433</v>
       </c>
       <c r="O184" t="n">
-        <v>0.2021980695736322</v>
+        <v>0.1255029267536212</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02915247809017723</v>
+        <v>0.01811547122768212</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2019445372217376</v>
+        <v>0.07346862897139228</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03637379963325935</v>
+        <v>0.01811547122768212</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2038972130154274</v>
+        <v>0.07346862897139228</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06541764092481492</v>
+        <v>0.0662743749083877</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2044818194576385</v>
+        <v>0.1260873953770877</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09498143352673288</v>
+        <v>0.09506214950864761</v>
       </c>
       <c r="O185" t="n">
-        <v>0.2038972130154274</v>
+        <v>0.126557573196929</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02835091057383373</v>
+        <v>0.01776688292347155</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2036274083652521</v>
+        <v>0.07346836044292827</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03632868522028514</v>
+        <v>0.01776688292347155</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2055963564572227</v>
+        <v>0.07346836044292827</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06609104614304706</v>
+        <v>0.06665213137912884</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2061858346197855</v>
+        <v>0.1271381236718968</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0959533126187096</v>
+        <v>0.09519008557759012</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2055963564572227</v>
+        <v>0.1276122196402367</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02851995693919605</v>
+        <v>0.01744809169350137</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2053102795087665</v>
+        <v>0.07346809191446425</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03665607957552323</v>
+        <v>0.01744809169350137</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2072954998990179</v>
+        <v>0.07346809191446425</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06641838631746236</v>
+        <v>0.06622833137218315</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2078898497819325</v>
+        <v>0.1281888519667058</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09625272474985741</v>
+        <v>0.0947140716386351</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2072954998990179</v>
+        <v>0.1286668660835445</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02965111412018955</v>
+        <v>0.01716020006921291</v>
       </c>
       <c r="G188" t="n">
-        <v>0.206993150652281</v>
+        <v>0.07346782338600023</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03684570890329171</v>
+        <v>0.01716020006921291</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2089946433408131</v>
+        <v>0.07346782338600023</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06658082255600292</v>
+        <v>0.06660286979590424</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2095938649440794</v>
+        <v>0.1292395802615149</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09735258816716519</v>
+        <v>0.09553378896451581</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2089946433408131</v>
+        <v>0.1297215125268522</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02874281442204089</v>
+        <v>0.0169043105820845</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2086760217957955</v>
+        <v>0.07346755485753621</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03708729940790861</v>
+        <v>0.0169043105820845</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2106937867826083</v>
+        <v>0.07346755485753621</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0674595159666109</v>
+        <v>0.0665756415586459</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2112978801062264</v>
+        <v>0.130290308556324</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09762582111762186</v>
+        <v>0.09524891882796555</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2106937867826083</v>
+        <v>0.1307761589701599</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03182733098410171</v>
+        <v>0.01667752599298887</v>
       </c>
       <c r="G190" t="n">
-        <v>0.21035889293931</v>
+        <v>0.07346728632907221</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03719020113595645</v>
+        <v>0.01667752599298887</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2123929302244036</v>
+        <v>0.07346728632907221</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06755471612921823</v>
+        <v>0.06654654156876175</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2130018952683734</v>
+        <v>0.131341036851133</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09759707034913145</v>
+        <v>0.09485914250171751</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2123929302244036</v>
+        <v>0.1318308054134677</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03090992295482457</v>
+        <v>0.01645676187264875</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2120417640828244</v>
+        <v>0.07346701780060819</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03738971527375506</v>
+        <v>0.01645676187264875</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2140920736661988</v>
+        <v>0.07346701780060819</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06793703200017764</v>
+        <v>0.06641546473460555</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2147059104305204</v>
+        <v>0.1323917651459421</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09805938988364565</v>
+        <v>0.09466414125850514</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2140920736661988</v>
+        <v>0.1328854518567754</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02899055904177569</v>
+        <v>0.01623863967544306</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2137246352263389</v>
+        <v>0.07346674927214417</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03738691528687897</v>
+        <v>0.01623863967544306</v>
       </c>
       <c r="K192" t="n">
-        <v>0.215791217107994</v>
+        <v>0.07346674927214417</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0680151310994245</v>
+        <v>0.06657218314812743</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2164099255926674</v>
+        <v>0.1334424934407511</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09791560937930194</v>
+        <v>0.09535490107553335</v>
       </c>
       <c r="O192" t="n">
-        <v>0.215791217107994</v>
+        <v>0.1339400983000832</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03006920795252133</v>
+        <v>0.01602375969997764</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2154075063698534</v>
+        <v>0.07346648074368015</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03728176336636986</v>
+        <v>0.01602375969997764</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2174903605497892</v>
+        <v>0.07346648074368015</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06788894409728677</v>
+        <v>0.06630093203609216</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2181139407548144</v>
+        <v>0.1344932217355602</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09876562917158471</v>
+        <v>0.09549605943444278</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2174903605497892</v>
+        <v>0.1349947447433909</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03014583839462771</v>
+        <v>0.0158127222448298</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2170903775133679</v>
+        <v>0.07346621221521614</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03767422170326938</v>
+        <v>0.0158127222448298</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2191895039915845</v>
+        <v>0.07346621221521614</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06845840166409251</v>
+        <v>0.0661032121527734</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2198179559169614</v>
+        <v>0.1355439500303693</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09880934959597837</v>
+        <v>0.09498679806472382</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2191895039915845</v>
+        <v>0.1360493911866986</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03122041907566107</v>
+        <v>0.01560612760858635</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2187732486568824</v>
+        <v>0.07346594368675212</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03746425248861922</v>
+        <v>0.01560612760858635</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2208886474333797</v>
+        <v>0.07346594368675212</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06822343447016965</v>
+        <v>0.0661807801133204</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2215219710791083</v>
+        <v>0.1365946783251783</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09894667098796694</v>
+        <v>0.09493048060303227</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2208886474333797</v>
+        <v>0.1371040376300064</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02929291870318764</v>
+        <v>0.0154045760898255</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2204561198003968</v>
+        <v>0.0734656751582881</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03775181791346105</v>
+        <v>0.0154045760898255</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2225877908751749</v>
+        <v>0.0734656751582881</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06868397318584629</v>
+        <v>0.06613539253288239</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2232259862412553</v>
+        <v>0.1376454066199874</v>
       </c>
       <c r="N196" t="n">
-        <v>0.098877493683035</v>
+        <v>0.0948304706860239</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2225877908751749</v>
+        <v>0.1381586840733141</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02936330598477368</v>
+        <v>0.01520866798715165</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2221389909439113</v>
+        <v>0.07346540662982408</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03773688016883654</v>
+        <v>0.01520866798715165</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2242869343169701</v>
+        <v>0.07346540662982408</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06873994848145032</v>
+        <v>0.06606880602660861</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2249300014034023</v>
+        <v>0.1386961349147965</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09960171801666656</v>
+        <v>0.09429013195035435</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2242869343169701</v>
+        <v>0.1392133305166219</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0304315496279854</v>
+        <v>0.01501900359914275</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2238218620874258</v>
+        <v>0.07346513810136006</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03801940144578736</v>
+        <v>0.01501900359914275</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2259860777587654</v>
+        <v>0.07346513810136006</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06879129102730983</v>
+        <v>0.06528277720964837</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2266340165655493</v>
+        <v>0.1397468632096055</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09951924432434628</v>
+        <v>0.09411282803267934</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2259860777587654</v>
+        <v>0.1402679769599296</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03049761834038905</v>
+        <v>0.01483618322438568</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2255047332309403</v>
+        <v>0.07346486957289605</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03799934393535517</v>
+        <v>0.01483618322438568</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2276852212005606</v>
+        <v>0.07346486957289605</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06923793149375276</v>
+        <v>0.06517906269715087</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2283380317276963</v>
+        <v>0.1407975915044146</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1002299729415581</v>
+        <v>0.09430192256965447</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2276852212005606</v>
+        <v>0.1413226234032374</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03156148082955084</v>
+        <v>0.01466080716145976</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2271876043744548</v>
+        <v>0.07346460104443202</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03817666982858164</v>
+        <v>0.01466080716145976</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2293843646423558</v>
+        <v>0.07346460104443202</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06907980055110718</v>
+        <v>0.06495941910426531</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2300420468898433</v>
+        <v>0.1418483197992237</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09973380420378652</v>
+        <v>0.09316077919793558</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2293843646423558</v>
+        <v>0.1423772698465451</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03162310580303705</v>
+        <v>0.01449347570896714</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2288704755179692</v>
+        <v>0.07346433251596801</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03795134131650847</v>
+        <v>0.01449347570896714</v>
       </c>
       <c r="K201" t="n">
-        <v>0.231083508084151</v>
+        <v>0.07346433251596801</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06881682886970106</v>
+        <v>0.06512560304614107</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2317460620519902</v>
+        <v>0.1428990480940327</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09983063844651574</v>
+        <v>0.09279276155417832</v>
       </c>
       <c r="O201" t="n">
-        <v>0.231083508084151</v>
+        <v>0.1434319162898529</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02968246196841386</v>
+        <v>0.0143347891654869</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2305533466614837</v>
+        <v>0.07346406398750399</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03802332059017731</v>
+        <v>0.0143347891654869</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2327826515259463</v>
+        <v>0.07346406398750399</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06944894711986241</v>
+        <v>0.06467937113792724</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2334500772141373</v>
+        <v>0.1439497763888418</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1008203760052302</v>
+        <v>0.09250123327503845</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2327826515259463</v>
+        <v>0.1444865627331606</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02973951803324756</v>
+        <v>0.01418534782960586</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2322362178049982</v>
+        <v>0.07346379545903998</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03809256984062985</v>
+        <v>0.01418534782960586</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2344817949677415</v>
+        <v>0.07346379545903998</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06937608597191924</v>
+        <v>0.06442247999477321</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2351540923762842</v>
+        <v>0.1450005046836508</v>
       </c>
       <c r="N203" t="n">
-        <v>0.101002917215414</v>
+        <v>0.09218955799717155</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2344817949677415</v>
+        <v>0.1455412091764683</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03179424270510437</v>
+        <v>0.01404575199990497</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2339190889485127</v>
+        <v>0.07346352693057595</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03845905125890771</v>
+        <v>0.01404575199990497</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2361809384095367</v>
+        <v>0.07346352693057595</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06959817609619956</v>
+        <v>0.06395668623182815</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2368581075384312</v>
+        <v>0.1460512329784599</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1007781624125515</v>
+        <v>0.09136109935723341</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2361809384095367</v>
+        <v>0.1465958556197761</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0298466046915505</v>
+        <v>0.0139166019749833</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2356019600920272</v>
+        <v>0.07346325840211194</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0385227270360526</v>
+        <v>0.0139166019749833</v>
       </c>
       <c r="K205" t="n">
-        <v>0.237880081851332</v>
+        <v>0.07346325840211194</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06991514816303132</v>
+        <v>0.06388374646424136</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2385621227005782</v>
+        <v>0.147101961273269</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1014460119321271</v>
+        <v>0.09161922099187964</v>
       </c>
       <c r="O205" t="n">
-        <v>0.237880081851332</v>
+        <v>0.1476505020630838</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03089657270015223</v>
+        <v>0.01379849805342138</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2372848312355416</v>
+        <v>0.07346298987364792</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0385835593631062</v>
+        <v>0.01379849805342138</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2395792252931272</v>
+        <v>0.07346298987364792</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06942693284274259</v>
+        <v>0.06340541730716204</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2402661378627252</v>
+        <v>0.148152689568078</v>
       </c>
       <c r="N206" t="n">
-        <v>0.100806366109625</v>
+        <v>0.09096728653776609</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2395792252931272</v>
+        <v>0.1487051485063915</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02994411543847574</v>
+        <v>0.01369204053380604</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2389677023790562</v>
+        <v>0.0734627213451839</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03854151043111015</v>
+        <v>0.01369204053380604</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2412783687349224</v>
+        <v>0.0734627213451839</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06973346080566137</v>
+        <v>0.06302345537573945</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2419701530248722</v>
+        <v>0.1492034178628871</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1016591252805296</v>
+        <v>0.09100865963154836</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2412783687349224</v>
+        <v>0.1497597949496993</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03098920161408731</v>
+        <v>0.01359782971472032</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2406505735225706</v>
+        <v>0.07346245281671988</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03839654243110614</v>
+        <v>0.01359782971472032</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2429775121767176</v>
+        <v>0.07346245281671988</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0699346627221156</v>
+        <v>0.06333961728512288</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2436741681870192</v>
+        <v>0.1502541461576962</v>
       </c>
       <c r="N208" t="n">
-        <v>0.101104189780325</v>
+        <v>0.09004670390988218</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2429775121767176</v>
+        <v>0.150814441393007</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03203179993455316</v>
+        <v>0.01351646589475927</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2423334446660851</v>
+        <v>0.07346218428825586</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03874861755413585</v>
+        <v>0.01351646589475927</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2446766556185129</v>
+        <v>0.07346218428825586</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07033046926243339</v>
+        <v>0.06275565965046154</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2453781833491661</v>
+        <v>0.1513048744525052</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1013414599444957</v>
+        <v>0.08918478300942323</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2446766556185129</v>
+        <v>0.1518690878363148</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03307187910743955</v>
+        <v>0.01344854937250536</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2440163158095996</v>
+        <v>0.07346191575979186</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03879769799124093</v>
+        <v>0.01344854937250536</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2463757990603082</v>
+        <v>0.07346191575979186</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0701208110969426</v>
+        <v>0.06247333908690464</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2470821985113132</v>
+        <v>0.1523556027473143</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1012708361085259</v>
+        <v>0.08862626056682726</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2463757990603082</v>
+        <v>0.1529237342796225</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03310940784031267</v>
+        <v>0.01339468044654543</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2456991869531141</v>
+        <v>0.07346164723132784</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03884374593346307</v>
+        <v>0.01339468044654543</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2480749425021034</v>
+        <v>0.07346164723132784</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07040561889597141</v>
+        <v>0.06199441220960153</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2487862136734601</v>
+        <v>0.1534063310421233</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1021922186078999</v>
+        <v>0.08857450021874996</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2480749425021034</v>
+        <v>0.1539783807229302</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03214435484073879</v>
+        <v>0.01335545941546495</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2473820580966286</v>
+        <v>0.07346137870286382</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03878672357184393</v>
+        <v>0.01335545941546495</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2497740859438986</v>
+        <v>0.07346137870286382</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07048482332984765</v>
+        <v>0.0619206356337014</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2504902288356071</v>
+        <v>0.1544570593369324</v>
       </c>
       <c r="N212" t="n">
-        <v>0.101505507778102</v>
+        <v>0.08853286560184698</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2497740859438986</v>
+        <v>0.155033027166238</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03317668881628413</v>
+        <v>0.0133314865778542</v>
       </c>
       <c r="G213" t="n">
-        <v>0.249064929240143</v>
+        <v>0.0734611101743998</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03862659309742517</v>
+        <v>0.0133314865778542</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2514732293856938</v>
+        <v>0.0734611101743998</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07055835506889943</v>
+        <v>0.0612537659743535</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2521942439977541</v>
+        <v>0.1555077876317415</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1018106039546165</v>
+        <v>0.087604720352774</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2514732293856938</v>
+        <v>0.1560876736095457</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03320637847451493</v>
+        <v>0.01332336223229798</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2507478003836575</v>
+        <v>0.07346084164593579</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03876331670124847</v>
+        <v>0.01332336223229798</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2531723728274891</v>
+        <v>0.07346084164593579</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07042614478345477</v>
+        <v>0.06119555984670708</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2538982591599011</v>
+        <v>0.1565585159265506</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1026074074729278</v>
+        <v>0.08689342810818684</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2531723728274891</v>
+        <v>0.1571423200528535</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03123339252299743</v>
+        <v>0.01332336223229798</v>
       </c>
       <c r="G215" t="n">
-        <v>0.252430671527172</v>
+        <v>0.07346084164593579</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03869685657435552</v>
+        <v>0.01332336223229798</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2548715162692843</v>
+        <v>0.07346084164593579</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07068812314384162</v>
+        <v>0.06144777386591141</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2556022743220481</v>
+        <v>0.1576092442213596</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1019958186685199</v>
+        <v>0.08650235250474114</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2548715162692843</v>
+        <v>0.1581969664961612</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03325769966929786</v>
+        <v>0.01282082823732217</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2541135426706865</v>
+        <v>0.07340002136265905</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03872717490778797</v>
+        <v>0.01282082823732217</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2565706597110795</v>
+        <v>0.07340002136265905</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07044422082038798</v>
+        <v>0.06081216464711572</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2573062894841951</v>
+        <v>0.1586599725161687</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1023757378768775</v>
+        <v>0.0870348571790926</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2565706597110795</v>
+        <v>0.159251612939469</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03227926862098247</v>
+        <v>0.01232019260503907</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2557964138142009</v>
+        <v>0.0733392010793823</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03895423389258748</v>
+        <v>0.01232019260503907</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2582698031528747</v>
+        <v>0.0733392010793823</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0705943684834219</v>
+        <v>0.06049048880546928</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2590103046463421</v>
+        <v>0.1597107008109777</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1029470654334846</v>
+        <v>0.08639430576789686</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2582698031528747</v>
+        <v>0.1603062593827767</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03329806808561748</v>
+        <v>0.01182308740795476</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2574792849577154</v>
+        <v>0.07327838079610556</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03907799571979576</v>
+        <v>0.01182308740795476</v>
       </c>
       <c r="K218" t="n">
-        <v>0.25996894659467</v>
+        <v>0.07327838079610556</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07063849680327133</v>
+        <v>0.06038450295612127</v>
       </c>
       <c r="M218" t="n">
-        <v>0.260714319808489</v>
+        <v>0.1607614291057868</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1026097016738255</v>
+        <v>0.08558406190780971</v>
       </c>
       <c r="O218" t="n">
-        <v>0.25996894659467</v>
+        <v>0.1613609058260844</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03131406677076912</v>
+        <v>0.01133114471857496</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2591621561012299</v>
+        <v>0.07321756051282881</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03889842258045444</v>
+        <v>0.01133114471857496</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2616680900364652</v>
+        <v>0.07321756051282881</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07057653645026432</v>
+        <v>0.06009596371422107</v>
       </c>
       <c r="M219" t="n">
-        <v>0.262418334970636</v>
+        <v>0.1618121574005959</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1028635469333847</v>
+        <v>0.08620748923548688</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2616680900364652</v>
+        <v>0.1624155522693922</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03232723338400365</v>
+        <v>0.01084599660940576</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2608450272447444</v>
+        <v>0.07315674022955207</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03901547666560523</v>
+        <v>0.01084599660940576</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2633672334782604</v>
+        <v>0.07315674022955207</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07090841809472886</v>
+        <v>0.06032662769491784</v>
       </c>
       <c r="M220" t="n">
-        <v>0.264122350132783</v>
+        <v>0.1628628856954049</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1029085015476464</v>
+        <v>0.085567951387584</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2633672334782604</v>
+        <v>0.1634701987126999</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03133753663288728</v>
+        <v>0.01036927515295286</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2625278983882589</v>
+        <v>0.07309591994627533</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03892912016628977</v>
+        <v>0.01036927515295286</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2650663769200556</v>
+        <v>0.07309591994627533</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07073407240699292</v>
+        <v>0.06007825151336077</v>
       </c>
       <c r="M221" t="n">
-        <v>0.26582636529493</v>
+        <v>0.163913613990214</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1026444658520947</v>
+        <v>0.08546881200075679</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2650663769200556</v>
+        <v>0.1645248451560077</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03234494522498627</v>
+        <v>0.009902612421722301</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2642107695317733</v>
+        <v>0.07303509966299859</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03883931527354975</v>
+        <v>0.009902612421722301</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2667655203618509</v>
+        <v>0.07303509966299859</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07075343005738452</v>
+        <v>0.05995259178469922</v>
       </c>
       <c r="M222" t="n">
-        <v>0.267530380457077</v>
+        <v>0.1649643422850231</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1030713401822143</v>
+        <v>0.08541343471166096</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2667655203618509</v>
+        <v>0.1655794915993154</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03234942786786684</v>
+        <v>0.009447640488219847</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2658936406752878</v>
+        <v>0.07297427937972184</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03904602417842681</v>
+        <v>0.009447640488219847</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2684646638036461</v>
+        <v>0.07297427937972184</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07056642171623179</v>
+        <v>0.06005140512408244</v>
       </c>
       <c r="M223" t="n">
-        <v>0.269234395619224</v>
+        <v>0.1660150705798321</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1025890248734891</v>
+        <v>0.0846051831569522</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2684646638036461</v>
+        <v>0.1666341380426232</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03035095326909524</v>
+        <v>0.009005991424951579</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2675765118188023</v>
+        <v>0.0729134590964451</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03884920907196265</v>
+        <v>0.009005991424951579</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2701638072454413</v>
+        <v>0.0729134590964451</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07107297805386253</v>
+        <v>0.05987261223809881</v>
       </c>
       <c r="M224" t="n">
-        <v>0.270938410781371</v>
+        <v>0.1670657988746412</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1027974202614036</v>
+        <v>0.08544353249594006</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2701638072454413</v>
+        <v>0.1676887844859309</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03030637241670558</v>
+        <v>0.008579297304423181</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2692593829623167</v>
+        <v>0.07285263881316835</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03892921624402843</v>
+        <v>0.008579297304423181</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2718629506872365</v>
+        <v>0.07285263881316835</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07104923684136982</v>
+        <v>0.05919743549837309</v>
       </c>
       <c r="M225" t="n">
-        <v>0.272642425943518</v>
+        <v>0.1681165271694502</v>
       </c>
       <c r="N225" t="n">
-        <v>0.102944719113272</v>
+        <v>0.08439250938196791</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2718629506872365</v>
+        <v>0.1687434309292386</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03017685152916951</v>
+        <v>0.008169190199140738</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2709422541058312</v>
+        <v>0.07279181852989161</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03901184489899139</v>
+        <v>0.008169190199140738</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2735620941290318</v>
+        <v>0.07279181852989161</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07035553826210064</v>
+        <v>0.05972315275161211</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2743464411056649</v>
+        <v>0.1691672554642593</v>
       </c>
       <c r="N226" t="n">
-        <v>0.102535327932516</v>
+        <v>0.08454258648656476</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2735620941290318</v>
+        <v>0.1697980773725464</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0299721390383681</v>
+        <v>0.007777302181609977</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2726251252493457</v>
+        <v>0.07273099824661486</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03860020426897752</v>
+        <v>0.007777302181609977</v>
       </c>
       <c r="K227" t="n">
-        <v>0.275261237570827</v>
+        <v>0.07273099824661486</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06998712577066463</v>
+        <v>0.05904981642747503</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2760504562678119</v>
+        <v>0.1702179837590684</v>
       </c>
       <c r="N227" t="n">
-        <v>0.102177442663371</v>
+        <v>0.08459377375863081</v>
       </c>
       <c r="O227" t="n">
-        <v>0.275261237570827</v>
+        <v>0.1708527238158541</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03270199015344988</v>
+        <v>0.00740526532433694</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2743079963928602</v>
+        <v>0.07267017796333812</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03850608104654538</v>
+        <v>0.00740526532433694</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2769603810126223</v>
+        <v>0.07267017796333812</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06986561243351783</v>
+        <v>0.05957747895562127</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2777544714299589</v>
+        <v>0.1712687120538774</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1014021330590779</v>
+        <v>0.08474608114706628</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2769603810126223</v>
+        <v>0.1719073702591619</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02937616008356336</v>
+        <v>0.007054711699827396</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2759908675363747</v>
+        <v>0.07260935768006138</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03814126192425353</v>
+        <v>0.007054711699827396</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2786595244544174</v>
+        <v>0.07260935768006138</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06941261131711629</v>
+        <v>0.05930619276571003</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2794584865921059</v>
+        <v>0.1723194403486865</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09994046887287833</v>
+        <v>0.08519951860077141</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2786595244544174</v>
+        <v>0.1729620167024696</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03100440403785708</v>
+        <v>0.006727273380587373</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2776737386798891</v>
+        <v>0.07254853739678464</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03771753359466054</v>
+        <v>0.006727273380587373</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2803586678962127</v>
+        <v>0.07254853739678464</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06814973548791614</v>
+        <v>0.05933601028740063</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2811625017542529</v>
+        <v>0.1733701686434956</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0984235198580134</v>
+        <v>0.08485409606864663</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2803586678962127</v>
+        <v>0.1740166631457774</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02859647722547955</v>
+        <v>0.006424582439122625</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2793566098234037</v>
+        <v>0.07248771711350789</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03704668275032501</v>
+        <v>0.006424582439122625</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2820578113380079</v>
+        <v>0.07248771711350789</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06709859801237333</v>
+        <v>0.05946698395035244</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2828665169163999</v>
+        <v>0.1744208969383046</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0975823557677245</v>
+        <v>0.08490982349959209</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2820578113380079</v>
+        <v>0.1750713095890851</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03016213485557932</v>
+        <v>0.006148270947939183</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2810394809669181</v>
+        <v>0.07242689683023115</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03674049608380547</v>
+        <v>0.006148270947939183</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2837569547798032</v>
+        <v>0.07242689683023115</v>
       </c>
       <c r="L232" t="n">
-        <v>0.066180811956944</v>
+        <v>0.05939916618422469</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2845705320785468</v>
+        <v>0.1754716252331137</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09614804635525293</v>
+        <v>0.08436671084250796</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2837569547798032</v>
+        <v>0.1761259560323928</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02871113213730487</v>
+        <v>0.005899970979542826</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2827223521104326</v>
+        <v>0.0723660765469544</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0360107602876605</v>
+        <v>0.005899970979542826</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2854560982215983</v>
+        <v>0.0723660765469544</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06561799038808416</v>
+        <v>0.05863260941867673</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2862745472406938</v>
+        <v>0.1765223535279228</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09505166137384008</v>
+        <v>0.08442476804629467</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2854560982215983</v>
+        <v>0.1771806024757006</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02925322427980476</v>
+        <v>0.00568131460643953</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2844052232539471</v>
+        <v>0.07230525626367766</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03546926205444867</v>
+        <v>0.00568131460643953</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2871552416633936</v>
+        <v>0.07230525626367766</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06443174637224985</v>
+        <v>0.05876736608336783</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2879785624028408</v>
+        <v>0.1775730818227318</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09312427057672712</v>
+        <v>0.08398400505985237</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2871552416633936</v>
+        <v>0.1782352489190083</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02679816649222753</v>
+        <v>0.005493933901135145</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2860880943974616</v>
+        <v>0.07224443598040091</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03512778807672855</v>
+        <v>0.005493933901135145</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2888543851051888</v>
+        <v>0.07224443598040091</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06344369297589714</v>
+        <v>0.0589034886079573</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2896825775649878</v>
+        <v>0.1786238101175409</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09179694371715547</v>
+        <v>0.08464443183208137</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2888543851051888</v>
+        <v>0.179289895362316</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02635571398372166</v>
+        <v>0.005339460936135604</v>
       </c>
       <c r="G236" t="n">
-        <v>0.287770965540976</v>
+        <v>0.07218361569712417</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03429812504705872</v>
+        <v>0.005339460936135604</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2905535285469841</v>
+        <v>0.07218361569712417</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06257544326548209</v>
+        <v>0.05844102942210441</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2913865927271349</v>
+        <v>0.17967453841235</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09060075054836647</v>
+        <v>0.08470605831188199</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2905535285469841</v>
+        <v>0.1803445418056238</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02793562196343568</v>
+        <v>0.005219527783946784</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2894538366844905</v>
+        <v>0.07212279541384743</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0339920596579977</v>
+        <v>0.005219527783946784</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2922526719887793</v>
+        <v>0.07212279541384743</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06134861030746078</v>
+        <v>0.05848004095546855</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2930906078892818</v>
+        <v>0.180725266707159</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0893667608236014</v>
+        <v>0.0846688944481544</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2922526719887793</v>
+        <v>0.1813991882489315</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02854764564051817</v>
+        <v>0.00513576651707455</v>
       </c>
       <c r="G238" t="n">
-        <v>0.291136707828005</v>
+        <v>0.07206197513057069</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03352137860210412</v>
+        <v>0.00513576651707455</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2939518154305745</v>
+        <v>0.07206197513057069</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06108480716828921</v>
+        <v>0.05872057563770891</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2947946230514288</v>
+        <v>0.1817759950019681</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08782604429610147</v>
+        <v>0.08393295018979879</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2939518154305745</v>
+        <v>0.1824538346922393</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02718722793159347</v>
+        <v>0.005089809208024848</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2928195789715195</v>
+        <v>0.07200115484729394</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03309006902207372</v>
+        <v>0.005089809208024848</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2956509588723698</v>
+        <v>0.07200115484729394</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06029512437408702</v>
+        <v>0.05886268589848487</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2964986382135757</v>
+        <v>0.1828267232967772</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08648911108472174</v>
+        <v>0.08409823548571571</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2956509588723698</v>
+        <v>0.183508481135547</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02482657498032446</v>
+        <v>0.005078255054293518</v>
       </c>
       <c r="G240" t="n">
-        <v>0.294502450115034</v>
+        <v>0.0719403345640172</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03276301176806277</v>
+        <v>0.005078255054293518</v>
       </c>
       <c r="K240" t="n">
-        <v>0.297350102314165</v>
+        <v>0.0719403345640172</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05891672214243843</v>
+        <v>0.05840642416745565</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2982026533757228</v>
+        <v>0.1838774515915862</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08566338701615012</v>
+        <v>0.08456476028480508</v>
       </c>
       <c r="O240" t="n">
-        <v>0.297350102314165</v>
+        <v>0.1845631275788548</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02546450473830997</v>
+        <v>0.00507192709543032</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2961853212585485</v>
+        <v>0.07187951428074045</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03233426489567065</v>
+        <v>0.00507192709543032</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2990492457559602</v>
+        <v>0.07187951428074045</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05833523405600755</v>
+        <v>0.05875184287428065</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2999066685378697</v>
+        <v>0.1849281798863953</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08433320910898778</v>
+        <v>0.08453253453596732</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2990492457559602</v>
+        <v>0.1856177740221625</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02610099409509772</v>
+        <v>0.00506586108375276</v>
       </c>
       <c r="G242" t="n">
-        <v>0.297868192402063</v>
+        <v>0.07181869399746371</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0318038004817856</v>
+        <v>0.00506586108375276</v>
       </c>
       <c r="K242" t="n">
-        <v>0.3007483891977555</v>
+        <v>0.07181869399746371</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05785060891263841</v>
+        <v>0.05819899444861909</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3016106837000168</v>
+        <v>0.1859789081812044</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08349850375783707</v>
+        <v>0.08370156818810276</v>
       </c>
       <c r="O242" t="n">
-        <v>0.3007483891977555</v>
+        <v>0.1866724204654703</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02373601994023552</v>
+        <v>0.005060057670711007</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2995510635455774</v>
+        <v>0.07175787371418696</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03147159060329588</v>
+        <v>0.005060057670711007</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3024475326395507</v>
+        <v>0.07175787371418696</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05696279551017513</v>
+        <v>0.05814793132013032</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3033146988621637</v>
+        <v>0.1870296364760134</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08255919735730038</v>
+        <v>0.08467187119011155</v>
       </c>
       <c r="O243" t="n">
-        <v>0.3024475326395507</v>
+        <v>0.187727066908778</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0263695591632711</v>
+        <v>0.005054517507755277</v>
       </c>
       <c r="G244" t="n">
-        <v>0.3012339346890919</v>
+        <v>0.07169705343091022</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0307376073370897</v>
+        <v>0.005054517507755277</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3041466760813459</v>
+        <v>0.07169705343091022</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05587174264646175</v>
+        <v>0.05819870591847362</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3050187140243107</v>
+        <v>0.1880803647708225</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08141521630198018</v>
+        <v>0.08404345349089393</v>
       </c>
       <c r="O244" t="n">
-        <v>0.3041466760813459</v>
+        <v>0.1887817133520857</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02500158865375224</v>
+        <v>0.005049241246335753</v>
       </c>
       <c r="G245" t="n">
-        <v>0.3029168058326064</v>
+        <v>0.07163623314763348</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03050182276005529</v>
+        <v>0.005049241246335753</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3058458195231411</v>
+        <v>0.07163623314763348</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05527739911934237</v>
+        <v>0.05795137067330827</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3067227291864577</v>
+        <v>0.1891310930656315</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07976648698647881</v>
+        <v>0.08431632503935027</v>
       </c>
       <c r="O245" t="n">
-        <v>0.3058458195231411</v>
+        <v>0.1898363597953935</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02263208530122676</v>
+        <v>0.005044229537902623</v>
       </c>
       <c r="G246" t="n">
-        <v>0.3045996769761208</v>
+        <v>0.07157541286435674</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03006420894908091</v>
+        <v>0.005044229537902623</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3075449629649364</v>
+        <v>0.07157541286435674</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05457971372666107</v>
+        <v>0.05800597801429364</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3084267443486047</v>
+        <v>0.1901818213604406</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07951293580539859</v>
+        <v>0.08369049578438081</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3075449629649364</v>
+        <v>0.1908910062387012</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02326102599524237</v>
+        <v>0.00503948303390607</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3062825481196353</v>
+        <v>0.07151459258107999</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0295247379810548</v>
+        <v>0.00503948303390607</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3092441064067316</v>
+        <v>0.07151459258107999</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05407863526626192</v>
+        <v>0.05856258037108897</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3101307595107516</v>
+        <v>0.1912325496552497</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07815448915334205</v>
+        <v>0.0843659756748858</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3092441064067316</v>
+        <v>0.1919456526820089</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02188838762534685</v>
+        <v>0.005035002385796308</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3079654192631498</v>
+        <v>0.07145377229780325</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02918338193286517</v>
+        <v>0.005035002385796308</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3109432498485268</v>
+        <v>0.07145377229780325</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05327411253598899</v>
+        <v>0.05782123017335353</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3118347746728987</v>
+        <v>0.1922832779500587</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07639107342491147</v>
+        <v>0.08364277465976544</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3109432498485268</v>
+        <v>0.1930002991253167</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02251414708108797</v>
+        <v>0.005030788245023524</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3096482904066643</v>
+        <v>0.0713929520145265</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02854011288140029</v>
+        <v>0.005030788245023524</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3126423932903221</v>
+        <v>0.0713929520145265</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05206609433368636</v>
+        <v>0.05838197985074672</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3135387898350456</v>
+        <v>0.1933340062448678</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07572261501470939</v>
+        <v>0.08422090268792004</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3126423932903221</v>
+        <v>0.1940549455686244</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02413828125201353</v>
+        <v>0.005026841263037901</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3113311615501788</v>
+        <v>0.07133213173124976</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02829490290354839</v>
+        <v>0.005026841263037901</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3143415367321173</v>
+        <v>0.07133213173124976</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05125452945719816</v>
+        <v>0.05824488183292778</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3152428049971926</v>
+        <v>0.1943847345396769</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07384904031733813</v>
+        <v>0.08440036970824988</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3143415367321173</v>
+        <v>0.1951095920119322</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02176076702767128</v>
+        <v>0.005023162091289654</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3130140326936932</v>
+        <v>0.07127131144797301</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02764772407619767</v>
+        <v>0.005023162091289654</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3160406801739125</v>
+        <v>0.07127131144797301</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05013936670436842</v>
+        <v>0.05830998854955599</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3169468201593396</v>
+        <v>0.1954354628344859</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07277027572739997</v>
+        <v>0.08428118566965526</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3160406801739125</v>
+        <v>0.1961642384552399</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02238158129760898</v>
+        <v>0.005019751381228954</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3146969038372077</v>
+        <v>0.07121049116469629</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02719854847623643</v>
+        <v>0.005019751381228954</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3177398236157077</v>
+        <v>0.07121049116469629</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05002055487304113</v>
+        <v>0.05807735243029069</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3186508353214866</v>
+        <v>0.196486191129295</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07218624763949749</v>
+        <v>0.0840633605210363</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3177398236157077</v>
+        <v>0.1972188848985477</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02000070095137443</v>
+        <v>0.005016609784306</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3163797749807222</v>
+        <v>0.07114967088141953</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02704734818055282</v>
+        <v>0.005016609784306</v>
       </c>
       <c r="K253" t="n">
-        <v>0.319438967057503</v>
+        <v>0.07114967088141953</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04859804276106056</v>
+        <v>0.05824702590479119</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3203548504836336</v>
+        <v>0.197536919424104</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07109688244823303</v>
+        <v>0.08344690421129336</v>
       </c>
       <c r="O253" t="n">
-        <v>0.319438967057503</v>
+        <v>0.1982735313418554</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02161810287851535</v>
+        <v>0.005013737951970978</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3180626461242367</v>
+        <v>0.07108885059814279</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02649409526603518</v>
+        <v>0.005013737951970978</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3211381104992982</v>
+        <v>0.07108885059814279</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04807177916627065</v>
+        <v>0.05831906140271673</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3220588656457806</v>
+        <v>0.1985876477189131</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07010210654820898</v>
+        <v>0.08353182668932674</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3211381104992982</v>
+        <v>0.1993281777851632</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02123376396857956</v>
+        <v>0.005011136535674102</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3197455172677511</v>
+        <v>0.07102803031486604</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02583876180957168</v>
+        <v>0.005011136535674102</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3228372539410934</v>
+        <v>0.07102803031486604</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04754171288651551</v>
+        <v>0.05759351135372667</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3237628808079275</v>
+        <v>0.1996383760137222</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06800184633402767</v>
+        <v>0.08401813790403662</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3228372539410934</v>
+        <v>0.2003828242284709</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0218476611111148</v>
+        <v>0.005008806186865541</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3214283884112656</v>
+        <v>0.0709672100315893</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02568131988805056</v>
+        <v>0.005008806186865541</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3245363973828886</v>
+        <v>0.0709672100315893</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04640779271963918</v>
+        <v>0.05787042818748026</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3254668959700746</v>
+        <v>0.2006891043085312</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06679602820029157</v>
+        <v>0.08350584780432324</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3245363973828886</v>
+        <v>0.2014374706717786</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02045977119566885</v>
+        <v>0.005006747556995511</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3231112595547801</v>
+        <v>0.07090638974831255</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02492174157836008</v>
+        <v>0.005006747556995511</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3262355408246839</v>
+        <v>0.07090638974831255</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04516996746348584</v>
+        <v>0.05794986433363686</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3271709111322215</v>
+        <v>0.2017398326033403</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06628457854160313</v>
+        <v>0.08409496633908703</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3262355408246839</v>
+        <v>0.2024921171150864</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02007007111178948</v>
+        <v>0.005004961297514196</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3247941306982946</v>
+        <v>0.07084556946503581</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02455999895738843</v>
+        <v>0.005004961297514196</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3279346842664791</v>
+        <v>0.07084556946503581</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04432818591589946</v>
+        <v>0.05823187222185572</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3288749262943685</v>
+        <v>0.2027905608981494</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06496742375256453</v>
+        <v>0.08378550345722813</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3279346842664791</v>
+        <v>0.2035467635583941</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01867853774902446</v>
+        <v>0.005003448059871768</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3264770018418091</v>
+        <v>0.07078474918175907</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02429606410202395</v>
+        <v>0.005003448059871768</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3296338277082743</v>
+        <v>0.07078474918175907</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04368239687472422</v>
+        <v>0.05791650428179618</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3305789414565156</v>
+        <v>0.2038412891929584</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06384449022777849</v>
+        <v>0.08397746910764675</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3296338277082743</v>
+        <v>0.2046014100017018</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01928514799692158</v>
+        <v>0.00500220849551844</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3281598729853236</v>
+        <v>0.07072392889848234</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02362990908915479</v>
+        <v>0.00500220849551844</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3313329711500696</v>
+        <v>0.07072392889848234</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04323254913780411</v>
+        <v>0.05810381294311751</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3322829566186625</v>
+        <v>0.2048920174877675</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06251570436184706</v>
+        <v>0.08377087323924326</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3313329711500696</v>
+        <v>0.2056560564450096</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01788987874502856</v>
+        <v>0.005001243255904411</v>
       </c>
       <c r="G261" t="n">
-        <v>0.329842744128838</v>
+        <v>0.07066310861520558</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0231615059956692</v>
+        <v>0.005001243255904411</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3330321145918648</v>
+        <v>0.07066310861520558</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04217859150298325</v>
+        <v>0.05789385063547903</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3339869717808095</v>
+        <v>0.2059427457825766</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06078099254937291</v>
+        <v>0.08396572580091777</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3330321145918648</v>
+        <v>0.2067107028883173</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01749270688289321</v>
+        <v>0.005000552992479868</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3315256152723525</v>
+        <v>0.07060228833192884</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02289082689845544</v>
+        <v>0.005000552992479868</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3347312580336601</v>
+        <v>0.07060228833192884</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04162047276810571</v>
+        <v>0.05758666978854002</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3356909869429565</v>
+        <v>0.2069934740773856</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0596402811849584</v>
+        <v>0.08396203674157077</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3347312580336601</v>
+        <v>0.2077653493316251</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01609360930006328</v>
+        <v>0.005000138356694994</v>
       </c>
       <c r="G263" t="n">
-        <v>0.333208486415867</v>
+        <v>0.07054146804865209</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02231784387440172</v>
+        <v>0.005000138356694994</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3364304014754552</v>
+        <v>0.07054146804865209</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04055814173101552</v>
+        <v>0.05818232283195976</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3373950021051035</v>
+        <v>0.2080442023721947</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05809349666320573</v>
+        <v>0.08335981601010234</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3364304014754552</v>
+        <v>0.2088199957749328</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01869256288608658</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3348913575593815</v>
+        <v>0.07048064776537535</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02184252900039629</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3381295449172505</v>
+        <v>0.07048064776537535</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03929154718955688</v>
+        <v>0.05818086219539764</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3390990172672504</v>
+        <v>0.2090949306670037</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05704056537871743</v>
+        <v>0.08405907355541276</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3381295449172505</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2098746422182406</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.07046748987063851</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.07046748987063851</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005470611939002473</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.07046775839910252</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005470611939002473</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.07046775839910252</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005936569471253678</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.07046802692756654</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.005936569471253678</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.07046802692756654</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006397726070944076</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.07046829545603056</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.006397726070944076</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.07046829545603056</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006853935212204093</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.07046856398449458</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.006853935212204093</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.07046856398449458</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007305050369224464</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.07046883251295859</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.007305050369224464</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.07046883251295859</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007750925016175733</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.07046910104142261</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.007750925016175733</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.07046910104142261</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.008191412627247485</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.07046936956988663</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.008191412627247485</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.07046936956988663</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.00862636667657192</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.07046963809835065</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.00862636667657192</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.07046963809835065</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.009055640638338913</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.07046990662681467</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.009055640638338913</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.07046990662681467</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.009479087986718968</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.07047017515527867</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.009479087986718968</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.07047017515527867</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.00989656219590071</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.07047044368374271</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.00989656219590071</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.07047044368374271</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.0103079167400183</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.07047071221220672</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.0103079167400183</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.07047071221220672</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01071300509326065</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.07047098074067074</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01071300509326065</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.07047098074067074</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01111168072979822</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.07047124926913474</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.01111168072979822</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.07047124926913474</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01150379712381855</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.07047151779759878</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01150379712381855</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.07047151779759878</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01188920774945804</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.07047178632606278</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01188920774945804</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.07047178632606278</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01226776608090442</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0704720548545268</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01226776608090442</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.0704720548545268</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01263932559232828</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.07047232338299081</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.01263932559232828</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.07047232338299081</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01300373975791583</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.07047259191145484</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.01300373975791583</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.07047259191145484</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01336086205180592</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.07047286043991885</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.01336086205180592</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.07047286043991885</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0137105459481851</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.07047312896838287</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.0137105459481851</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.07047312896838287</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01405264492122393</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.07047339749684689</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.01405264492122393</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.07047339749684689</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01438701244510734</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.07047366602531091</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.01438701244510734</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.07047366602531091</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01471350199397675</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.07047393455377493</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.01471350199397675</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.07047393455377493</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01503256535582101</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.07047420308223894</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.01503256535582101</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.07047420308223894</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01534764588763225</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.07047447161070296</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.01534764588763225</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.07047447161070296</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01565919537739817</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.07047474013916698</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.01565919537739817</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.07047474013916698</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01596706729926216</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.070475008667631</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.01596706729926216</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.070475008667631</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01627111512740843</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.070475277196095</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.01627111512740843</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.070475277196095</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01657119233600753</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.07047554572455902</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.01657119233600753</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.07047554572455902</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01686715239924277</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.07047581425302304</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.01686715239924277</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.07047581425302304</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01715884879125899</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.07047608278148706</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.01715884879125899</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.07047608278148706</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01744613498623965</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.07047635130995107</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.01744613498623965</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.07047635130995107</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01772886445835531</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.07047661983841509</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.01772886445835531</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.07047661983841509</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01800689068178855</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.07047688836687911</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.01800689068178855</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.07047688836687911</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01828006713068567</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.07047715689534313</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.01828006713068567</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.07047715689534313</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01854824727922944</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.07047742542380715</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.01854824727922944</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.07047742542380715</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01881128460159041</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.07047769395227116</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.01881128460159041</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.07047769395227116</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01906903257195021</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.07047796248073519</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.01906903257195021</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.07047796248073519</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01932134466445699</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.0704782310091992</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.01932134466445699</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.0704782310091992</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01956807435329258</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.07047849953766322</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.01956807435329258</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.07047849953766322</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01980907511262756</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.07047876806612723</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.01980907511262756</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.07047876806612723</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02004420041664257</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.07047903659459126</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.02004420041664257</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.07047903659459126</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02027330373948769</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.07047930512305527</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.02027330373948769</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.07047930512305527</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02049623855534384</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.07047957365151929</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.02049623855534384</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.07047957365151929</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02071285833838155</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.07047984217998331</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.02071285833838155</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.07047984217998331</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02092301656278037</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.07048011070844733</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.02092301656278037</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.07048011070844733</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02112656670269258</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.07048037923691135</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.02112656670269258</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.07048037923691135</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02132336223229797</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.07048064776537535</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.02132336223229797</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.07048064776537535</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02132336223229798</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.07046748987063851</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.02132336223229798</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.07046748987063851</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.02160932779849055</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.07052884721084329</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.02160932779849055</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.07052884721084329</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.02189230962915238</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.07059020455104807</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.02189230962915238</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.07059020455104807</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.02217182279180803</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.07065156189125284</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.02217182279180803</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.07065156189125284</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.02244738235398215</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.07071291923145762</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.02244738235398215</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.07071291923145762</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.02271850338319931</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0707742765716624</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.02271850338319931</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.0707742765716624</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.02298470094698406</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.07083563391186717</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.02298470094698406</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.07083563391186717</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.02324549011286103</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.07089699125207195</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.02324549011286103</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.07089699125207195</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02350038594835484</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.07095834859227673</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.02350038594835484</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.07095834859227673</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.02374890352098999</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.07101970593248151</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.02374890352098999</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.07101970593248151</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.02399055789829117</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07108106327268629</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.02399055789829117</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.07108106327268629</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.02422486414778291</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07114242061289107</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.02422486414778291</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.07114242061289107</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02445133733698983</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07120377795309585</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.02445133733698983</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.07120377795309585</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02466949253343649</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07126513529330063</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.02466949253343649</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.07126513529330063</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02487884480464751</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.07132649263350541</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.02487884480464751</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.07132649263350541</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02507890921814748</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07138784997371019</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.02507890921814748</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.07138784997371019</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02526920084146099</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07144920731391496</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.02526920084146099</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.07144920731391496</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02544923474211261</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07151056465411974</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.02544923474211261</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.07151056465411974</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02561852598762694</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07157192199432452</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.02561852598762694</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.07157192199432452</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02577658964552859</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0716332793345293</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.02577658964552859</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.0716332793345293</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02592294078334213</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07169463667473408</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.02592294078334213</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.07169463667473408</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02605709446859217</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07175599401493886</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.02605709446859217</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.07175599401493886</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02617856576880329</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07181735135514362</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.02617856576880329</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.07181735135514362</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02628686975150009</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0718787086953484</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.02628686975150009</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.0718787086953484</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02638152148420714</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07194006603555318</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.02638152148420714</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.07194006603555318</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0264637243032821</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07200142337575795</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.0264637243032821</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.07200142337575795</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02654323234128868</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07206278071596273</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.02654323234128868</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.07206278071596273</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02662152864535489</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07212413805616751</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.02662152864535489</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.07212413805616751</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02669842015511345</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07218549539637228</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.02669842015511345</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.07218549539637228</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02677371381019712</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07224685273657706</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.02677371381019712</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.07224685273657706</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0268472165502387</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07230821007678184</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.0268472165502387</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.07230821007678184</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02691873531487091</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07236956741698662</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.02691873531487091</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.07236956741698662</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.02698807704372652</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0724309247571914</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.02698807704372652</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.0724309247571914</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02705504867643829</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07249228209739618</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.02705504867643829</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.07249228209739618</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02711945715263898</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07255363943760096</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.02711945715263898</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.07255363943760096</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02718110941196135</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07261499677780574</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.02718110941196135</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.07261499677780574</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02723981239403814</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07267635411801052</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.02723981239403814</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.07267635411801052</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02729537303850216</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0727377114582153</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.02729537303850216</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.0727377114582153</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0273475982849861</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07279906879842007</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.0273475982849861</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.07279906879842007</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02739629507312279</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07286042613862485</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.02739629507312279</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.07286042613862485</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02744127034254494</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07292178347882963</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.02744127034254494</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.07292178347882963</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02748233103288532</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.07298314081903441</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.02748233103288532</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.07298314081903441</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02751928408377671</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07304449815923919</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.02751928408377671</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.07304449815923919</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02755193643485183</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07310585549944397</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.02755193643485183</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.07310585549944397</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.02758009502574348</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07316721283964873</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.02758009502574348</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.07316721283964873</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0276035667960844</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07322857017985351</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.0276035667960844</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.07322857017985351</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02762215868550734</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07328992752005829</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.02762215868550734</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.07328992752005829</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02763567763364509</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07335128486026307</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.02763567763364509</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.07335128486026307</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02764393058013037</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07341264220046785</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.02764393058013037</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.07341264220046785</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.02764672446459596</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07347399954067263</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.02764672446459596</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.07347399954067263</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02764672446459596</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07347399954067263</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.02764672446459596</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.07347399954067263</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02739754385626882</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07665442588933173</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.02739754385626882</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.07665442588933173</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02718367726892099</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07983485223799083</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.02718367726892099</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.07983485223799083</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02700242625779181</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08301527858664992</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.02700242625779181</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.08301527858664992</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02685109237812065</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08619570493530901</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.02685109237812065</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.08619570493530901</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02672697718514683</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08937613128396811</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.02672697718514683</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.08937613128396811</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02662738223410974</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.09255655763262721</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.02662738223410974</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.09255655763262721</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02654960908024871</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.09573698398128631</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.02654960908024871</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.09573698398128631</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02649095927880307</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09891741032994539</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.02649095927880307</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.09891741032994539</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02644873438501222</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.1020978366786045</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.02644873438501222</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.1020978366786045</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02642023595411547</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.1052782630272636</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.02642023595411547</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.1052782630272636</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02640276554135219</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1084586893759227</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.02640276554135219</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.1084586893759227</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02639362470196172</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1116391157245818</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.02639362470196172</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.1116391157245818</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02639011499118343</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1148195420732409</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.02639011499118343</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1148195420732409</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02638953796425665</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1179999684219</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.02638953796425665</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1179999684219</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02647597744813719</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1211803947705591</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.02647597744813719</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1211803947705591</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02673454670215265</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1243608211192182</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.02673454670215265</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1243608211192182</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02710971225573354</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1275412474678773</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.02710971225573354</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1275412474678773</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02754508907152925</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1307216738165363</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.02754508907152925</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1307216738165363</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02798429211218913</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1339021001651954</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.02798429211218913</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1339021001651954</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02837093634036261</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1370825265138546</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.02837093634036261</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1370825265138546</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02864863671869906</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1402629528625136</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.02864863671869906</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1402629528625136</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02876100820984789</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1434433792111728</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.02876100820984789</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1434433792111728</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02871094729880089</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1466238055598318</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.02871094729880089</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1466238055598318</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02855560991727035</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.02855560991727035</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02830479439522285</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.15298465825715</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.02830479439522285</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.15298465825715</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02796816861046675</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1561650846058091</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.02796816861046675</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1561650846058091</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02755540044081053</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1593455109544682</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.02755540044081053</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1593455109544682</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02707615776406258</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1625259373031273</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.02707615776406258</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1625259373031273</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02654010845803137</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1657063636517864</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.02654010845803137</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1657063636517864</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02595692040052529</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1688867900004455</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.02595692040052529</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1688867900004455</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02533626146935278</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1720672163491046</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.02533626146935278</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1720672163491046</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02468779954232228</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1752476426977637</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.02468779954232228</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1752476426977637</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0240212024972422</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1784280690464228</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.0240212024972422</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1784280690464228</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02328726892891758</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1816084953950819</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.02328726892891758</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1816084953950819</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02202323340456426</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.184788921743741</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.02202323340456426</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.184788921743741</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02061148898619058</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1879693480924001</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.02061148898619058</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1879693480924001</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01965770099313255</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1911497744410592</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.01965770099313255</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1911497744410592</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01954019635496233</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1943302007897183</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.01954019635496233</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1943302007897183</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01954729734928828</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1975106271383774</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.01954729734928828</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1975106271383774</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01956156434131688</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2006910534870364</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.01956156434131688</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.2006910534870364</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01958348564088611</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2038714798356956</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.01958348564088611</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.2038714798356956</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01961354955783395</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2070519061843547</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.01961354955783395</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.2070519061843547</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.01965224440199838</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2102323325330138</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.01965224440199838</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.2102323325330138</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0197000584832174</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2134127588816729</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0197000584832174</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.2134127588816729</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.01975748011132897</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2165931852303319</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.01975748011132897</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2165931852303319</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01986336138606294</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2197736115789911</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.01986336138606294</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2197736115789911</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02036351306531732</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2229540379276501</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.02036351306531732</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2229540379276501</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02106530859499074</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2261344642763092</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.02106530859499074</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2261344642763092</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02162542223952889</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2293148906249683</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.02162542223952889</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2293148906249683</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0220269092548826</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2324953169736274</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.0220269092548826</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2324953169736274</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02238899503262091</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2356757433222865</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.02238899503262091</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2356757433222865</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02272262885938185</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2388561696709456</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.02272262885938185</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2388561696709456</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02303876002180345</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2420365960196047</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.02303876002180345</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2420365960196047</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02334833780652371</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2452170223682638</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.02334833780652371</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2452170223682638</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02365818218296262</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2483974487169229</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.02365818218296262</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2483974487169229</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02393445769744935</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.251577875065582</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.02393445769744935</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.251577875065582</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02419640812285308</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2547583014142411</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.02419640812285308</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2547583014142411</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02448116752537231</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2579387277629002</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.02448116752537231</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2579387277629002</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02482586997120548</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2611191541115593</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.02482586997120548</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2611191541115593</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0252913397379857</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2642995804602184</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.0252913397379857</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2642995804602184</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02590519354853893</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2674800068088775</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.02590519354853893</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2674800068088775</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02664732555876612</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2706604331575366</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.02664732555876612</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2706604331575366</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0274975836108111</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2738408595061957</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.0274975836108111</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2738408595061957</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02843581554681776</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2770212858548547</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.02843581554681776</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2770212858548547</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02944186920892995</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2802017122035139</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.02944186920892995</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2802017122035139</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03049559243929152</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.283382138552173</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.03049559243929152</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.283382138552173</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03157683308004634</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.286562564900832</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.03157683308004634</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.286562564900832</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03266543897333829</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2897429912494912</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.03266543897333829</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2897429912494912</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03374125796131119</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2929234175981503</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.03374125796131119</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2929234175981503</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03478413788610894</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2961038439468093</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.03478413788610894</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2961038439468093</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03577392658987535</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2992842702954684</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.03577392658987535</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2992842702954684</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03669047191475433</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.3024646966441276</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.03669047191475433</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.3024646966441276</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03751362170288972</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.3056451229927866</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.03751362170288972</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.3056451229927866</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03822322379642538</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3088255493414457</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.03822322379642538</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.3088255493414457</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03879912603750515</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3120059756901048</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.03879912603750515</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.3120059756901048</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03922117626827296</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3151864020387639</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.03922117626827296</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3151864020387639</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03952896595279462</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.318366828387423</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.03952896595279462</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.318366828387423</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03948711977498057</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3215472547360821</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.03948711977498057</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3215472547360821</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03847163410598232</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3247276810847412</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.03847163410598232</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3247276810847412</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03637707059781584</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3279081074334003</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.03637707059781584</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3279081074334003</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03357532720109355</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3310885337820594</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.03357532720109355</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3310885337820594</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03043830186642786</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3342689601307185</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.03043830186642786</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3342689601307185</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02733789254443124</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3374493864793776</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.02733789254443124</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3374493864793776</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02464599718571607</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3406298128280367</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.02464599718571607</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3406298128280367</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02273451374089482</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3438102391766958</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.02273451374089482</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3438102391766958</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02170504578154851</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3469906655253549</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.02170504578154851</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3469906655253549</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02079170289565252</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.350171091874014</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.02079170289565252</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.350171091874014</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01992020710514752</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3533515182226731</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.01992020710514752</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3533515182226731</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01909599118302904</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3565319445713322</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.01909599118302904</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3565319445713322</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01832448790229253</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3597123709199913</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.01832448790229253</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3597123709199913</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01761113003593344</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3628927972686504</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.01761113003593344</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3628927972686504</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01696135035694728</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3660732236173095</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.01696135035694728</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3660732236173095</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01638058163832949</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3692536499659685</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.01638058163832949</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3692536499659685</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0158742566530756</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3724340763146277</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.0158742566530756</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3724340763146277</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01544780817418102</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3756145026632868</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.01544780817418102</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3756145026632868</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01510666897464127</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3787949290119458</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.01510666897464127</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3787949290119458</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01485627182745182</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3819753553606049</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.01485627182745182</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3819753553606049</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01470204950560813</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.385155781709264</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.01470204950560813</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.385155781709264</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01464943478210569</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3883362080579231</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.01464943478210569</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3883362080579231</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
